--- a/flickit-assessment-kit/src/test/resources/correct-excel-kit.xlsx
+++ b/flickit-assessment-kit/src/test/resources/correct-excel-kit.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MaturityLevels" sheetId="1" state="visible" r:id="rId3"/>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">Questions!$A$2:$AB$56</definedName>
-    <definedName function="false" hidden="false" name="AnswerOptions" vbProcedure="false">AnswerOptions!$A$2:$A$38</definedName>
+    <definedName function="false" hidden="false" name="AnswerOptions" vbProcedure="false">AnswerOptions!$A$2:$A$34</definedName>
     <definedName function="false" hidden="false" name="Attributes" vbProcedure="false">QualityAttributes!$E$2:$E$42</definedName>
     <definedName function="false" hidden="false" name="MaturityLevels" vbProcedure="false">MaturityLevels!$A$3:$A$11</definedName>
     <definedName function="false" hidden="false" name="Questionaries" vbProcedure="false">Questionnaires!$A$2:$A$43</definedName>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="86">
   <si>
     <t xml:space="preserve">Cells indicate the percentage of points from the column's maturity level required to reach the maturity level in the row.</t>
   </si>
@@ -89,22 +89,13 @@
     <t xml:space="preserve">Option Value</t>
   </si>
   <si>
-    <t xml:space="preserve">QualityRange</t>
+    <t xml:space="preserve">YesNo</t>
   </si>
   <si>
-    <t xml:space="preserve">Undeveloped</t>
+    <t xml:space="preserve">No</t>
   </si>
   <si>
-    <t xml:space="preserve">Partial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discussable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acceptable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Excellent</t>
+    <t xml:space="preserve">Yes</t>
   </si>
   <si>
     <t xml:space="preserve">UsageRange</t>
@@ -113,10 +104,7 @@
     <t xml:space="preserve">Never</t>
   </si>
   <si>
-    <t xml:space="preserve">Rarely</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frequently</t>
+    <t xml:space="preserve">Often</t>
   </si>
   <si>
     <t xml:space="preserve">Always</t>
@@ -1460,8 +1448,8 @@
   </sheetPr>
   <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1498,74 +1486,42 @@
         <v>20</v>
       </c>
       <c r="C3" s="21" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19"/>
+      <c r="A4" s="22" t="s">
+        <v>21</v>
+      </c>
       <c r="B4" s="20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="21" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="19"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" s="21" t="n">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="19"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="21" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="22"/>
-      <c r="B8" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="21" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="22"/>
-      <c r="B9" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="21" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="22"/>
-      <c r="B10" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="21" t="n">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1580,8 +1536,8 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A6"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1619,54 +1575,54 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="23" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C2" s="24" t="n">
         <v>2</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G2" s="26" t="n">
         <v>1</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1675,42 +1631,42 @@
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
       <c r="E3" s="24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G3" s="26" t="n">
         <v>3</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="29" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C4" s="30" t="n">
         <v>1</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G4" s="30" t="n">
         <v>2</v>
       </c>
       <c r="H4" s="33" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1751,7 +1707,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="34" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B1" s="34" t="s">
         <v>1</v>
@@ -1760,18 +1716,18 @@
         <v>2</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="36" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D2" s="9" t="n">
         <f aca="false">COUNTIF(Questions!$B:$B, A2)</f>
@@ -1780,13 +1736,13 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="36" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D3" s="9" t="n">
         <f aca="false">COUNTIF(Questions!$B:$B, A3)</f>
@@ -1795,13 +1751,13 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D4" s="9" t="n">
         <f aca="false">COUNTIF(Questions!$B:$B, A4)</f>
@@ -1831,7 +1787,7 @@
   </sheetPr>
   <dimension ref="A1:BE1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -1861,7 +1817,7 @@
       <c r="G1" s="37"/>
       <c r="H1" s="37"/>
       <c r="I1" s="38" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="J1" s="38"/>
       <c r="K1" s="38"/>
@@ -1885,28 +1841,28 @@
     </row>
     <row r="2" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="37" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E2" s="37" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G2" s="40" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I2" s="41" t="str">
         <f aca="false" t="array" ref="I2:AW2">TRANSPOSE(Attributes)</f>
@@ -2067,19 +2023,19 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="44" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C3" s="45" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F3" s="45" t="n">
         <v>0</v>
@@ -2112,19 +2068,19 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="44" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E4" s="48" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F4" s="45" t="n">
         <v>0</v>
@@ -2157,19 +2113,19 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="44" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C5" s="45" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E5" s="48" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F5" s="45" t="n">
         <v>1</v>
@@ -2202,19 +2158,19 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="44" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C6" s="45" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6" s="49" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F6" s="45" t="n">
         <v>0</v>
@@ -2249,19 +2205,19 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="44" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B7" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="45" t="s">
-        <v>85</v>
-      </c>
       <c r="D7" s="45" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7" s="50" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F7" s="45" t="n">
         <v>1</v>
@@ -28032,7 +27988,7 @@
       <c r="B1" s="64"/>
       <c r="C1" s="64"/>
       <c r="D1" s="65" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E1" s="65"/>
       <c r="F1" s="65"/>
@@ -28043,13 +27999,13 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="66" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C2" s="67" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D2" s="8" t="str">
         <f aca="false" t="array" ref="D2:L2">TRANSPOSE(MaturityLevels)</f>

--- a/flickit-assessment-kit/src/test/resources/correct-excel-kit.xlsx
+++ b/flickit-assessment-kit/src/test/resources/correct-excel-kit.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="MaturityLevels" sheetId="1" state="visible" r:id="rId3"/>
@@ -258,6 +258,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Description</t>
     </r>
@@ -275,6 +276,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Question Development 2 </t>
     </r>
@@ -284,6 +286,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Description</t>
     </r>
@@ -301,6 +304,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Question DevOps 1 </t>
     </r>
@@ -310,6 +314,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Description</t>
     </r>
@@ -330,6 +335,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Question TeamCollaboration 1 </t>
     </r>
@@ -339,6 +345,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Description</t>
     </r>
@@ -356,6 +363,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Question TeamCollaboration 2 </t>
     </r>
@@ -365,6 +373,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Description</t>
     </r>
@@ -387,7 +396,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -458,30 +467,6 @@
       <name val="Lexend"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -664,7 +649,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="68">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -857,23 +842,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -909,11 +886,11 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1448,7 +1425,7 @@
   </sheetPr>
   <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -1787,8 +1764,8 @@
   </sheetPr>
   <dimension ref="A1:BE1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K6" activeCellId="0" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
@@ -2079,7 +2056,7 @@
       <c r="D4" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="46" t="s">
         <v>72</v>
       </c>
       <c r="F4" s="45" t="n">
@@ -2124,7 +2101,7 @@
       <c r="D5" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="46" t="s">
         <v>75</v>
       </c>
       <c r="F5" s="45" t="n">
@@ -2169,7 +2146,7 @@
       <c r="D6" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="46" t="s">
         <v>79</v>
       </c>
       <c r="F6" s="45" t="n">
@@ -2216,7 +2193,7 @@
       <c r="D7" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="48" t="s">
         <v>82</v>
       </c>
       <c r="F7" s="45" t="n">
@@ -2257,7 +2234,7 @@
       <c r="B8" s="45"/>
       <c r="C8" s="45"/>
       <c r="D8" s="45"/>
-      <c r="E8" s="51"/>
+      <c r="E8" s="49"/>
       <c r="F8" s="45"/>
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
@@ -2284,7 +2261,7 @@
       <c r="B9" s="14"/>
       <c r="C9" s="45"/>
       <c r="D9" s="45"/>
-      <c r="E9" s="51"/>
+      <c r="E9" s="49"/>
       <c r="F9" s="45"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
@@ -2311,7 +2288,7 @@
       <c r="B10" s="14"/>
       <c r="C10" s="45"/>
       <c r="D10" s="45"/>
-      <c r="E10" s="51"/>
+      <c r="E10" s="49"/>
       <c r="F10" s="45"/>
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
@@ -2338,7 +2315,7 @@
       <c r="B11" s="14"/>
       <c r="C11" s="45"/>
       <c r="D11" s="45"/>
-      <c r="E11" s="51"/>
+      <c r="E11" s="49"/>
       <c r="F11" s="45"/>
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
@@ -2365,7 +2342,7 @@
       <c r="B12" s="14"/>
       <c r="C12" s="45"/>
       <c r="D12" s="45"/>
-      <c r="E12" s="51"/>
+      <c r="E12" s="49"/>
       <c r="F12" s="45"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
@@ -2392,7 +2369,7 @@
       <c r="B13" s="14"/>
       <c r="C13" s="45"/>
       <c r="D13" s="45"/>
-      <c r="E13" s="51"/>
+      <c r="E13" s="49"/>
       <c r="F13" s="45"/>
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
@@ -2419,7 +2396,7 @@
       <c r="B14" s="14"/>
       <c r="C14" s="45"/>
       <c r="D14" s="45"/>
-      <c r="E14" s="51"/>
+      <c r="E14" s="49"/>
       <c r="F14" s="45"/>
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
@@ -2473,7 +2450,7 @@
       <c r="B16" s="14"/>
       <c r="C16" s="45"/>
       <c r="D16" s="45"/>
-      <c r="E16" s="51"/>
+      <c r="E16" s="49"/>
       <c r="F16" s="45"/>
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
@@ -2739,7 +2716,7 @@
       <c r="Y25" s="14"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="52"/>
+      <c r="A26" s="50"/>
       <c r="B26" s="14"/>
       <c r="C26" s="45"/>
       <c r="D26" s="45"/>
@@ -2766,7 +2743,7 @@
       <c r="Y26" s="14"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="53"/>
+      <c r="A27" s="51"/>
       <c r="B27" s="14"/>
       <c r="C27" s="45"/>
       <c r="D27" s="45"/>
@@ -2793,7 +2770,7 @@
       <c r="Y27" s="14"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="53"/>
+      <c r="A28" s="51"/>
       <c r="B28" s="14"/>
       <c r="C28" s="45"/>
       <c r="D28" s="45"/>
@@ -2820,11 +2797,11 @@
       <c r="Y28" s="14"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="53"/>
+      <c r="A29" s="51"/>
       <c r="B29" s="14"/>
       <c r="C29" s="45"/>
       <c r="D29" s="45"/>
-      <c r="E29" s="51"/>
+      <c r="E29" s="49"/>
       <c r="F29" s="45"/>
       <c r="G29" s="45"/>
       <c r="H29" s="45"/>
@@ -2847,25 +2824,25 @@
       <c r="Y29" s="14"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="54"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
+      <c r="A30" s="52"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="59"/>
+      <c r="M30" s="57"/>
       <c r="N30" s="4"/>
-      <c r="O30" s="59"/>
-      <c r="P30" s="59"/>
-      <c r="Q30" s="59"/>
-      <c r="R30" s="57"/>
-      <c r="S30" s="59"/>
+      <c r="O30" s="57"/>
+      <c r="P30" s="57"/>
+      <c r="Q30" s="57"/>
+      <c r="R30" s="55"/>
+      <c r="S30" s="57"/>
       <c r="T30" s="14"/>
       <c r="U30" s="14"/>
       <c r="V30" s="14"/>
@@ -2874,25 +2851,25 @@
       <c r="Y30" s="14"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="60"/>
-      <c r="B31" s="55"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
+      <c r="A31" s="58"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
-      <c r="M31" s="59"/>
+      <c r="M31" s="57"/>
       <c r="N31" s="4"/>
-      <c r="O31" s="59"/>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="59"/>
-      <c r="R31" s="57"/>
-      <c r="S31" s="59"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="57"/>
+      <c r="Q31" s="57"/>
+      <c r="R31" s="55"/>
+      <c r="S31" s="57"/>
       <c r="T31" s="14"/>
       <c r="U31" s="14"/>
       <c r="V31" s="14"/>
@@ -2901,25 +2878,25 @@
       <c r="Y31" s="14"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="54"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="59"/>
+      <c r="A32" s="52"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="57"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
-      <c r="L32" s="59"/>
+      <c r="L32" s="57"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
-      <c r="Q32" s="59"/>
-      <c r="R32" s="57"/>
-      <c r="S32" s="59"/>
+      <c r="Q32" s="57"/>
+      <c r="R32" s="55"/>
+      <c r="S32" s="57"/>
       <c r="T32" s="14"/>
       <c r="U32" s="14"/>
       <c r="V32" s="14"/>
@@ -2928,25 +2905,25 @@
       <c r="Y32" s="14"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="60"/>
-      <c r="B33" s="55"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="59"/>
+      <c r="A33" s="58"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
-      <c r="O33" s="59"/>
+      <c r="O33" s="57"/>
       <c r="P33" s="4"/>
-      <c r="Q33" s="59"/>
-      <c r="R33" s="57"/>
-      <c r="S33" s="59"/>
+      <c r="Q33" s="57"/>
+      <c r="R33" s="55"/>
+      <c r="S33" s="57"/>
       <c r="T33" s="14"/>
       <c r="U33" s="14"/>
       <c r="V33" s="14"/>
@@ -2955,25 +2932,25 @@
       <c r="Y33" s="14"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="54"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="59"/>
+      <c r="A34" s="52"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="57"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="59"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
-      <c r="Q34" s="59"/>
-      <c r="R34" s="57"/>
-      <c r="S34" s="59"/>
+      <c r="Q34" s="57"/>
+      <c r="R34" s="55"/>
+      <c r="S34" s="57"/>
       <c r="T34" s="14"/>
       <c r="U34" s="14"/>
       <c r="V34" s="14"/>
@@ -2982,25 +2959,25 @@
       <c r="Y34" s="14"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="60"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="59"/>
-      <c r="J35" s="59"/>
-      <c r="K35" s="59"/>
-      <c r="L35" s="59"/>
+      <c r="A35" s="58"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="57"/>
       <c r="M35" s="4"/>
-      <c r="N35" s="59"/>
-      <c r="O35" s="59"/>
-      <c r="P35" s="59"/>
-      <c r="Q35" s="59"/>
-      <c r="R35" s="57"/>
-      <c r="S35" s="59"/>
+      <c r="N35" s="57"/>
+      <c r="O35" s="57"/>
+      <c r="P35" s="57"/>
+      <c r="Q35" s="57"/>
+      <c r="R35" s="55"/>
+      <c r="S35" s="57"/>
       <c r="T35" s="14"/>
       <c r="U35" s="14"/>
       <c r="V35" s="14"/>
@@ -3009,25 +2986,25 @@
       <c r="Y35" s="14"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="60"/>
-      <c r="B36" s="55"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="59"/>
-      <c r="J36" s="59"/>
-      <c r="K36" s="59"/>
-      <c r="L36" s="59"/>
-      <c r="M36" s="59"/>
+      <c r="A36" s="58"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="57"/>
+      <c r="M36" s="57"/>
       <c r="N36" s="4"/>
-      <c r="O36" s="59"/>
-      <c r="P36" s="59"/>
-      <c r="Q36" s="59"/>
-      <c r="R36" s="57"/>
-      <c r="S36" s="59"/>
+      <c r="O36" s="57"/>
+      <c r="P36" s="57"/>
+      <c r="Q36" s="57"/>
+      <c r="R36" s="55"/>
+      <c r="S36" s="57"/>
       <c r="T36" s="14"/>
       <c r="U36" s="14"/>
       <c r="V36" s="14"/>
@@ -3036,25 +3013,25 @@
       <c r="Y36" s="14"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="60"/>
-      <c r="B37" s="55"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="59"/>
-      <c r="J37" s="59"/>
-      <c r="K37" s="59"/>
-      <c r="L37" s="59"/>
+      <c r="A37" s="58"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="57"/>
+      <c r="K37" s="57"/>
+      <c r="L37" s="57"/>
       <c r="M37" s="4"/>
-      <c r="N37" s="59"/>
-      <c r="O37" s="59"/>
-      <c r="P37" s="59"/>
-      <c r="Q37" s="59"/>
-      <c r="R37" s="59"/>
-      <c r="S37" s="57"/>
+      <c r="N37" s="57"/>
+      <c r="O37" s="57"/>
+      <c r="P37" s="57"/>
+      <c r="Q37" s="57"/>
+      <c r="R37" s="57"/>
+      <c r="S37" s="55"/>
       <c r="T37" s="14"/>
       <c r="U37" s="14"/>
       <c r="V37" s="14"/>
@@ -3063,25 +3040,25 @@
       <c r="Y37" s="14"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="60"/>
-      <c r="B38" s="55"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="59"/>
-      <c r="J38" s="59"/>
-      <c r="K38" s="59"/>
-      <c r="L38" s="59"/>
-      <c r="M38" s="59"/>
-      <c r="N38" s="61"/>
-      <c r="O38" s="59"/>
-      <c r="P38" s="59"/>
-      <c r="Q38" s="59"/>
-      <c r="R38" s="59"/>
-      <c r="S38" s="57"/>
+      <c r="A38" s="58"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="57"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="57"/>
+      <c r="M38" s="57"/>
+      <c r="N38" s="59"/>
+      <c r="O38" s="57"/>
+      <c r="P38" s="57"/>
+      <c r="Q38" s="57"/>
+      <c r="R38" s="57"/>
+      <c r="S38" s="55"/>
       <c r="T38" s="14"/>
       <c r="U38" s="14"/>
       <c r="V38" s="14"/>
@@ -3090,25 +3067,25 @@
       <c r="Y38" s="14"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="60"/>
-      <c r="B39" s="55"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="56"/>
-      <c r="I39" s="59"/>
-      <c r="J39" s="59"/>
-      <c r="K39" s="59"/>
-      <c r="L39" s="59"/>
-      <c r="M39" s="59"/>
-      <c r="N39" s="61"/>
-      <c r="O39" s="59"/>
-      <c r="P39" s="59"/>
-      <c r="Q39" s="59"/>
-      <c r="R39" s="59"/>
-      <c r="S39" s="57"/>
+      <c r="A39" s="58"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="57"/>
+      <c r="K39" s="57"/>
+      <c r="L39" s="57"/>
+      <c r="M39" s="57"/>
+      <c r="N39" s="59"/>
+      <c r="O39" s="57"/>
+      <c r="P39" s="57"/>
+      <c r="Q39" s="57"/>
+      <c r="R39" s="57"/>
+      <c r="S39" s="55"/>
       <c r="T39" s="14"/>
       <c r="U39" s="14"/>
       <c r="V39" s="14"/>
@@ -3117,25 +3094,25 @@
       <c r="Y39" s="14"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="60"/>
-      <c r="B40" s="55"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="56"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="58"/>
-      <c r="G40" s="58"/>
-      <c r="H40" s="56"/>
-      <c r="I40" s="59"/>
-      <c r="J40" s="59"/>
-      <c r="K40" s="59"/>
-      <c r="L40" s="59"/>
-      <c r="M40" s="59"/>
-      <c r="N40" s="62"/>
-      <c r="O40" s="59"/>
-      <c r="P40" s="59"/>
-      <c r="Q40" s="59"/>
-      <c r="R40" s="59"/>
-      <c r="S40" s="57"/>
+      <c r="A40" s="58"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="57"/>
+      <c r="K40" s="57"/>
+      <c r="L40" s="57"/>
+      <c r="M40" s="57"/>
+      <c r="N40" s="60"/>
+      <c r="O40" s="57"/>
+      <c r="P40" s="57"/>
+      <c r="Q40" s="57"/>
+      <c r="R40" s="57"/>
+      <c r="S40" s="55"/>
       <c r="T40" s="14"/>
       <c r="U40" s="14"/>
       <c r="V40" s="14"/>
@@ -3144,25 +3121,25 @@
       <c r="Y40" s="14"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="60"/>
-      <c r="B41" s="55"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="56"/>
-      <c r="I41" s="59"/>
-      <c r="J41" s="59"/>
-      <c r="K41" s="59"/>
-      <c r="L41" s="59"/>
-      <c r="M41" s="59"/>
-      <c r="N41" s="59"/>
-      <c r="O41" s="59"/>
-      <c r="P41" s="59"/>
-      <c r="Q41" s="59"/>
-      <c r="R41" s="59"/>
-      <c r="S41" s="57"/>
+      <c r="A41" s="58"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="57"/>
+      <c r="J41" s="57"/>
+      <c r="K41" s="57"/>
+      <c r="L41" s="57"/>
+      <c r="M41" s="57"/>
+      <c r="N41" s="57"/>
+      <c r="O41" s="57"/>
+      <c r="P41" s="57"/>
+      <c r="Q41" s="57"/>
+      <c r="R41" s="57"/>
+      <c r="S41" s="55"/>
       <c r="T41" s="14"/>
       <c r="U41" s="14"/>
       <c r="V41" s="14"/>
@@ -3171,25 +3148,25 @@
       <c r="Y41" s="14"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="60"/>
-      <c r="B42" s="55"/>
-      <c r="C42" s="56"/>
-      <c r="D42" s="56"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="56"/>
-      <c r="I42" s="59"/>
-      <c r="J42" s="59"/>
-      <c r="K42" s="59"/>
-      <c r="L42" s="59"/>
-      <c r="M42" s="59"/>
-      <c r="N42" s="59"/>
-      <c r="O42" s="59"/>
-      <c r="P42" s="59"/>
-      <c r="Q42" s="59"/>
-      <c r="R42" s="59"/>
-      <c r="S42" s="57"/>
+      <c r="A42" s="58"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="57"/>
+      <c r="K42" s="57"/>
+      <c r="L42" s="57"/>
+      <c r="M42" s="57"/>
+      <c r="N42" s="57"/>
+      <c r="O42" s="57"/>
+      <c r="P42" s="57"/>
+      <c r="Q42" s="57"/>
+      <c r="R42" s="57"/>
+      <c r="S42" s="55"/>
       <c r="T42" s="14"/>
       <c r="U42" s="14"/>
       <c r="V42" s="14"/>
@@ -3198,25 +3175,25 @@
       <c r="Y42" s="14"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="60"/>
-      <c r="B43" s="55"/>
-      <c r="C43" s="56"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="56"/>
-      <c r="I43" s="59"/>
-      <c r="J43" s="59"/>
-      <c r="K43" s="59"/>
-      <c r="L43" s="59"/>
-      <c r="M43" s="59"/>
-      <c r="N43" s="59"/>
-      <c r="O43" s="59"/>
-      <c r="P43" s="59"/>
-      <c r="Q43" s="59"/>
-      <c r="R43" s="59"/>
-      <c r="S43" s="57"/>
+      <c r="A43" s="58"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="57"/>
+      <c r="K43" s="57"/>
+      <c r="L43" s="57"/>
+      <c r="M43" s="57"/>
+      <c r="N43" s="57"/>
+      <c r="O43" s="57"/>
+      <c r="P43" s="57"/>
+      <c r="Q43" s="57"/>
+      <c r="R43" s="57"/>
+      <c r="S43" s="55"/>
       <c r="T43" s="14"/>
       <c r="U43" s="14"/>
       <c r="V43" s="14"/>
@@ -3225,25 +3202,25 @@
       <c r="Y43" s="14"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="60"/>
-      <c r="B44" s="55"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="56"/>
-      <c r="I44" s="59"/>
-      <c r="J44" s="59"/>
-      <c r="K44" s="59"/>
-      <c r="L44" s="59"/>
-      <c r="M44" s="59"/>
-      <c r="N44" s="59"/>
-      <c r="O44" s="59"/>
-      <c r="P44" s="59"/>
-      <c r="Q44" s="59"/>
-      <c r="R44" s="59"/>
-      <c r="S44" s="57"/>
+      <c r="A44" s="58"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="57"/>
+      <c r="K44" s="57"/>
+      <c r="L44" s="57"/>
+      <c r="M44" s="57"/>
+      <c r="N44" s="57"/>
+      <c r="O44" s="57"/>
+      <c r="P44" s="57"/>
+      <c r="Q44" s="57"/>
+      <c r="R44" s="57"/>
+      <c r="S44" s="55"/>
       <c r="T44" s="14"/>
       <c r="U44" s="14"/>
       <c r="V44" s="14"/>
@@ -3252,25 +3229,25 @@
       <c r="Y44" s="14"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="60"/>
-      <c r="B45" s="55"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="57"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="58"/>
-      <c r="H45" s="56"/>
-      <c r="I45" s="59"/>
-      <c r="J45" s="59"/>
-      <c r="K45" s="59"/>
-      <c r="L45" s="59"/>
+      <c r="A45" s="58"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="57"/>
+      <c r="K45" s="57"/>
+      <c r="L45" s="57"/>
       <c r="M45" s="4"/>
-      <c r="N45" s="59"/>
-      <c r="O45" s="59"/>
-      <c r="P45" s="59"/>
-      <c r="Q45" s="59"/>
-      <c r="R45" s="59"/>
-      <c r="S45" s="57"/>
+      <c r="N45" s="57"/>
+      <c r="O45" s="57"/>
+      <c r="P45" s="57"/>
+      <c r="Q45" s="57"/>
+      <c r="R45" s="57"/>
+      <c r="S45" s="55"/>
       <c r="T45" s="14"/>
       <c r="U45" s="14"/>
       <c r="V45" s="14"/>
@@ -3279,25 +3256,25 @@
       <c r="Y45" s="14"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="60"/>
-      <c r="B46" s="55"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="58"/>
-      <c r="H46" s="56"/>
-      <c r="I46" s="59"/>
-      <c r="J46" s="59"/>
-      <c r="K46" s="59"/>
-      <c r="L46" s="59"/>
-      <c r="M46" s="59"/>
-      <c r="N46" s="59"/>
-      <c r="O46" s="59"/>
-      <c r="P46" s="59"/>
-      <c r="Q46" s="59"/>
-      <c r="R46" s="59"/>
-      <c r="S46" s="57"/>
+      <c r="A46" s="58"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="56"/>
+      <c r="H46" s="54"/>
+      <c r="I46" s="57"/>
+      <c r="J46" s="57"/>
+      <c r="K46" s="57"/>
+      <c r="L46" s="57"/>
+      <c r="M46" s="57"/>
+      <c r="N46" s="57"/>
+      <c r="O46" s="57"/>
+      <c r="P46" s="57"/>
+      <c r="Q46" s="57"/>
+      <c r="R46" s="57"/>
+      <c r="S46" s="55"/>
       <c r="T46" s="14"/>
       <c r="U46" s="14"/>
       <c r="V46" s="14"/>
@@ -3306,25 +3283,25 @@
       <c r="Y46" s="14"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="60"/>
-      <c r="B47" s="55"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="58"/>
-      <c r="H47" s="56"/>
-      <c r="I47" s="59"/>
-      <c r="J47" s="59"/>
-      <c r="K47" s="59"/>
-      <c r="L47" s="59"/>
-      <c r="M47" s="59"/>
-      <c r="N47" s="59"/>
-      <c r="O47" s="59"/>
-      <c r="P47" s="59"/>
-      <c r="Q47" s="59"/>
-      <c r="R47" s="59"/>
-      <c r="S47" s="57"/>
+      <c r="A47" s="58"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="56"/>
+      <c r="G47" s="56"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="57"/>
+      <c r="J47" s="57"/>
+      <c r="K47" s="57"/>
+      <c r="L47" s="57"/>
+      <c r="M47" s="57"/>
+      <c r="N47" s="57"/>
+      <c r="O47" s="57"/>
+      <c r="P47" s="57"/>
+      <c r="Q47" s="57"/>
+      <c r="R47" s="57"/>
+      <c r="S47" s="55"/>
       <c r="T47" s="14"/>
       <c r="U47" s="14"/>
       <c r="V47" s="14"/>
@@ -3333,25 +3310,25 @@
       <c r="Y47" s="14"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="60"/>
-      <c r="B48" s="55"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="56"/>
-      <c r="E48" s="57"/>
-      <c r="F48" s="58"/>
-      <c r="G48" s="58"/>
-      <c r="H48" s="56"/>
-      <c r="I48" s="59"/>
-      <c r="J48" s="59"/>
-      <c r="K48" s="59"/>
-      <c r="L48" s="59"/>
-      <c r="M48" s="59"/>
-      <c r="N48" s="59"/>
-      <c r="O48" s="59"/>
-      <c r="P48" s="59"/>
-      <c r="Q48" s="59"/>
-      <c r="R48" s="59"/>
-      <c r="S48" s="57"/>
+      <c r="A48" s="58"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="54"/>
+      <c r="I48" s="57"/>
+      <c r="J48" s="57"/>
+      <c r="K48" s="57"/>
+      <c r="L48" s="57"/>
+      <c r="M48" s="57"/>
+      <c r="N48" s="57"/>
+      <c r="O48" s="57"/>
+      <c r="P48" s="57"/>
+      <c r="Q48" s="57"/>
+      <c r="R48" s="57"/>
+      <c r="S48" s="55"/>
       <c r="T48" s="14"/>
       <c r="U48" s="14"/>
       <c r="V48" s="14"/>
@@ -3360,25 +3337,25 @@
       <c r="Y48" s="14"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="60"/>
-      <c r="B49" s="55"/>
-      <c r="C49" s="56"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="58"/>
-      <c r="H49" s="56"/>
-      <c r="I49" s="59"/>
-      <c r="J49" s="59"/>
-      <c r="K49" s="59"/>
-      <c r="L49" s="59"/>
-      <c r="M49" s="59"/>
-      <c r="N49" s="59"/>
-      <c r="O49" s="59"/>
-      <c r="P49" s="59"/>
-      <c r="Q49" s="59"/>
-      <c r="R49" s="59"/>
-      <c r="S49" s="57"/>
+      <c r="A49" s="58"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="56"/>
+      <c r="G49" s="56"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="57"/>
+      <c r="J49" s="57"/>
+      <c r="K49" s="57"/>
+      <c r="L49" s="57"/>
+      <c r="M49" s="57"/>
+      <c r="N49" s="57"/>
+      <c r="O49" s="57"/>
+      <c r="P49" s="57"/>
+      <c r="Q49" s="57"/>
+      <c r="R49" s="57"/>
+      <c r="S49" s="55"/>
       <c r="T49" s="14"/>
       <c r="U49" s="14"/>
       <c r="V49" s="14"/>
@@ -3387,25 +3364,25 @@
       <c r="Y49" s="14"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="60"/>
-      <c r="B50" s="55"/>
-      <c r="C50" s="56"/>
-      <c r="D50" s="56"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="58"/>
-      <c r="G50" s="58"/>
-      <c r="H50" s="56"/>
-      <c r="I50" s="59"/>
-      <c r="J50" s="59"/>
-      <c r="K50" s="59"/>
-      <c r="L50" s="59"/>
-      <c r="M50" s="59"/>
-      <c r="N50" s="59"/>
-      <c r="O50" s="59"/>
-      <c r="P50" s="59"/>
-      <c r="Q50" s="59"/>
-      <c r="R50" s="59"/>
-      <c r="S50" s="57"/>
+      <c r="A50" s="58"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="56"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="54"/>
+      <c r="I50" s="57"/>
+      <c r="J50" s="57"/>
+      <c r="K50" s="57"/>
+      <c r="L50" s="57"/>
+      <c r="M50" s="57"/>
+      <c r="N50" s="57"/>
+      <c r="O50" s="57"/>
+      <c r="P50" s="57"/>
+      <c r="Q50" s="57"/>
+      <c r="R50" s="57"/>
+      <c r="S50" s="55"/>
       <c r="T50" s="14"/>
       <c r="U50" s="14"/>
       <c r="V50" s="14"/>
@@ -3414,25 +3391,25 @@
       <c r="Y50" s="14"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="60"/>
-      <c r="B51" s="55"/>
-      <c r="C51" s="56"/>
-      <c r="D51" s="56"/>
-      <c r="E51" s="57"/>
-      <c r="F51" s="58"/>
-      <c r="G51" s="58"/>
-      <c r="H51" s="56"/>
-      <c r="I51" s="59"/>
-      <c r="J51" s="59"/>
-      <c r="K51" s="59"/>
-      <c r="L51" s="59"/>
-      <c r="M51" s="59"/>
-      <c r="N51" s="59"/>
-      <c r="O51" s="59"/>
-      <c r="P51" s="59"/>
-      <c r="Q51" s="59"/>
-      <c r="R51" s="59"/>
-      <c r="S51" s="57"/>
+      <c r="A51" s="58"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="56"/>
+      <c r="G51" s="56"/>
+      <c r="H51" s="54"/>
+      <c r="I51" s="57"/>
+      <c r="J51" s="57"/>
+      <c r="K51" s="57"/>
+      <c r="L51" s="57"/>
+      <c r="M51" s="57"/>
+      <c r="N51" s="57"/>
+      <c r="O51" s="57"/>
+      <c r="P51" s="57"/>
+      <c r="Q51" s="57"/>
+      <c r="R51" s="57"/>
+      <c r="S51" s="55"/>
       <c r="T51" s="14"/>
       <c r="U51" s="14"/>
       <c r="V51" s="14"/>
@@ -3441,25 +3418,25 @@
       <c r="Y51" s="14"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="60"/>
-      <c r="B52" s="55"/>
-      <c r="C52" s="56"/>
-      <c r="D52" s="56"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="58"/>
-      <c r="G52" s="58"/>
-      <c r="H52" s="56"/>
-      <c r="I52" s="59"/>
-      <c r="J52" s="59"/>
-      <c r="K52" s="59"/>
-      <c r="L52" s="59"/>
-      <c r="M52" s="59"/>
-      <c r="N52" s="59"/>
-      <c r="O52" s="59"/>
-      <c r="P52" s="59"/>
-      <c r="Q52" s="59"/>
-      <c r="R52" s="59"/>
-      <c r="S52" s="57"/>
+      <c r="A52" s="58"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="54"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="56"/>
+      <c r="G52" s="56"/>
+      <c r="H52" s="54"/>
+      <c r="I52" s="57"/>
+      <c r="J52" s="57"/>
+      <c r="K52" s="57"/>
+      <c r="L52" s="57"/>
+      <c r="M52" s="57"/>
+      <c r="N52" s="57"/>
+      <c r="O52" s="57"/>
+      <c r="P52" s="57"/>
+      <c r="Q52" s="57"/>
+      <c r="R52" s="57"/>
+      <c r="S52" s="55"/>
       <c r="T52" s="14"/>
       <c r="U52" s="14"/>
       <c r="V52" s="14"/>
@@ -3468,25 +3445,25 @@
       <c r="Y52" s="14"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="60"/>
-      <c r="B53" s="55"/>
-      <c r="C53" s="56"/>
-      <c r="D53" s="56"/>
-      <c r="E53" s="57"/>
-      <c r="F53" s="58"/>
-      <c r="G53" s="58"/>
-      <c r="H53" s="56"/>
-      <c r="I53" s="59"/>
-      <c r="J53" s="59"/>
-      <c r="K53" s="59"/>
-      <c r="L53" s="59"/>
-      <c r="M53" s="59"/>
-      <c r="N53" s="59"/>
-      <c r="O53" s="59"/>
-      <c r="P53" s="59"/>
-      <c r="Q53" s="59"/>
-      <c r="R53" s="59"/>
-      <c r="S53" s="57"/>
+      <c r="A53" s="58"/>
+      <c r="B53" s="53"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="56"/>
+      <c r="G53" s="56"/>
+      <c r="H53" s="54"/>
+      <c r="I53" s="57"/>
+      <c r="J53" s="57"/>
+      <c r="K53" s="57"/>
+      <c r="L53" s="57"/>
+      <c r="M53" s="57"/>
+      <c r="N53" s="57"/>
+      <c r="O53" s="57"/>
+      <c r="P53" s="57"/>
+      <c r="Q53" s="57"/>
+      <c r="R53" s="57"/>
+      <c r="S53" s="55"/>
       <c r="T53" s="14"/>
       <c r="U53" s="14"/>
       <c r="V53" s="14"/>
@@ -3495,25 +3472,25 @@
       <c r="Y53" s="14"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="60"/>
-      <c r="B54" s="55"/>
-      <c r="C54" s="56"/>
-      <c r="D54" s="56"/>
-      <c r="E54" s="57"/>
-      <c r="F54" s="58"/>
-      <c r="G54" s="58"/>
-      <c r="H54" s="56"/>
-      <c r="I54" s="59"/>
-      <c r="J54" s="59"/>
-      <c r="K54" s="59"/>
-      <c r="L54" s="59"/>
-      <c r="M54" s="59"/>
-      <c r="N54" s="59"/>
-      <c r="O54" s="59"/>
-      <c r="P54" s="59"/>
-      <c r="Q54" s="59"/>
-      <c r="R54" s="59"/>
-      <c r="S54" s="57"/>
+      <c r="A54" s="58"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="56"/>
+      <c r="G54" s="56"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="57"/>
+      <c r="J54" s="57"/>
+      <c r="K54" s="57"/>
+      <c r="L54" s="57"/>
+      <c r="M54" s="57"/>
+      <c r="N54" s="57"/>
+      <c r="O54" s="57"/>
+      <c r="P54" s="57"/>
+      <c r="Q54" s="57"/>
+      <c r="R54" s="57"/>
+      <c r="S54" s="55"/>
       <c r="T54" s="14"/>
       <c r="U54" s="14"/>
       <c r="V54" s="14"/>
@@ -3522,25 +3499,25 @@
       <c r="Y54" s="14"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="60"/>
-      <c r="B55" s="55"/>
-      <c r="C55" s="56"/>
-      <c r="D55" s="56"/>
-      <c r="E55" s="57"/>
-      <c r="F55" s="58"/>
-      <c r="G55" s="58"/>
-      <c r="H55" s="56"/>
-      <c r="I55" s="59"/>
-      <c r="J55" s="59"/>
-      <c r="K55" s="59"/>
-      <c r="L55" s="59"/>
-      <c r="M55" s="59"/>
-      <c r="N55" s="59"/>
-      <c r="O55" s="59"/>
-      <c r="P55" s="59"/>
-      <c r="Q55" s="59"/>
-      <c r="R55" s="59"/>
-      <c r="S55" s="57"/>
+      <c r="A55" s="58"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="54"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="56"/>
+      <c r="G55" s="56"/>
+      <c r="H55" s="54"/>
+      <c r="I55" s="57"/>
+      <c r="J55" s="57"/>
+      <c r="K55" s="57"/>
+      <c r="L55" s="57"/>
+      <c r="M55" s="57"/>
+      <c r="N55" s="57"/>
+      <c r="O55" s="57"/>
+      <c r="P55" s="57"/>
+      <c r="Q55" s="57"/>
+      <c r="R55" s="57"/>
+      <c r="S55" s="55"/>
       <c r="T55" s="14"/>
       <c r="U55" s="14"/>
       <c r="V55" s="14"/>
@@ -3549,25 +3526,25 @@
       <c r="Y55" s="14"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="60"/>
-      <c r="B56" s="55"/>
-      <c r="C56" s="56"/>
-      <c r="D56" s="56"/>
-      <c r="E56" s="57"/>
-      <c r="F56" s="58"/>
-      <c r="G56" s="58"/>
-      <c r="H56" s="56"/>
-      <c r="I56" s="59"/>
-      <c r="J56" s="59"/>
-      <c r="K56" s="59"/>
-      <c r="L56" s="59"/>
-      <c r="M56" s="59"/>
-      <c r="N56" s="59"/>
-      <c r="O56" s="59"/>
-      <c r="P56" s="59"/>
-      <c r="Q56" s="59"/>
-      <c r="R56" s="59"/>
-      <c r="S56" s="57"/>
+      <c r="A56" s="58"/>
+      <c r="B56" s="53"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="54"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="56"/>
+      <c r="G56" s="56"/>
+      <c r="H56" s="54"/>
+      <c r="I56" s="57"/>
+      <c r="J56" s="57"/>
+      <c r="K56" s="57"/>
+      <c r="L56" s="57"/>
+      <c r="M56" s="57"/>
+      <c r="N56" s="57"/>
+      <c r="O56" s="57"/>
+      <c r="P56" s="57"/>
+      <c r="Q56" s="57"/>
+      <c r="R56" s="57"/>
+      <c r="S56" s="55"/>
       <c r="T56" s="14"/>
       <c r="U56" s="14"/>
       <c r="V56" s="14"/>
@@ -3576,11 +3553,11 @@
       <c r="Y56" s="14"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="53"/>
+      <c r="A57" s="51"/>
       <c r="B57" s="14"/>
       <c r="C57" s="45"/>
       <c r="D57" s="45"/>
-      <c r="E57" s="53"/>
+      <c r="E57" s="51"/>
       <c r="F57" s="45"/>
       <c r="G57" s="45"/>
       <c r="H57" s="45"/>
@@ -3603,11 +3580,11 @@
       <c r="Y57" s="14"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="53"/>
+      <c r="A58" s="51"/>
       <c r="B58" s="14"/>
       <c r="C58" s="45"/>
       <c r="D58" s="45"/>
-      <c r="E58" s="53"/>
+      <c r="E58" s="51"/>
       <c r="F58" s="45"/>
       <c r="G58" s="45"/>
       <c r="H58" s="45"/>
@@ -3630,11 +3607,11 @@
       <c r="Y58" s="14"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="53"/>
+      <c r="A59" s="51"/>
       <c r="B59" s="14"/>
       <c r="C59" s="45"/>
       <c r="D59" s="45"/>
-      <c r="E59" s="53"/>
+      <c r="E59" s="51"/>
       <c r="F59" s="45"/>
       <c r="G59" s="45"/>
       <c r="H59" s="45"/>
@@ -3657,11 +3634,11 @@
       <c r="Y59" s="14"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="53"/>
+      <c r="A60" s="51"/>
       <c r="B60" s="14"/>
       <c r="C60" s="45"/>
       <c r="D60" s="45"/>
-      <c r="E60" s="53"/>
+      <c r="E60" s="51"/>
       <c r="F60" s="45"/>
       <c r="G60" s="45"/>
       <c r="H60" s="45"/>
@@ -3684,11 +3661,11 @@
       <c r="Y60" s="14"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="53"/>
+      <c r="A61" s="51"/>
       <c r="B61" s="14"/>
       <c r="C61" s="45"/>
       <c r="D61" s="45"/>
-      <c r="E61" s="53"/>
+      <c r="E61" s="51"/>
       <c r="F61" s="45"/>
       <c r="G61" s="45"/>
       <c r="H61" s="45"/>
@@ -3711,11 +3688,11 @@
       <c r="Y61" s="14"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="53"/>
+      <c r="A62" s="51"/>
       <c r="B62" s="14"/>
       <c r="C62" s="45"/>
       <c r="D62" s="45"/>
-      <c r="E62" s="53"/>
+      <c r="E62" s="51"/>
       <c r="F62" s="45"/>
       <c r="G62" s="45"/>
       <c r="H62" s="45"/>
@@ -3738,11 +3715,11 @@
       <c r="Y62" s="14"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="53"/>
+      <c r="A63" s="51"/>
       <c r="B63" s="14"/>
       <c r="C63" s="45"/>
       <c r="D63" s="45"/>
-      <c r="E63" s="53"/>
+      <c r="E63" s="51"/>
       <c r="F63" s="45"/>
       <c r="G63" s="45"/>
       <c r="H63" s="45"/>
@@ -3765,11 +3742,11 @@
       <c r="Y63" s="14"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="53"/>
+      <c r="A64" s="51"/>
       <c r="B64" s="14"/>
       <c r="C64" s="45"/>
       <c r="D64" s="45"/>
-      <c r="E64" s="53"/>
+      <c r="E64" s="51"/>
       <c r="F64" s="45"/>
       <c r="G64" s="45"/>
       <c r="H64" s="45"/>
@@ -3792,11 +3769,11 @@
       <c r="Y64" s="14"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="53"/>
+      <c r="A65" s="51"/>
       <c r="B65" s="14"/>
       <c r="C65" s="45"/>
       <c r="D65" s="45"/>
-      <c r="E65" s="53"/>
+      <c r="E65" s="51"/>
       <c r="F65" s="45"/>
       <c r="G65" s="45"/>
       <c r="H65" s="45"/>
@@ -3819,11 +3796,11 @@
       <c r="Y65" s="14"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="53"/>
+      <c r="A66" s="51"/>
       <c r="B66" s="14"/>
       <c r="C66" s="45"/>
       <c r="D66" s="45"/>
-      <c r="E66" s="53"/>
+      <c r="E66" s="51"/>
       <c r="F66" s="45"/>
       <c r="G66" s="45"/>
       <c r="H66" s="45"/>
@@ -3846,11 +3823,11 @@
       <c r="Y66" s="14"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="53"/>
+      <c r="A67" s="51"/>
       <c r="B67" s="14"/>
       <c r="C67" s="45"/>
       <c r="D67" s="45"/>
-      <c r="E67" s="53"/>
+      <c r="E67" s="51"/>
       <c r="F67" s="45"/>
       <c r="G67" s="45"/>
       <c r="H67" s="45"/>
@@ -3873,11 +3850,11 @@
       <c r="Y67" s="14"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="53"/>
+      <c r="A68" s="51"/>
       <c r="B68" s="14"/>
       <c r="C68" s="45"/>
       <c r="D68" s="45"/>
-      <c r="E68" s="53"/>
+      <c r="E68" s="51"/>
       <c r="F68" s="45"/>
       <c r="G68" s="45"/>
       <c r="H68" s="45"/>
@@ -3900,11 +3877,11 @@
       <c r="Y68" s="14"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="53"/>
+      <c r="A69" s="51"/>
       <c r="B69" s="14"/>
       <c r="C69" s="45"/>
       <c r="D69" s="45"/>
-      <c r="E69" s="53"/>
+      <c r="E69" s="51"/>
       <c r="F69" s="45"/>
       <c r="G69" s="45"/>
       <c r="H69" s="45"/>
@@ -3927,11 +3904,11 @@
       <c r="Y69" s="14"/>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="53"/>
+      <c r="A70" s="51"/>
       <c r="B70" s="14"/>
       <c r="C70" s="45"/>
       <c r="D70" s="45"/>
-      <c r="E70" s="53"/>
+      <c r="E70" s="51"/>
       <c r="F70" s="45"/>
       <c r="G70" s="45"/>
       <c r="H70" s="45"/>
@@ -3954,11 +3931,11 @@
       <c r="Y70" s="14"/>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="53"/>
+      <c r="A71" s="51"/>
       <c r="B71" s="14"/>
       <c r="C71" s="45"/>
       <c r="D71" s="45"/>
-      <c r="E71" s="53"/>
+      <c r="E71" s="51"/>
       <c r="F71" s="45"/>
       <c r="G71" s="45"/>
       <c r="H71" s="45"/>
@@ -3981,11 +3958,11 @@
       <c r="Y71" s="14"/>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="53"/>
+      <c r="A72" s="51"/>
       <c r="B72" s="14"/>
       <c r="C72" s="45"/>
       <c r="D72" s="45"/>
-      <c r="E72" s="53"/>
+      <c r="E72" s="51"/>
       <c r="F72" s="45"/>
       <c r="G72" s="45"/>
       <c r="H72" s="45"/>
@@ -4008,11 +3985,11 @@
       <c r="Y72" s="14"/>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="53"/>
+      <c r="A73" s="51"/>
       <c r="B73" s="14"/>
       <c r="C73" s="45"/>
       <c r="D73" s="45"/>
-      <c r="E73" s="53"/>
+      <c r="E73" s="51"/>
       <c r="F73" s="45"/>
       <c r="G73" s="45"/>
       <c r="H73" s="45"/>
@@ -4035,11 +4012,11 @@
       <c r="Y73" s="14"/>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="53"/>
+      <c r="A74" s="51"/>
       <c r="B74" s="14"/>
       <c r="C74" s="45"/>
       <c r="D74" s="45"/>
-      <c r="E74" s="53"/>
+      <c r="E74" s="51"/>
       <c r="F74" s="45"/>
       <c r="G74" s="45"/>
       <c r="H74" s="45"/>
@@ -4062,11 +4039,11 @@
       <c r="Y74" s="14"/>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="53"/>
+      <c r="A75" s="51"/>
       <c r="B75" s="14"/>
       <c r="C75" s="45"/>
       <c r="D75" s="45"/>
-      <c r="E75" s="53"/>
+      <c r="E75" s="51"/>
       <c r="F75" s="45"/>
       <c r="G75" s="45"/>
       <c r="H75" s="45"/>
@@ -4089,11 +4066,11 @@
       <c r="Y75" s="14"/>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="53"/>
+      <c r="A76" s="51"/>
       <c r="B76" s="14"/>
       <c r="C76" s="45"/>
       <c r="D76" s="45"/>
-      <c r="E76" s="53"/>
+      <c r="E76" s="51"/>
       <c r="F76" s="45"/>
       <c r="G76" s="45"/>
       <c r="H76" s="45"/>
@@ -4116,11 +4093,11 @@
       <c r="Y76" s="14"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="53"/>
+      <c r="A77" s="51"/>
       <c r="B77" s="14"/>
       <c r="C77" s="45"/>
       <c r="D77" s="45"/>
-      <c r="E77" s="53"/>
+      <c r="E77" s="51"/>
       <c r="F77" s="45"/>
       <c r="G77" s="45"/>
       <c r="H77" s="45"/>
@@ -4143,11 +4120,11 @@
       <c r="Y77" s="14"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="53"/>
+      <c r="A78" s="51"/>
       <c r="B78" s="14"/>
       <c r="C78" s="45"/>
       <c r="D78" s="45"/>
-      <c r="E78" s="53"/>
+      <c r="E78" s="51"/>
       <c r="F78" s="45"/>
       <c r="G78" s="45"/>
       <c r="H78" s="45"/>
@@ -4170,11 +4147,11 @@
       <c r="Y78" s="14"/>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="53"/>
+      <c r="A79" s="51"/>
       <c r="B79" s="14"/>
       <c r="C79" s="45"/>
       <c r="D79" s="45"/>
-      <c r="E79" s="53"/>
+      <c r="E79" s="51"/>
       <c r="F79" s="45"/>
       <c r="G79" s="45"/>
       <c r="H79" s="45"/>
@@ -4197,11 +4174,11 @@
       <c r="Y79" s="14"/>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="53"/>
+      <c r="A80" s="51"/>
       <c r="B80" s="14"/>
       <c r="C80" s="45"/>
       <c r="D80" s="45"/>
-      <c r="E80" s="53"/>
+      <c r="E80" s="51"/>
       <c r="F80" s="45"/>
       <c r="G80" s="45"/>
       <c r="H80" s="45"/>
@@ -4224,11 +4201,11 @@
       <c r="Y80" s="14"/>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="53"/>
+      <c r="A81" s="51"/>
       <c r="B81" s="14"/>
       <c r="C81" s="45"/>
       <c r="D81" s="45"/>
-      <c r="E81" s="53"/>
+      <c r="E81" s="51"/>
       <c r="F81" s="45"/>
       <c r="G81" s="45"/>
       <c r="H81" s="45"/>
@@ -4251,11 +4228,11 @@
       <c r="Y81" s="14"/>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="53"/>
+      <c r="A82" s="51"/>
       <c r="B82" s="14"/>
       <c r="C82" s="45"/>
       <c r="D82" s="45"/>
-      <c r="E82" s="53"/>
+      <c r="E82" s="51"/>
       <c r="F82" s="45"/>
       <c r="G82" s="45"/>
       <c r="H82" s="45"/>
@@ -4278,11 +4255,11 @@
       <c r="Y82" s="14"/>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="53"/>
+      <c r="A83" s="51"/>
       <c r="B83" s="14"/>
       <c r="C83" s="45"/>
       <c r="D83" s="45"/>
-      <c r="E83" s="53"/>
+      <c r="E83" s="51"/>
       <c r="F83" s="45"/>
       <c r="G83" s="45"/>
       <c r="H83" s="45"/>
@@ -4305,11 +4282,11 @@
       <c r="Y83" s="14"/>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="53"/>
+      <c r="A84" s="51"/>
       <c r="B84" s="14"/>
       <c r="C84" s="45"/>
       <c r="D84" s="45"/>
-      <c r="E84" s="53"/>
+      <c r="E84" s="51"/>
       <c r="F84" s="45"/>
       <c r="G84" s="45"/>
       <c r="H84" s="45"/>
@@ -4332,11 +4309,11 @@
       <c r="Y84" s="14"/>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="53"/>
+      <c r="A85" s="51"/>
       <c r="B85" s="14"/>
       <c r="C85" s="45"/>
       <c r="D85" s="45"/>
-      <c r="E85" s="53"/>
+      <c r="E85" s="51"/>
       <c r="F85" s="45"/>
       <c r="G85" s="45"/>
       <c r="H85" s="45"/>
@@ -4359,11 +4336,11 @@
       <c r="Y85" s="14"/>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="53"/>
+      <c r="A86" s="51"/>
       <c r="B86" s="14"/>
       <c r="C86" s="45"/>
       <c r="D86" s="45"/>
-      <c r="E86" s="53"/>
+      <c r="E86" s="51"/>
       <c r="F86" s="45"/>
       <c r="G86" s="45"/>
       <c r="H86" s="45"/>
@@ -4386,11 +4363,11 @@
       <c r="Y86" s="14"/>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="53"/>
+      <c r="A87" s="51"/>
       <c r="B87" s="14"/>
       <c r="C87" s="45"/>
       <c r="D87" s="45"/>
-      <c r="E87" s="53"/>
+      <c r="E87" s="51"/>
       <c r="F87" s="45"/>
       <c r="G87" s="45"/>
       <c r="H87" s="45"/>
@@ -4413,11 +4390,11 @@
       <c r="Y87" s="14"/>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="53"/>
+      <c r="A88" s="51"/>
       <c r="B88" s="14"/>
       <c r="C88" s="45"/>
       <c r="D88" s="45"/>
-      <c r="E88" s="53"/>
+      <c r="E88" s="51"/>
       <c r="F88" s="45"/>
       <c r="G88" s="45"/>
       <c r="H88" s="45"/>
@@ -4440,11 +4417,11 @@
       <c r="Y88" s="14"/>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="53"/>
+      <c r="A89" s="51"/>
       <c r="B89" s="14"/>
       <c r="C89" s="45"/>
       <c r="D89" s="45"/>
-      <c r="E89" s="53"/>
+      <c r="E89" s="51"/>
       <c r="F89" s="45"/>
       <c r="G89" s="45"/>
       <c r="H89" s="45"/>
@@ -4467,11 +4444,11 @@
       <c r="Y89" s="14"/>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="53"/>
+      <c r="A90" s="51"/>
       <c r="B90" s="14"/>
       <c r="C90" s="45"/>
       <c r="D90" s="45"/>
-      <c r="E90" s="53"/>
+      <c r="E90" s="51"/>
       <c r="F90" s="45"/>
       <c r="G90" s="45"/>
       <c r="H90" s="45"/>
@@ -4494,11 +4471,11 @@
       <c r="Y90" s="14"/>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="53"/>
+      <c r="A91" s="51"/>
       <c r="B91" s="14"/>
       <c r="C91" s="45"/>
       <c r="D91" s="45"/>
-      <c r="E91" s="53"/>
+      <c r="E91" s="51"/>
       <c r="F91" s="45"/>
       <c r="G91" s="45"/>
       <c r="H91" s="45"/>
@@ -4521,11 +4498,11 @@
       <c r="Y91" s="14"/>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="53"/>
+      <c r="A92" s="51"/>
       <c r="B92" s="14"/>
       <c r="C92" s="45"/>
       <c r="D92" s="45"/>
-      <c r="E92" s="53"/>
+      <c r="E92" s="51"/>
       <c r="F92" s="45"/>
       <c r="G92" s="45"/>
       <c r="H92" s="45"/>
@@ -4548,11 +4525,11 @@
       <c r="Y92" s="14"/>
     </row>
     <row r="93" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="53"/>
+      <c r="A93" s="51"/>
       <c r="B93" s="14"/>
       <c r="C93" s="45"/>
       <c r="D93" s="45"/>
-      <c r="E93" s="53"/>
+      <c r="E93" s="51"/>
       <c r="F93" s="45"/>
       <c r="G93" s="45"/>
       <c r="H93" s="45"/>
@@ -4575,11 +4552,11 @@
       <c r="Y93" s="14"/>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="53"/>
+      <c r="A94" s="51"/>
       <c r="B94" s="14"/>
       <c r="C94" s="45"/>
       <c r="D94" s="45"/>
-      <c r="E94" s="53"/>
+      <c r="E94" s="51"/>
       <c r="F94" s="45"/>
       <c r="G94" s="45"/>
       <c r="H94" s="45"/>
@@ -4602,11 +4579,11 @@
       <c r="Y94" s="14"/>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="53"/>
+      <c r="A95" s="51"/>
       <c r="B95" s="14"/>
       <c r="C95" s="45"/>
       <c r="D95" s="45"/>
-      <c r="E95" s="53"/>
+      <c r="E95" s="51"/>
       <c r="F95" s="45"/>
       <c r="G95" s="45"/>
       <c r="H95" s="45"/>
@@ -4629,11 +4606,11 @@
       <c r="Y95" s="14"/>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="53"/>
+      <c r="A96" s="51"/>
       <c r="B96" s="14"/>
       <c r="C96" s="45"/>
       <c r="D96" s="45"/>
-      <c r="E96" s="53"/>
+      <c r="E96" s="51"/>
       <c r="F96" s="45"/>
       <c r="G96" s="45"/>
       <c r="H96" s="45"/>
@@ -4656,11 +4633,11 @@
       <c r="Y96" s="14"/>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="53"/>
+      <c r="A97" s="51"/>
       <c r="B97" s="14"/>
       <c r="C97" s="45"/>
       <c r="D97" s="45"/>
-      <c r="E97" s="53"/>
+      <c r="E97" s="51"/>
       <c r="F97" s="45"/>
       <c r="G97" s="45"/>
       <c r="H97" s="45"/>
@@ -4683,11 +4660,11 @@
       <c r="Y97" s="14"/>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="53"/>
+      <c r="A98" s="51"/>
       <c r="B98" s="14"/>
       <c r="C98" s="45"/>
       <c r="D98" s="45"/>
-      <c r="E98" s="53"/>
+      <c r="E98" s="51"/>
       <c r="F98" s="45"/>
       <c r="G98" s="45"/>
       <c r="H98" s="45"/>
@@ -4710,11 +4687,11 @@
       <c r="Y98" s="14"/>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="53"/>
+      <c r="A99" s="51"/>
       <c r="B99" s="14"/>
       <c r="C99" s="45"/>
       <c r="D99" s="45"/>
-      <c r="E99" s="53"/>
+      <c r="E99" s="51"/>
       <c r="F99" s="45"/>
       <c r="G99" s="45"/>
       <c r="H99" s="45"/>
@@ -4737,11 +4714,11 @@
       <c r="Y99" s="14"/>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="53"/>
+      <c r="A100" s="51"/>
       <c r="B100" s="14"/>
       <c r="C100" s="45"/>
       <c r="D100" s="45"/>
-      <c r="E100" s="53"/>
+      <c r="E100" s="51"/>
       <c r="F100" s="45"/>
       <c r="G100" s="45"/>
       <c r="H100" s="45"/>
@@ -4764,11 +4741,11 @@
       <c r="Y100" s="14"/>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="53"/>
+      <c r="A101" s="51"/>
       <c r="B101" s="14"/>
       <c r="C101" s="14"/>
       <c r="D101" s="14"/>
-      <c r="E101" s="53"/>
+      <c r="E101" s="51"/>
       <c r="F101" s="14"/>
       <c r="G101" s="14"/>
       <c r="H101" s="14"/>
@@ -4791,11 +4768,11 @@
       <c r="Y101" s="14"/>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="53"/>
+      <c r="A102" s="51"/>
       <c r="B102" s="14"/>
       <c r="C102" s="14"/>
       <c r="D102" s="14"/>
-      <c r="E102" s="53"/>
+      <c r="E102" s="51"/>
       <c r="F102" s="14"/>
       <c r="G102" s="14"/>
       <c r="H102" s="14"/>
@@ -4818,11 +4795,11 @@
       <c r="Y102" s="14"/>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="53"/>
+      <c r="A103" s="51"/>
       <c r="B103" s="14"/>
       <c r="C103" s="14"/>
       <c r="D103" s="14"/>
-      <c r="E103" s="53"/>
+      <c r="E103" s="51"/>
       <c r="F103" s="14"/>
       <c r="G103" s="14"/>
       <c r="H103" s="14"/>
@@ -4845,11 +4822,11 @@
       <c r="Y103" s="14"/>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="53"/>
+      <c r="A104" s="51"/>
       <c r="B104" s="14"/>
       <c r="C104" s="14"/>
       <c r="D104" s="14"/>
-      <c r="E104" s="53"/>
+      <c r="E104" s="51"/>
       <c r="F104" s="14"/>
       <c r="G104" s="14"/>
       <c r="H104" s="14"/>
@@ -4872,11 +4849,11 @@
       <c r="Y104" s="14"/>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="53"/>
+      <c r="A105" s="51"/>
       <c r="B105" s="14"/>
       <c r="C105" s="14"/>
       <c r="D105" s="14"/>
-      <c r="E105" s="53"/>
+      <c r="E105" s="51"/>
       <c r="F105" s="14"/>
       <c r="G105" s="14"/>
       <c r="H105" s="14"/>
@@ -4899,11 +4876,11 @@
       <c r="Y105" s="14"/>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="53"/>
+      <c r="A106" s="51"/>
       <c r="B106" s="14"/>
       <c r="C106" s="14"/>
       <c r="D106" s="14"/>
-      <c r="E106" s="53"/>
+      <c r="E106" s="51"/>
       <c r="F106" s="14"/>
       <c r="G106" s="14"/>
       <c r="H106" s="14"/>
@@ -4926,11 +4903,11 @@
       <c r="Y106" s="14"/>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="53"/>
+      <c r="A107" s="51"/>
       <c r="B107" s="14"/>
       <c r="C107" s="14"/>
       <c r="D107" s="14"/>
-      <c r="E107" s="53"/>
+      <c r="E107" s="51"/>
       <c r="F107" s="14"/>
       <c r="G107" s="14"/>
       <c r="H107" s="14"/>
@@ -4953,11 +4930,11 @@
       <c r="Y107" s="14"/>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="53"/>
+      <c r="A108" s="51"/>
       <c r="B108" s="14"/>
       <c r="C108" s="14"/>
       <c r="D108" s="14"/>
-      <c r="E108" s="53"/>
+      <c r="E108" s="51"/>
       <c r="F108" s="14"/>
       <c r="G108" s="14"/>
       <c r="H108" s="14"/>
@@ -4980,11 +4957,11 @@
       <c r="Y108" s="14"/>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="53"/>
+      <c r="A109" s="51"/>
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
       <c r="D109" s="14"/>
-      <c r="E109" s="53"/>
+      <c r="E109" s="51"/>
       <c r="F109" s="14"/>
       <c r="G109" s="14"/>
       <c r="H109" s="14"/>
@@ -5007,11 +4984,11 @@
       <c r="Y109" s="14"/>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="53"/>
+      <c r="A110" s="51"/>
       <c r="B110" s="14"/>
       <c r="C110" s="14"/>
       <c r="D110" s="14"/>
-      <c r="E110" s="53"/>
+      <c r="E110" s="51"/>
       <c r="F110" s="14"/>
       <c r="G110" s="14"/>
       <c r="H110" s="14"/>
@@ -5034,11 +5011,11 @@
       <c r="Y110" s="14"/>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="53"/>
+      <c r="A111" s="51"/>
       <c r="B111" s="14"/>
       <c r="C111" s="14"/>
       <c r="D111" s="14"/>
-      <c r="E111" s="53"/>
+      <c r="E111" s="51"/>
       <c r="F111" s="14"/>
       <c r="G111" s="14"/>
       <c r="H111" s="14"/>
@@ -5061,11 +5038,11 @@
       <c r="Y111" s="14"/>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="53"/>
+      <c r="A112" s="51"/>
       <c r="B112" s="14"/>
       <c r="C112" s="14"/>
       <c r="D112" s="14"/>
-      <c r="E112" s="53"/>
+      <c r="E112" s="51"/>
       <c r="F112" s="14"/>
       <c r="G112" s="14"/>
       <c r="H112" s="14"/>
@@ -5358,11 +5335,11 @@
       <c r="Y122" s="14"/>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="53"/>
+      <c r="A123" s="51"/>
       <c r="B123" s="14"/>
       <c r="C123" s="14"/>
       <c r="D123" s="14"/>
-      <c r="E123" s="53"/>
+      <c r="E123" s="51"/>
       <c r="F123" s="14"/>
       <c r="G123" s="14"/>
       <c r="H123" s="14"/>
@@ -5385,11 +5362,11 @@
       <c r="Y123" s="14"/>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="53"/>
+      <c r="A124" s="51"/>
       <c r="B124" s="14"/>
       <c r="C124" s="14"/>
       <c r="D124" s="14"/>
-      <c r="E124" s="53"/>
+      <c r="E124" s="51"/>
       <c r="F124" s="14"/>
       <c r="G124" s="14"/>
       <c r="H124" s="14"/>
@@ -5412,11 +5389,11 @@
       <c r="Y124" s="14"/>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="53"/>
+      <c r="A125" s="51"/>
       <c r="B125" s="14"/>
       <c r="C125" s="14"/>
       <c r="D125" s="14"/>
-      <c r="E125" s="53"/>
+      <c r="E125" s="51"/>
       <c r="F125" s="14"/>
       <c r="G125" s="14"/>
       <c r="H125" s="14"/>
@@ -5439,11 +5416,11 @@
       <c r="Y125" s="14"/>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="53"/>
+      <c r="A126" s="51"/>
       <c r="B126" s="14"/>
       <c r="C126" s="14"/>
       <c r="D126" s="14"/>
-      <c r="E126" s="53"/>
+      <c r="E126" s="51"/>
       <c r="F126" s="14"/>
       <c r="G126" s="14"/>
       <c r="H126" s="14"/>
@@ -5466,11 +5443,11 @@
       <c r="Y126" s="14"/>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="53"/>
+      <c r="A127" s="51"/>
       <c r="B127" s="14"/>
       <c r="C127" s="14"/>
       <c r="D127" s="14"/>
-      <c r="E127" s="53"/>
+      <c r="E127" s="51"/>
       <c r="F127" s="14"/>
       <c r="G127" s="14"/>
       <c r="H127" s="14"/>
@@ -5493,11 +5470,11 @@
       <c r="Y127" s="14"/>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="53"/>
+      <c r="A128" s="51"/>
       <c r="B128" s="14"/>
       <c r="C128" s="14"/>
       <c r="D128" s="14"/>
-      <c r="E128" s="53"/>
+      <c r="E128" s="51"/>
       <c r="F128" s="14"/>
       <c r="G128" s="14"/>
       <c r="H128" s="14"/>
@@ -5520,11 +5497,11 @@
       <c r="Y128" s="14"/>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="53"/>
+      <c r="A129" s="51"/>
       <c r="B129" s="14"/>
       <c r="C129" s="14"/>
       <c r="D129" s="14"/>
-      <c r="E129" s="53"/>
+      <c r="E129" s="51"/>
       <c r="F129" s="14"/>
       <c r="G129" s="14"/>
       <c r="H129" s="14"/>
@@ -5547,11 +5524,11 @@
       <c r="Y129" s="14"/>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="53"/>
+      <c r="A130" s="51"/>
       <c r="B130" s="14"/>
       <c r="C130" s="14"/>
       <c r="D130" s="14"/>
-      <c r="E130" s="53"/>
+      <c r="E130" s="51"/>
       <c r="F130" s="14"/>
       <c r="G130" s="14"/>
       <c r="H130" s="14"/>
@@ -5574,11 +5551,11 @@
       <c r="Y130" s="14"/>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="53"/>
+      <c r="A131" s="51"/>
       <c r="B131" s="14"/>
       <c r="C131" s="14"/>
       <c r="D131" s="14"/>
-      <c r="E131" s="53"/>
+      <c r="E131" s="51"/>
       <c r="F131" s="14"/>
       <c r="G131" s="14"/>
       <c r="H131" s="14"/>
@@ -5601,11 +5578,11 @@
       <c r="Y131" s="14"/>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="53"/>
+      <c r="A132" s="51"/>
       <c r="B132" s="14"/>
       <c r="C132" s="14"/>
       <c r="D132" s="14"/>
-      <c r="E132" s="53"/>
+      <c r="E132" s="51"/>
       <c r="F132" s="14"/>
       <c r="G132" s="14"/>
       <c r="H132" s="14"/>
@@ -5628,11 +5605,11 @@
       <c r="Y132" s="14"/>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="53"/>
+      <c r="A133" s="51"/>
       <c r="B133" s="14"/>
       <c r="C133" s="14"/>
       <c r="D133" s="14"/>
-      <c r="E133" s="53"/>
+      <c r="E133" s="51"/>
       <c r="F133" s="14"/>
       <c r="G133" s="14"/>
       <c r="H133" s="14"/>
@@ -5655,11 +5632,11 @@
       <c r="Y133" s="14"/>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="53"/>
+      <c r="A134" s="51"/>
       <c r="B134" s="14"/>
       <c r="C134" s="14"/>
       <c r="D134" s="14"/>
-      <c r="E134" s="53"/>
+      <c r="E134" s="51"/>
       <c r="F134" s="14"/>
       <c r="G134" s="14"/>
       <c r="H134" s="14"/>
@@ -5682,11 +5659,11 @@
       <c r="Y134" s="14"/>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="53"/>
+      <c r="A135" s="51"/>
       <c r="B135" s="14"/>
       <c r="C135" s="14"/>
       <c r="D135" s="14"/>
-      <c r="E135" s="53"/>
+      <c r="E135" s="51"/>
       <c r="F135" s="14"/>
       <c r="G135" s="14"/>
       <c r="H135" s="14"/>
@@ -5709,11 +5686,11 @@
       <c r="Y135" s="14"/>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="53"/>
+      <c r="A136" s="51"/>
       <c r="B136" s="14"/>
       <c r="C136" s="14"/>
       <c r="D136" s="14"/>
-      <c r="E136" s="53"/>
+      <c r="E136" s="51"/>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
       <c r="H136" s="14"/>
@@ -5736,11 +5713,11 @@
       <c r="Y136" s="14"/>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="53"/>
+      <c r="A137" s="51"/>
       <c r="B137" s="14"/>
       <c r="C137" s="14"/>
       <c r="D137" s="14"/>
-      <c r="E137" s="53"/>
+      <c r="E137" s="51"/>
       <c r="F137" s="14"/>
       <c r="G137" s="14"/>
       <c r="H137" s="14"/>
@@ -5763,11 +5740,11 @@
       <c r="Y137" s="14"/>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="53"/>
+      <c r="A138" s="51"/>
       <c r="B138" s="14"/>
       <c r="C138" s="14"/>
       <c r="D138" s="14"/>
-      <c r="E138" s="53"/>
+      <c r="E138" s="51"/>
       <c r="F138" s="14"/>
       <c r="G138" s="14"/>
       <c r="H138" s="14"/>
@@ -5790,11 +5767,11 @@
       <c r="Y138" s="14"/>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="53"/>
+      <c r="A139" s="51"/>
       <c r="B139" s="14"/>
       <c r="C139" s="14"/>
       <c r="D139" s="14"/>
-      <c r="E139" s="53"/>
+      <c r="E139" s="51"/>
       <c r="F139" s="14"/>
       <c r="G139" s="14"/>
       <c r="H139" s="14"/>
@@ -5817,11 +5794,11 @@
       <c r="Y139" s="14"/>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="53"/>
+      <c r="A140" s="51"/>
       <c r="B140" s="14"/>
       <c r="C140" s="14"/>
       <c r="D140" s="14"/>
-      <c r="E140" s="53"/>
+      <c r="E140" s="51"/>
       <c r="F140" s="14"/>
       <c r="G140" s="14"/>
       <c r="H140" s="14"/>
@@ -5844,11 +5821,11 @@
       <c r="Y140" s="14"/>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="53"/>
+      <c r="A141" s="51"/>
       <c r="B141" s="14"/>
       <c r="C141" s="14"/>
       <c r="D141" s="14"/>
-      <c r="E141" s="53"/>
+      <c r="E141" s="51"/>
       <c r="F141" s="14"/>
       <c r="G141" s="14"/>
       <c r="H141" s="14"/>
@@ -5871,11 +5848,11 @@
       <c r="Y141" s="14"/>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="53"/>
+      <c r="A142" s="51"/>
       <c r="B142" s="14"/>
       <c r="C142" s="14"/>
       <c r="D142" s="14"/>
-      <c r="E142" s="53"/>
+      <c r="E142" s="51"/>
       <c r="F142" s="14"/>
       <c r="G142" s="14"/>
       <c r="H142" s="14"/>
@@ -5898,11 +5875,11 @@
       <c r="Y142" s="14"/>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="53"/>
+      <c r="A143" s="51"/>
       <c r="B143" s="14"/>
       <c r="C143" s="14"/>
       <c r="D143" s="14"/>
-      <c r="E143" s="53"/>
+      <c r="E143" s="51"/>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
       <c r="H143" s="14"/>
@@ -5925,11 +5902,11 @@
       <c r="Y143" s="14"/>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="53"/>
+      <c r="A144" s="51"/>
       <c r="B144" s="14"/>
       <c r="C144" s="14"/>
       <c r="D144" s="14"/>
-      <c r="E144" s="53"/>
+      <c r="E144" s="51"/>
       <c r="F144" s="14"/>
       <c r="G144" s="14"/>
       <c r="H144" s="14"/>
@@ -5952,11 +5929,11 @@
       <c r="Y144" s="14"/>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="53"/>
+      <c r="A145" s="51"/>
       <c r="B145" s="14"/>
       <c r="C145" s="14"/>
       <c r="D145" s="14"/>
-      <c r="E145" s="53"/>
+      <c r="E145" s="51"/>
       <c r="F145" s="14"/>
       <c r="G145" s="14"/>
       <c r="H145" s="14"/>
@@ -5979,11 +5956,11 @@
       <c r="Y145" s="14"/>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="53"/>
+      <c r="A146" s="51"/>
       <c r="B146" s="14"/>
       <c r="C146" s="14"/>
       <c r="D146" s="14"/>
-      <c r="E146" s="53"/>
+      <c r="E146" s="51"/>
       <c r="F146" s="14"/>
       <c r="G146" s="14"/>
       <c r="H146" s="14"/>
@@ -6006,11 +5983,11 @@
       <c r="Y146" s="14"/>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="53"/>
+      <c r="A147" s="51"/>
       <c r="B147" s="14"/>
       <c r="C147" s="14"/>
       <c r="D147" s="14"/>
-      <c r="E147" s="53"/>
+      <c r="E147" s="51"/>
       <c r="F147" s="14"/>
       <c r="G147" s="14"/>
       <c r="H147" s="14"/>
@@ -6033,11 +6010,11 @@
       <c r="Y147" s="14"/>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="53"/>
+      <c r="A148" s="51"/>
       <c r="B148" s="14"/>
       <c r="C148" s="14"/>
       <c r="D148" s="14"/>
-      <c r="E148" s="53"/>
+      <c r="E148" s="51"/>
       <c r="F148" s="14"/>
       <c r="G148" s="14"/>
       <c r="H148" s="14"/>
@@ -6060,11 +6037,11 @@
       <c r="Y148" s="14"/>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="53"/>
+      <c r="A149" s="51"/>
       <c r="B149" s="14"/>
       <c r="C149" s="14"/>
       <c r="D149" s="14"/>
-      <c r="E149" s="53"/>
+      <c r="E149" s="51"/>
       <c r="F149" s="14"/>
       <c r="G149" s="14"/>
       <c r="H149" s="14"/>
@@ -6087,11 +6064,11 @@
       <c r="Y149" s="14"/>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="53"/>
+      <c r="A150" s="51"/>
       <c r="B150" s="14"/>
       <c r="C150" s="14"/>
       <c r="D150" s="14"/>
-      <c r="E150" s="53"/>
+      <c r="E150" s="51"/>
       <c r="F150" s="14"/>
       <c r="G150" s="14"/>
       <c r="H150" s="14"/>
@@ -6114,11 +6091,11 @@
       <c r="Y150" s="14"/>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="53"/>
+      <c r="A151" s="51"/>
       <c r="B151" s="14"/>
       <c r="C151" s="14"/>
       <c r="D151" s="14"/>
-      <c r="E151" s="53"/>
+      <c r="E151" s="51"/>
       <c r="F151" s="14"/>
       <c r="G151" s="14"/>
       <c r="H151" s="14"/>
@@ -6141,11 +6118,11 @@
       <c r="Y151" s="14"/>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="53"/>
+      <c r="A152" s="51"/>
       <c r="B152" s="14"/>
       <c r="C152" s="14"/>
       <c r="D152" s="14"/>
-      <c r="E152" s="53"/>
+      <c r="E152" s="51"/>
       <c r="F152" s="14"/>
       <c r="G152" s="14"/>
       <c r="H152" s="14"/>
@@ -6168,11 +6145,11 @@
       <c r="Y152" s="14"/>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="53"/>
+      <c r="A153" s="51"/>
       <c r="B153" s="14"/>
       <c r="C153" s="14"/>
       <c r="D153" s="14"/>
-      <c r="E153" s="53"/>
+      <c r="E153" s="51"/>
       <c r="F153" s="14"/>
       <c r="G153" s="14"/>
       <c r="H153" s="14"/>
@@ -6195,11 +6172,11 @@
       <c r="Y153" s="14"/>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="53"/>
+      <c r="A154" s="51"/>
       <c r="B154" s="14"/>
       <c r="C154" s="14"/>
       <c r="D154" s="14"/>
-      <c r="E154" s="53"/>
+      <c r="E154" s="51"/>
       <c r="F154" s="14"/>
       <c r="G154" s="14"/>
       <c r="H154" s="14"/>
@@ -6222,11 +6199,11 @@
       <c r="Y154" s="14"/>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="53"/>
+      <c r="A155" s="51"/>
       <c r="B155" s="14"/>
       <c r="C155" s="14"/>
       <c r="D155" s="14"/>
-      <c r="E155" s="53"/>
+      <c r="E155" s="51"/>
       <c r="F155" s="14"/>
       <c r="G155" s="14"/>
       <c r="H155" s="14"/>
@@ -6249,11 +6226,11 @@
       <c r="Y155" s="14"/>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="53"/>
+      <c r="A156" s="51"/>
       <c r="B156" s="14"/>
       <c r="C156" s="14"/>
       <c r="D156" s="14"/>
-      <c r="E156" s="53"/>
+      <c r="E156" s="51"/>
       <c r="F156" s="14"/>
       <c r="G156" s="14"/>
       <c r="H156" s="14"/>
@@ -6276,11 +6253,11 @@
       <c r="Y156" s="14"/>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="53"/>
+      <c r="A157" s="51"/>
       <c r="B157" s="14"/>
       <c r="C157" s="14"/>
       <c r="D157" s="14"/>
-      <c r="E157" s="53"/>
+      <c r="E157" s="51"/>
       <c r="F157" s="14"/>
       <c r="G157" s="14"/>
       <c r="H157" s="14"/>
@@ -6303,11 +6280,11 @@
       <c r="Y157" s="14"/>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="53"/>
+      <c r="A158" s="51"/>
       <c r="B158" s="14"/>
       <c r="C158" s="14"/>
       <c r="D158" s="14"/>
-      <c r="E158" s="53"/>
+      <c r="E158" s="51"/>
       <c r="F158" s="14"/>
       <c r="G158" s="14"/>
       <c r="H158" s="14"/>
@@ -6330,11 +6307,11 @@
       <c r="Y158" s="14"/>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="53"/>
+      <c r="A159" s="51"/>
       <c r="B159" s="14"/>
       <c r="C159" s="14"/>
       <c r="D159" s="14"/>
-      <c r="E159" s="53"/>
+      <c r="E159" s="51"/>
       <c r="F159" s="14"/>
       <c r="G159" s="14"/>
       <c r="H159" s="14"/>
@@ -6357,11 +6334,11 @@
       <c r="Y159" s="14"/>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="53"/>
+      <c r="A160" s="51"/>
       <c r="B160" s="14"/>
       <c r="C160" s="14"/>
       <c r="D160" s="14"/>
-      <c r="E160" s="53"/>
+      <c r="E160" s="51"/>
       <c r="F160" s="14"/>
       <c r="G160" s="14"/>
       <c r="H160" s="14"/>
@@ -6384,11 +6361,11 @@
       <c r="Y160" s="14"/>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="53"/>
+      <c r="A161" s="51"/>
       <c r="B161" s="14"/>
       <c r="C161" s="14"/>
       <c r="D161" s="14"/>
-      <c r="E161" s="53"/>
+      <c r="E161" s="51"/>
       <c r="F161" s="14"/>
       <c r="G161" s="14"/>
       <c r="H161" s="14"/>
@@ -6411,11 +6388,11 @@
       <c r="Y161" s="14"/>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="53"/>
+      <c r="A162" s="51"/>
       <c r="B162" s="14"/>
       <c r="C162" s="14"/>
       <c r="D162" s="14"/>
-      <c r="E162" s="53"/>
+      <c r="E162" s="51"/>
       <c r="F162" s="14"/>
       <c r="G162" s="14"/>
       <c r="H162" s="14"/>
@@ -6438,11 +6415,11 @@
       <c r="Y162" s="14"/>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="53"/>
+      <c r="A163" s="51"/>
       <c r="B163" s="14"/>
       <c r="C163" s="14"/>
       <c r="D163" s="14"/>
-      <c r="E163" s="53"/>
+      <c r="E163" s="51"/>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
       <c r="H163" s="14"/>
@@ -6465,11 +6442,11 @@
       <c r="Y163" s="14"/>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="53"/>
+      <c r="A164" s="51"/>
       <c r="B164" s="14"/>
       <c r="C164" s="14"/>
       <c r="D164" s="14"/>
-      <c r="E164" s="53"/>
+      <c r="E164" s="51"/>
       <c r="F164" s="14"/>
       <c r="G164" s="14"/>
       <c r="H164" s="14"/>
@@ -6492,11 +6469,11 @@
       <c r="Y164" s="14"/>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="53"/>
+      <c r="A165" s="51"/>
       <c r="B165" s="14"/>
       <c r="C165" s="14"/>
       <c r="D165" s="14"/>
-      <c r="E165" s="53"/>
+      <c r="E165" s="51"/>
       <c r="F165" s="14"/>
       <c r="G165" s="14"/>
       <c r="H165" s="14"/>
@@ -6519,11 +6496,11 @@
       <c r="Y165" s="14"/>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="53"/>
+      <c r="A166" s="51"/>
       <c r="B166" s="14"/>
       <c r="C166" s="14"/>
       <c r="D166" s="14"/>
-      <c r="E166" s="53"/>
+      <c r="E166" s="51"/>
       <c r="F166" s="14"/>
       <c r="G166" s="14"/>
       <c r="H166" s="14"/>
@@ -6546,11 +6523,11 @@
       <c r="Y166" s="14"/>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="53"/>
+      <c r="A167" s="51"/>
       <c r="B167" s="14"/>
       <c r="C167" s="14"/>
       <c r="D167" s="14"/>
-      <c r="E167" s="53"/>
+      <c r="E167" s="51"/>
       <c r="F167" s="14"/>
       <c r="G167" s="14"/>
       <c r="H167" s="14"/>
@@ -6573,11 +6550,11 @@
       <c r="Y167" s="14"/>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="53"/>
+      <c r="A168" s="51"/>
       <c r="B168" s="14"/>
       <c r="C168" s="14"/>
       <c r="D168" s="14"/>
-      <c r="E168" s="53"/>
+      <c r="E168" s="51"/>
       <c r="F168" s="14"/>
       <c r="G168" s="14"/>
       <c r="H168" s="14"/>
@@ -6600,11 +6577,11 @@
       <c r="Y168" s="14"/>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="53"/>
+      <c r="A169" s="51"/>
       <c r="B169" s="14"/>
       <c r="C169" s="14"/>
       <c r="D169" s="14"/>
-      <c r="E169" s="53"/>
+      <c r="E169" s="51"/>
       <c r="F169" s="14"/>
       <c r="G169" s="14"/>
       <c r="H169" s="14"/>
@@ -6627,11 +6604,11 @@
       <c r="Y169" s="14"/>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="53"/>
+      <c r="A170" s="51"/>
       <c r="B170" s="14"/>
       <c r="C170" s="14"/>
       <c r="D170" s="14"/>
-      <c r="E170" s="53"/>
+      <c r="E170" s="51"/>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
       <c r="H170" s="14"/>
@@ -6654,11 +6631,11 @@
       <c r="Y170" s="14"/>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="53"/>
+      <c r="A171" s="51"/>
       <c r="B171" s="14"/>
       <c r="C171" s="14"/>
       <c r="D171" s="14"/>
-      <c r="E171" s="53"/>
+      <c r="E171" s="51"/>
       <c r="F171" s="14"/>
       <c r="G171" s="14"/>
       <c r="H171" s="14"/>
@@ -6681,11 +6658,11 @@
       <c r="Y171" s="14"/>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="53"/>
+      <c r="A172" s="51"/>
       <c r="B172" s="14"/>
       <c r="C172" s="14"/>
       <c r="D172" s="14"/>
-      <c r="E172" s="53"/>
+      <c r="E172" s="51"/>
       <c r="F172" s="14"/>
       <c r="G172" s="14"/>
       <c r="H172" s="14"/>
@@ -6708,11 +6685,11 @@
       <c r="Y172" s="14"/>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="53"/>
+      <c r="A173" s="51"/>
       <c r="B173" s="14"/>
       <c r="C173" s="14"/>
       <c r="D173" s="14"/>
-      <c r="E173" s="53"/>
+      <c r="E173" s="51"/>
       <c r="F173" s="14"/>
       <c r="G173" s="14"/>
       <c r="H173" s="14"/>
@@ -6735,11 +6712,11 @@
       <c r="Y173" s="14"/>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="53"/>
+      <c r="A174" s="51"/>
       <c r="B174" s="14"/>
       <c r="C174" s="14"/>
       <c r="D174" s="14"/>
-      <c r="E174" s="53"/>
+      <c r="E174" s="51"/>
       <c r="F174" s="14"/>
       <c r="G174" s="14"/>
       <c r="H174" s="14"/>
@@ -6762,11 +6739,11 @@
       <c r="Y174" s="14"/>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="53"/>
+      <c r="A175" s="51"/>
       <c r="B175" s="14"/>
       <c r="C175" s="14"/>
       <c r="D175" s="14"/>
-      <c r="E175" s="53"/>
+      <c r="E175" s="51"/>
       <c r="F175" s="14"/>
       <c r="G175" s="14"/>
       <c r="H175" s="14"/>
@@ -6789,11 +6766,11 @@
       <c r="Y175" s="14"/>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="53"/>
+      <c r="A176" s="51"/>
       <c r="B176" s="14"/>
       <c r="C176" s="14"/>
       <c r="D176" s="14"/>
-      <c r="E176" s="53"/>
+      <c r="E176" s="51"/>
       <c r="F176" s="14"/>
       <c r="G176" s="14"/>
       <c r="H176" s="14"/>
@@ -6816,11 +6793,11 @@
       <c r="Y176" s="14"/>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="53"/>
+      <c r="A177" s="51"/>
       <c r="B177" s="14"/>
       <c r="C177" s="14"/>
       <c r="D177" s="14"/>
-      <c r="E177" s="53"/>
+      <c r="E177" s="51"/>
       <c r="F177" s="14"/>
       <c r="G177" s="14"/>
       <c r="H177" s="14"/>
@@ -6843,11 +6820,11 @@
       <c r="Y177" s="14"/>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="53"/>
+      <c r="A178" s="51"/>
       <c r="B178" s="14"/>
       <c r="C178" s="14"/>
       <c r="D178" s="14"/>
-      <c r="E178" s="53"/>
+      <c r="E178" s="51"/>
       <c r="F178" s="14"/>
       <c r="G178" s="14"/>
       <c r="H178" s="14"/>
@@ -6870,11 +6847,11 @@
       <c r="Y178" s="14"/>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="53"/>
+      <c r="A179" s="51"/>
       <c r="B179" s="14"/>
       <c r="C179" s="14"/>
       <c r="D179" s="14"/>
-      <c r="E179" s="53"/>
+      <c r="E179" s="51"/>
       <c r="F179" s="14"/>
       <c r="G179" s="14"/>
       <c r="H179" s="14"/>
@@ -6897,11 +6874,11 @@
       <c r="Y179" s="14"/>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="53"/>
+      <c r="A180" s="51"/>
       <c r="B180" s="14"/>
       <c r="C180" s="14"/>
       <c r="D180" s="14"/>
-      <c r="E180" s="53"/>
+      <c r="E180" s="51"/>
       <c r="F180" s="14"/>
       <c r="G180" s="14"/>
       <c r="H180" s="14"/>
@@ -6924,11 +6901,11 @@
       <c r="Y180" s="14"/>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="53"/>
+      <c r="A181" s="51"/>
       <c r="B181" s="14"/>
       <c r="C181" s="14"/>
       <c r="D181" s="14"/>
-      <c r="E181" s="53"/>
+      <c r="E181" s="51"/>
       <c r="F181" s="14"/>
       <c r="G181" s="14"/>
       <c r="H181" s="14"/>
@@ -6951,11 +6928,11 @@
       <c r="Y181" s="14"/>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="53"/>
+      <c r="A182" s="51"/>
       <c r="B182" s="14"/>
       <c r="C182" s="14"/>
       <c r="D182" s="14"/>
-      <c r="E182" s="53"/>
+      <c r="E182" s="51"/>
       <c r="F182" s="14"/>
       <c r="G182" s="14"/>
       <c r="H182" s="14"/>
@@ -6978,11 +6955,11 @@
       <c r="Y182" s="14"/>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="53"/>
+      <c r="A183" s="51"/>
       <c r="B183" s="14"/>
       <c r="C183" s="14"/>
       <c r="D183" s="14"/>
-      <c r="E183" s="53"/>
+      <c r="E183" s="51"/>
       <c r="F183" s="14"/>
       <c r="G183" s="14"/>
       <c r="H183" s="14"/>
@@ -7005,11 +6982,11 @@
       <c r="Y183" s="14"/>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="53"/>
+      <c r="A184" s="51"/>
       <c r="B184" s="14"/>
       <c r="C184" s="14"/>
       <c r="D184" s="14"/>
-      <c r="E184" s="53"/>
+      <c r="E184" s="51"/>
       <c r="F184" s="14"/>
       <c r="G184" s="14"/>
       <c r="H184" s="14"/>
@@ -7032,11 +7009,11 @@
       <c r="Y184" s="14"/>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="53"/>
+      <c r="A185" s="51"/>
       <c r="B185" s="14"/>
       <c r="C185" s="14"/>
       <c r="D185" s="14"/>
-      <c r="E185" s="53"/>
+      <c r="E185" s="51"/>
       <c r="F185" s="14"/>
       <c r="G185" s="14"/>
       <c r="H185" s="14"/>
@@ -7059,11 +7036,11 @@
       <c r="Y185" s="14"/>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="53"/>
+      <c r="A186" s="51"/>
       <c r="B186" s="14"/>
       <c r="C186" s="14"/>
       <c r="D186" s="14"/>
-      <c r="E186" s="53"/>
+      <c r="E186" s="51"/>
       <c r="F186" s="14"/>
       <c r="G186" s="14"/>
       <c r="H186" s="14"/>
@@ -7086,11 +7063,11 @@
       <c r="Y186" s="14"/>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="53"/>
+      <c r="A187" s="51"/>
       <c r="B187" s="14"/>
       <c r="C187" s="14"/>
       <c r="D187" s="14"/>
-      <c r="E187" s="53"/>
+      <c r="E187" s="51"/>
       <c r="F187" s="14"/>
       <c r="G187" s="14"/>
       <c r="H187" s="14"/>
@@ -7113,11 +7090,11 @@
       <c r="Y187" s="14"/>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="53"/>
+      <c r="A188" s="51"/>
       <c r="B188" s="14"/>
       <c r="C188" s="14"/>
       <c r="D188" s="14"/>
-      <c r="E188" s="53"/>
+      <c r="E188" s="51"/>
       <c r="F188" s="14"/>
       <c r="G188" s="14"/>
       <c r="H188" s="14"/>
@@ -7140,11 +7117,11 @@
       <c r="Y188" s="14"/>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="53"/>
+      <c r="A189" s="51"/>
       <c r="B189" s="14"/>
       <c r="C189" s="14"/>
       <c r="D189" s="14"/>
-      <c r="E189" s="53"/>
+      <c r="E189" s="51"/>
       <c r="F189" s="14"/>
       <c r="G189" s="14"/>
       <c r="H189" s="14"/>
@@ -7167,11 +7144,11 @@
       <c r="Y189" s="14"/>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="53"/>
+      <c r="A190" s="51"/>
       <c r="B190" s="14"/>
       <c r="C190" s="14"/>
       <c r="D190" s="14"/>
-      <c r="E190" s="53"/>
+      <c r="E190" s="51"/>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
       <c r="H190" s="14"/>
@@ -7194,11 +7171,11 @@
       <c r="Y190" s="14"/>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="53"/>
+      <c r="A191" s="51"/>
       <c r="B191" s="14"/>
       <c r="C191" s="14"/>
       <c r="D191" s="14"/>
-      <c r="E191" s="53"/>
+      <c r="E191" s="51"/>
       <c r="F191" s="14"/>
       <c r="G191" s="14"/>
       <c r="H191" s="14"/>
@@ -7221,11 +7198,11 @@
       <c r="Y191" s="14"/>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="53"/>
+      <c r="A192" s="51"/>
       <c r="B192" s="14"/>
       <c r="C192" s="14"/>
       <c r="D192" s="14"/>
-      <c r="E192" s="53"/>
+      <c r="E192" s="51"/>
       <c r="F192" s="14"/>
       <c r="G192" s="14"/>
       <c r="H192" s="14"/>
@@ -7248,11 +7225,11 @@
       <c r="Y192" s="14"/>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="53"/>
+      <c r="A193" s="51"/>
       <c r="B193" s="14"/>
       <c r="C193" s="14"/>
       <c r="D193" s="14"/>
-      <c r="E193" s="53"/>
+      <c r="E193" s="51"/>
       <c r="F193" s="14"/>
       <c r="G193" s="14"/>
       <c r="H193" s="14"/>
@@ -7275,11 +7252,11 @@
       <c r="Y193" s="14"/>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="53"/>
+      <c r="A194" s="51"/>
       <c r="B194" s="14"/>
       <c r="C194" s="14"/>
       <c r="D194" s="14"/>
-      <c r="E194" s="53"/>
+      <c r="E194" s="51"/>
       <c r="F194" s="14"/>
       <c r="G194" s="14"/>
       <c r="H194" s="14"/>
@@ -7302,11 +7279,11 @@
       <c r="Y194" s="14"/>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="53"/>
+      <c r="A195" s="51"/>
       <c r="B195" s="14"/>
       <c r="C195" s="14"/>
       <c r="D195" s="14"/>
-      <c r="E195" s="53"/>
+      <c r="E195" s="51"/>
       <c r="F195" s="14"/>
       <c r="G195" s="14"/>
       <c r="H195" s="14"/>
@@ -7329,11 +7306,11 @@
       <c r="Y195" s="14"/>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="53"/>
+      <c r="A196" s="51"/>
       <c r="B196" s="14"/>
       <c r="C196" s="14"/>
       <c r="D196" s="14"/>
-      <c r="E196" s="53"/>
+      <c r="E196" s="51"/>
       <c r="F196" s="14"/>
       <c r="G196" s="14"/>
       <c r="H196" s="14"/>
@@ -7356,11 +7333,11 @@
       <c r="Y196" s="14"/>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="53"/>
+      <c r="A197" s="51"/>
       <c r="B197" s="14"/>
       <c r="C197" s="14"/>
       <c r="D197" s="14"/>
-      <c r="E197" s="53"/>
+      <c r="E197" s="51"/>
       <c r="F197" s="14"/>
       <c r="G197" s="14"/>
       <c r="H197" s="14"/>
@@ -7383,11 +7360,11 @@
       <c r="Y197" s="14"/>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="53"/>
+      <c r="A198" s="51"/>
       <c r="B198" s="14"/>
       <c r="C198" s="14"/>
       <c r="D198" s="14"/>
-      <c r="E198" s="53"/>
+      <c r="E198" s="51"/>
       <c r="F198" s="14"/>
       <c r="G198" s="14"/>
       <c r="H198" s="14"/>
@@ -7410,11 +7387,11 @@
       <c r="Y198" s="14"/>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="53"/>
+      <c r="A199" s="51"/>
       <c r="B199" s="14"/>
       <c r="C199" s="14"/>
       <c r="D199" s="14"/>
-      <c r="E199" s="53"/>
+      <c r="E199" s="51"/>
       <c r="F199" s="14"/>
       <c r="G199" s="14"/>
       <c r="H199" s="14"/>
@@ -7437,11 +7414,11 @@
       <c r="Y199" s="14"/>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="53"/>
+      <c r="A200" s="51"/>
       <c r="B200" s="14"/>
       <c r="C200" s="14"/>
       <c r="D200" s="14"/>
-      <c r="E200" s="53"/>
+      <c r="E200" s="51"/>
       <c r="F200" s="14"/>
       <c r="G200" s="14"/>
       <c r="H200" s="14"/>
@@ -7464,11 +7441,11 @@
       <c r="Y200" s="14"/>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="53"/>
+      <c r="A201" s="51"/>
       <c r="B201" s="14"/>
       <c r="C201" s="14"/>
       <c r="D201" s="14"/>
-      <c r="E201" s="53"/>
+      <c r="E201" s="51"/>
       <c r="F201" s="14"/>
       <c r="G201" s="14"/>
       <c r="H201" s="14"/>
@@ -7491,11 +7468,11 @@
       <c r="Y201" s="14"/>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="53"/>
+      <c r="A202" s="51"/>
       <c r="B202" s="14"/>
       <c r="C202" s="14"/>
       <c r="D202" s="14"/>
-      <c r="E202" s="53"/>
+      <c r="E202" s="51"/>
       <c r="F202" s="14"/>
       <c r="G202" s="14"/>
       <c r="H202" s="14"/>
@@ -7518,11 +7495,11 @@
       <c r="Y202" s="14"/>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="53"/>
+      <c r="A203" s="51"/>
       <c r="B203" s="14"/>
       <c r="C203" s="14"/>
       <c r="D203" s="14"/>
-      <c r="E203" s="53"/>
+      <c r="E203" s="51"/>
       <c r="F203" s="14"/>
       <c r="G203" s="14"/>
       <c r="H203" s="14"/>
@@ -7545,11 +7522,11 @@
       <c r="Y203" s="14"/>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="53"/>
+      <c r="A204" s="51"/>
       <c r="B204" s="14"/>
       <c r="C204" s="14"/>
       <c r="D204" s="14"/>
-      <c r="E204" s="53"/>
+      <c r="E204" s="51"/>
       <c r="F204" s="14"/>
       <c r="G204" s="14"/>
       <c r="H204" s="14"/>
@@ -7572,11 +7549,11 @@
       <c r="Y204" s="14"/>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="53"/>
+      <c r="A205" s="51"/>
       <c r="B205" s="14"/>
       <c r="C205" s="14"/>
       <c r="D205" s="14"/>
-      <c r="E205" s="53"/>
+      <c r="E205" s="51"/>
       <c r="F205" s="14"/>
       <c r="G205" s="14"/>
       <c r="H205" s="14"/>
@@ -7599,11 +7576,11 @@
       <c r="Y205" s="14"/>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="53"/>
+      <c r="A206" s="51"/>
       <c r="B206" s="14"/>
       <c r="C206" s="14"/>
       <c r="D206" s="14"/>
-      <c r="E206" s="53"/>
+      <c r="E206" s="51"/>
       <c r="F206" s="14"/>
       <c r="G206" s="14"/>
       <c r="H206" s="14"/>
@@ -7626,11 +7603,11 @@
       <c r="Y206" s="14"/>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="53"/>
+      <c r="A207" s="51"/>
       <c r="B207" s="14"/>
       <c r="C207" s="14"/>
       <c r="D207" s="14"/>
-      <c r="E207" s="53"/>
+      <c r="E207" s="51"/>
       <c r="F207" s="14"/>
       <c r="G207" s="14"/>
       <c r="H207" s="14"/>
@@ -7653,11 +7630,11 @@
       <c r="Y207" s="14"/>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="53"/>
+      <c r="A208" s="51"/>
       <c r="B208" s="14"/>
       <c r="C208" s="14"/>
       <c r="D208" s="14"/>
-      <c r="E208" s="53"/>
+      <c r="E208" s="51"/>
       <c r="F208" s="14"/>
       <c r="G208" s="14"/>
       <c r="H208" s="14"/>
@@ -7680,11 +7657,11 @@
       <c r="Y208" s="14"/>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="53"/>
+      <c r="A209" s="51"/>
       <c r="B209" s="14"/>
       <c r="C209" s="14"/>
       <c r="D209" s="14"/>
-      <c r="E209" s="53"/>
+      <c r="E209" s="51"/>
       <c r="F209" s="14"/>
       <c r="G209" s="14"/>
       <c r="H209" s="14"/>
@@ -7707,11 +7684,11 @@
       <c r="Y209" s="14"/>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="53"/>
+      <c r="A210" s="51"/>
       <c r="B210" s="14"/>
       <c r="C210" s="14"/>
       <c r="D210" s="14"/>
-      <c r="E210" s="53"/>
+      <c r="E210" s="51"/>
       <c r="F210" s="14"/>
       <c r="G210" s="14"/>
       <c r="H210" s="14"/>
@@ -7734,11 +7711,11 @@
       <c r="Y210" s="14"/>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="53"/>
+      <c r="A211" s="51"/>
       <c r="B211" s="14"/>
       <c r="C211" s="14"/>
       <c r="D211" s="14"/>
-      <c r="E211" s="53"/>
+      <c r="E211" s="51"/>
       <c r="F211" s="14"/>
       <c r="G211" s="14"/>
       <c r="H211" s="14"/>
@@ -7761,11 +7738,11 @@
       <c r="Y211" s="14"/>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="53"/>
+      <c r="A212" s="51"/>
       <c r="B212" s="14"/>
       <c r="C212" s="14"/>
       <c r="D212" s="14"/>
-      <c r="E212" s="53"/>
+      <c r="E212" s="51"/>
       <c r="F212" s="14"/>
       <c r="G212" s="14"/>
       <c r="H212" s="14"/>
@@ -7788,11 +7765,11 @@
       <c r="Y212" s="14"/>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="53"/>
+      <c r="A213" s="51"/>
       <c r="B213" s="14"/>
       <c r="C213" s="14"/>
       <c r="D213" s="14"/>
-      <c r="E213" s="53"/>
+      <c r="E213" s="51"/>
       <c r="F213" s="14"/>
       <c r="G213" s="14"/>
       <c r="H213" s="14"/>
@@ -7815,11 +7792,11 @@
       <c r="Y213" s="14"/>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="53"/>
+      <c r="A214" s="51"/>
       <c r="B214" s="14"/>
       <c r="C214" s="14"/>
       <c r="D214" s="14"/>
-      <c r="E214" s="53"/>
+      <c r="E214" s="51"/>
       <c r="F214" s="14"/>
       <c r="G214" s="14"/>
       <c r="H214" s="14"/>
@@ -7842,11 +7819,11 @@
       <c r="Y214" s="14"/>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="53"/>
+      <c r="A215" s="51"/>
       <c r="B215" s="14"/>
       <c r="C215" s="14"/>
       <c r="D215" s="14"/>
-      <c r="E215" s="53"/>
+      <c r="E215" s="51"/>
       <c r="F215" s="14"/>
       <c r="G215" s="14"/>
       <c r="H215" s="14"/>
@@ -7869,11 +7846,11 @@
       <c r="Y215" s="14"/>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="53"/>
+      <c r="A216" s="51"/>
       <c r="B216" s="14"/>
       <c r="C216" s="14"/>
       <c r="D216" s="14"/>
-      <c r="E216" s="53"/>
+      <c r="E216" s="51"/>
       <c r="F216" s="14"/>
       <c r="G216" s="14"/>
       <c r="H216" s="14"/>
@@ -7896,11 +7873,11 @@
       <c r="Y216" s="14"/>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="53"/>
+      <c r="A217" s="51"/>
       <c r="B217" s="14"/>
       <c r="C217" s="14"/>
       <c r="D217" s="14"/>
-      <c r="E217" s="53"/>
+      <c r="E217" s="51"/>
       <c r="F217" s="14"/>
       <c r="G217" s="14"/>
       <c r="H217" s="14"/>
@@ -7923,11 +7900,11 @@
       <c r="Y217" s="14"/>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="53"/>
+      <c r="A218" s="51"/>
       <c r="B218" s="14"/>
       <c r="C218" s="14"/>
       <c r="D218" s="14"/>
-      <c r="E218" s="53"/>
+      <c r="E218" s="51"/>
       <c r="F218" s="14"/>
       <c r="G218" s="14"/>
       <c r="H218" s="14"/>
@@ -7950,11 +7927,11 @@
       <c r="Y218" s="14"/>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="53"/>
+      <c r="A219" s="51"/>
       <c r="B219" s="14"/>
       <c r="C219" s="14"/>
       <c r="D219" s="14"/>
-      <c r="E219" s="53"/>
+      <c r="E219" s="51"/>
       <c r="F219" s="14"/>
       <c r="G219" s="14"/>
       <c r="H219" s="14"/>
@@ -7977,11 +7954,11 @@
       <c r="Y219" s="14"/>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="53"/>
+      <c r="A220" s="51"/>
       <c r="B220" s="14"/>
       <c r="C220" s="14"/>
       <c r="D220" s="14"/>
-      <c r="E220" s="53"/>
+      <c r="E220" s="51"/>
       <c r="F220" s="14"/>
       <c r="G220" s="14"/>
       <c r="H220" s="14"/>
@@ -8004,11 +7981,11 @@
       <c r="Y220" s="14"/>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="53"/>
+      <c r="A221" s="51"/>
       <c r="B221" s="14"/>
       <c r="C221" s="14"/>
       <c r="D221" s="14"/>
-      <c r="E221" s="53"/>
+      <c r="E221" s="51"/>
       <c r="F221" s="14"/>
       <c r="G221" s="14"/>
       <c r="H221" s="14"/>
@@ -8031,11 +8008,11 @@
       <c r="Y221" s="14"/>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="53"/>
+      <c r="A222" s="51"/>
       <c r="B222" s="14"/>
       <c r="C222" s="14"/>
       <c r="D222" s="14"/>
-      <c r="E222" s="53"/>
+      <c r="E222" s="51"/>
       <c r="F222" s="14"/>
       <c r="G222" s="14"/>
       <c r="H222" s="14"/>
@@ -8058,11 +8035,11 @@
       <c r="Y222" s="14"/>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="53"/>
+      <c r="A223" s="51"/>
       <c r="B223" s="14"/>
       <c r="C223" s="14"/>
       <c r="D223" s="14"/>
-      <c r="E223" s="53"/>
+      <c r="E223" s="51"/>
       <c r="F223" s="14"/>
       <c r="G223" s="14"/>
       <c r="H223" s="14"/>
@@ -8085,11 +8062,11 @@
       <c r="Y223" s="14"/>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="53"/>
+      <c r="A224" s="51"/>
       <c r="B224" s="14"/>
       <c r="C224" s="14"/>
       <c r="D224" s="14"/>
-      <c r="E224" s="53"/>
+      <c r="E224" s="51"/>
       <c r="F224" s="14"/>
       <c r="G224" s="14"/>
       <c r="H224" s="14"/>
@@ -8112,11 +8089,11 @@
       <c r="Y224" s="14"/>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="53"/>
+      <c r="A225" s="51"/>
       <c r="B225" s="14"/>
       <c r="C225" s="14"/>
       <c r="D225" s="14"/>
-      <c r="E225" s="53"/>
+      <c r="E225" s="51"/>
       <c r="F225" s="14"/>
       <c r="G225" s="14"/>
       <c r="H225" s="14"/>
@@ -8139,11 +8116,11 @@
       <c r="Y225" s="14"/>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="53"/>
+      <c r="A226" s="51"/>
       <c r="B226" s="14"/>
       <c r="C226" s="14"/>
       <c r="D226" s="14"/>
-      <c r="E226" s="53"/>
+      <c r="E226" s="51"/>
       <c r="F226" s="14"/>
       <c r="G226" s="14"/>
       <c r="H226" s="14"/>
@@ -8166,11 +8143,11 @@
       <c r="Y226" s="14"/>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="53"/>
+      <c r="A227" s="51"/>
       <c r="B227" s="14"/>
       <c r="C227" s="14"/>
       <c r="D227" s="14"/>
-      <c r="E227" s="53"/>
+      <c r="E227" s="51"/>
       <c r="F227" s="14"/>
       <c r="G227" s="14"/>
       <c r="H227" s="14"/>
@@ -8193,11 +8170,11 @@
       <c r="Y227" s="14"/>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="53"/>
+      <c r="A228" s="51"/>
       <c r="B228" s="14"/>
       <c r="C228" s="14"/>
       <c r="D228" s="14"/>
-      <c r="E228" s="53"/>
+      <c r="E228" s="51"/>
       <c r="F228" s="14"/>
       <c r="G228" s="14"/>
       <c r="H228" s="14"/>
@@ -8220,11 +8197,11 @@
       <c r="Y228" s="14"/>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="53"/>
+      <c r="A229" s="51"/>
       <c r="B229" s="14"/>
       <c r="C229" s="14"/>
       <c r="D229" s="14"/>
-      <c r="E229" s="53"/>
+      <c r="E229" s="51"/>
       <c r="F229" s="14"/>
       <c r="G229" s="14"/>
       <c r="H229" s="14"/>
@@ -8247,11 +8224,11 @@
       <c r="Y229" s="14"/>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="53"/>
+      <c r="A230" s="51"/>
       <c r="B230" s="14"/>
       <c r="C230" s="14"/>
       <c r="D230" s="14"/>
-      <c r="E230" s="53"/>
+      <c r="E230" s="51"/>
       <c r="F230" s="14"/>
       <c r="G230" s="14"/>
       <c r="H230" s="14"/>
@@ -8274,11 +8251,11 @@
       <c r="Y230" s="14"/>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="53"/>
+      <c r="A231" s="51"/>
       <c r="B231" s="14"/>
       <c r="C231" s="14"/>
       <c r="D231" s="14"/>
-      <c r="E231" s="53"/>
+      <c r="E231" s="51"/>
       <c r="F231" s="14"/>
       <c r="G231" s="14"/>
       <c r="H231" s="14"/>
@@ -8301,11 +8278,11 @@
       <c r="Y231" s="14"/>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="53"/>
+      <c r="A232" s="51"/>
       <c r="B232" s="14"/>
       <c r="C232" s="14"/>
       <c r="D232" s="14"/>
-      <c r="E232" s="53"/>
+      <c r="E232" s="51"/>
       <c r="F232" s="14"/>
       <c r="G232" s="14"/>
       <c r="H232" s="14"/>
@@ -8328,11 +8305,11 @@
       <c r="Y232" s="14"/>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="53"/>
+      <c r="A233" s="51"/>
       <c r="B233" s="14"/>
       <c r="C233" s="14"/>
       <c r="D233" s="14"/>
-      <c r="E233" s="53"/>
+      <c r="E233" s="51"/>
       <c r="F233" s="14"/>
       <c r="G233" s="14"/>
       <c r="H233" s="14"/>
@@ -8355,11 +8332,11 @@
       <c r="Y233" s="14"/>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="53"/>
+      <c r="A234" s="51"/>
       <c r="B234" s="14"/>
       <c r="C234" s="14"/>
       <c r="D234" s="14"/>
-      <c r="E234" s="53"/>
+      <c r="E234" s="51"/>
       <c r="F234" s="14"/>
       <c r="G234" s="14"/>
       <c r="H234" s="14"/>
@@ -8382,11 +8359,11 @@
       <c r="Y234" s="14"/>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="53"/>
+      <c r="A235" s="51"/>
       <c r="B235" s="14"/>
       <c r="C235" s="14"/>
       <c r="D235" s="14"/>
-      <c r="E235" s="53"/>
+      <c r="E235" s="51"/>
       <c r="F235" s="14"/>
       <c r="G235" s="14"/>
       <c r="H235" s="14"/>
@@ -8409,11 +8386,11 @@
       <c r="Y235" s="14"/>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="53"/>
+      <c r="A236" s="51"/>
       <c r="B236" s="14"/>
       <c r="C236" s="14"/>
       <c r="D236" s="14"/>
-      <c r="E236" s="53"/>
+      <c r="E236" s="51"/>
       <c r="F236" s="14"/>
       <c r="G236" s="14"/>
       <c r="H236" s="14"/>
@@ -8436,11 +8413,11 @@
       <c r="Y236" s="14"/>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="53"/>
+      <c r="A237" s="51"/>
       <c r="B237" s="14"/>
       <c r="C237" s="14"/>
       <c r="D237" s="14"/>
-      <c r="E237" s="53"/>
+      <c r="E237" s="51"/>
       <c r="F237" s="14"/>
       <c r="G237" s="14"/>
       <c r="H237" s="14"/>
@@ -8463,11 +8440,11 @@
       <c r="Y237" s="14"/>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="53"/>
+      <c r="A238" s="51"/>
       <c r="B238" s="14"/>
       <c r="C238" s="14"/>
       <c r="D238" s="14"/>
-      <c r="E238" s="53"/>
+      <c r="E238" s="51"/>
       <c r="F238" s="14"/>
       <c r="G238" s="14"/>
       <c r="H238" s="14"/>
@@ -8490,11 +8467,11 @@
       <c r="Y238" s="14"/>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="53"/>
+      <c r="A239" s="51"/>
       <c r="B239" s="14"/>
       <c r="C239" s="14"/>
       <c r="D239" s="14"/>
-      <c r="E239" s="53"/>
+      <c r="E239" s="51"/>
       <c r="F239" s="14"/>
       <c r="G239" s="14"/>
       <c r="H239" s="14"/>
@@ -8517,11 +8494,11 @@
       <c r="Y239" s="14"/>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="53"/>
+      <c r="A240" s="51"/>
       <c r="B240" s="14"/>
       <c r="C240" s="14"/>
       <c r="D240" s="14"/>
-      <c r="E240" s="53"/>
+      <c r="E240" s="51"/>
       <c r="F240" s="14"/>
       <c r="G240" s="14"/>
       <c r="H240" s="14"/>
@@ -8544,11 +8521,11 @@
       <c r="Y240" s="14"/>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="53"/>
+      <c r="A241" s="51"/>
       <c r="B241" s="14"/>
       <c r="C241" s="14"/>
       <c r="D241" s="14"/>
-      <c r="E241" s="53"/>
+      <c r="E241" s="51"/>
       <c r="F241" s="14"/>
       <c r="G241" s="14"/>
       <c r="H241" s="14"/>
@@ -8571,11 +8548,11 @@
       <c r="Y241" s="14"/>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="53"/>
+      <c r="A242" s="51"/>
       <c r="B242" s="14"/>
       <c r="C242" s="14"/>
       <c r="D242" s="14"/>
-      <c r="E242" s="53"/>
+      <c r="E242" s="51"/>
       <c r="F242" s="14"/>
       <c r="G242" s="14"/>
       <c r="H242" s="14"/>
@@ -8598,11 +8575,11 @@
       <c r="Y242" s="14"/>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="53"/>
+      <c r="A243" s="51"/>
       <c r="B243" s="14"/>
       <c r="C243" s="14"/>
       <c r="D243" s="14"/>
-      <c r="E243" s="53"/>
+      <c r="E243" s="51"/>
       <c r="F243" s="14"/>
       <c r="G243" s="14"/>
       <c r="H243" s="14"/>
@@ -8625,11 +8602,11 @@
       <c r="Y243" s="14"/>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="53"/>
+      <c r="A244" s="51"/>
       <c r="B244" s="14"/>
       <c r="C244" s="14"/>
       <c r="D244" s="14"/>
-      <c r="E244" s="53"/>
+      <c r="E244" s="51"/>
       <c r="F244" s="14"/>
       <c r="G244" s="14"/>
       <c r="H244" s="14"/>
@@ -8652,11 +8629,11 @@
       <c r="Y244" s="14"/>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="53"/>
+      <c r="A245" s="51"/>
       <c r="B245" s="14"/>
       <c r="C245" s="14"/>
       <c r="D245" s="14"/>
-      <c r="E245" s="53"/>
+      <c r="E245" s="51"/>
       <c r="F245" s="14"/>
       <c r="G245" s="14"/>
       <c r="H245" s="14"/>
@@ -8679,11 +8656,11 @@
       <c r="Y245" s="14"/>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="53"/>
+      <c r="A246" s="51"/>
       <c r="B246" s="14"/>
       <c r="C246" s="14"/>
       <c r="D246" s="14"/>
-      <c r="E246" s="53"/>
+      <c r="E246" s="51"/>
       <c r="F246" s="14"/>
       <c r="G246" s="14"/>
       <c r="H246" s="14"/>
@@ -8706,11 +8683,11 @@
       <c r="Y246" s="14"/>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="53"/>
+      <c r="A247" s="51"/>
       <c r="B247" s="14"/>
       <c r="C247" s="14"/>
       <c r="D247" s="14"/>
-      <c r="E247" s="53"/>
+      <c r="E247" s="51"/>
       <c r="F247" s="14"/>
       <c r="G247" s="14"/>
       <c r="H247" s="14"/>
@@ -8733,11 +8710,11 @@
       <c r="Y247" s="14"/>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="53"/>
+      <c r="A248" s="51"/>
       <c r="B248" s="14"/>
       <c r="C248" s="14"/>
       <c r="D248" s="14"/>
-      <c r="E248" s="53"/>
+      <c r="E248" s="51"/>
       <c r="F248" s="14"/>
       <c r="G248" s="14"/>
       <c r="H248" s="14"/>
@@ -8760,11 +8737,11 @@
       <c r="Y248" s="14"/>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="53"/>
+      <c r="A249" s="51"/>
       <c r="B249" s="14"/>
       <c r="C249" s="14"/>
       <c r="D249" s="14"/>
-      <c r="E249" s="53"/>
+      <c r="E249" s="51"/>
       <c r="F249" s="14"/>
       <c r="G249" s="14"/>
       <c r="H249" s="14"/>
@@ -8787,11 +8764,11 @@
       <c r="Y249" s="14"/>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="53"/>
+      <c r="A250" s="51"/>
       <c r="B250" s="14"/>
       <c r="C250" s="14"/>
       <c r="D250" s="14"/>
-      <c r="E250" s="53"/>
+      <c r="E250" s="51"/>
       <c r="F250" s="14"/>
       <c r="G250" s="14"/>
       <c r="H250" s="14"/>
@@ -8814,11 +8791,11 @@
       <c r="Y250" s="14"/>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="53"/>
+      <c r="A251" s="51"/>
       <c r="B251" s="14"/>
       <c r="C251" s="14"/>
       <c r="D251" s="14"/>
-      <c r="E251" s="53"/>
+      <c r="E251" s="51"/>
       <c r="F251" s="14"/>
       <c r="G251" s="14"/>
       <c r="H251" s="14"/>
@@ -8841,11 +8818,11 @@
       <c r="Y251" s="14"/>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="53"/>
+      <c r="A252" s="51"/>
       <c r="B252" s="14"/>
       <c r="C252" s="14"/>
       <c r="D252" s="14"/>
-      <c r="E252" s="53"/>
+      <c r="E252" s="51"/>
       <c r="F252" s="14"/>
       <c r="G252" s="14"/>
       <c r="H252" s="14"/>
@@ -8868,11 +8845,11 @@
       <c r="Y252" s="14"/>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="53"/>
+      <c r="A253" s="51"/>
       <c r="B253" s="14"/>
       <c r="C253" s="14"/>
       <c r="D253" s="14"/>
-      <c r="E253" s="53"/>
+      <c r="E253" s="51"/>
       <c r="F253" s="14"/>
       <c r="G253" s="14"/>
       <c r="H253" s="14"/>
@@ -8895,11 +8872,11 @@
       <c r="Y253" s="14"/>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="53"/>
+      <c r="A254" s="51"/>
       <c r="B254" s="45"/>
       <c r="C254" s="45"/>
       <c r="D254" s="45"/>
-      <c r="E254" s="53"/>
+      <c r="E254" s="51"/>
       <c r="F254" s="45"/>
       <c r="G254" s="45"/>
       <c r="H254" s="45"/>
@@ -8922,11 +8899,11 @@
       <c r="Y254" s="14"/>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="53"/>
+      <c r="A255" s="51"/>
       <c r="B255" s="45"/>
       <c r="C255" s="45"/>
       <c r="D255" s="45"/>
-      <c r="E255" s="53"/>
+      <c r="E255" s="51"/>
       <c r="F255" s="45"/>
       <c r="G255" s="45"/>
       <c r="H255" s="45"/>
@@ -8949,11 +8926,11 @@
       <c r="Y255" s="14"/>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="53"/>
+      <c r="A256" s="51"/>
       <c r="B256" s="45"/>
       <c r="C256" s="45"/>
       <c r="D256" s="45"/>
-      <c r="E256" s="53"/>
+      <c r="E256" s="51"/>
       <c r="F256" s="45"/>
       <c r="G256" s="45"/>
       <c r="H256" s="45"/>
@@ -8976,11 +8953,11 @@
       <c r="Y256" s="14"/>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="53"/>
+      <c r="A257" s="51"/>
       <c r="B257" s="14"/>
       <c r="C257" s="14"/>
       <c r="D257" s="14"/>
-      <c r="E257" s="53"/>
+      <c r="E257" s="51"/>
       <c r="F257" s="14"/>
       <c r="G257" s="14"/>
       <c r="H257" s="14"/>
@@ -9300,25 +9277,25 @@
       <c r="Y268" s="14"/>
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="63"/>
-      <c r="B269" s="63"/>
-      <c r="C269" s="63"/>
-      <c r="D269" s="63"/>
-      <c r="E269" s="63"/>
-      <c r="F269" s="63"/>
-      <c r="G269" s="63"/>
-      <c r="H269" s="63"/>
-      <c r="I269" s="63"/>
-      <c r="J269" s="63"/>
-      <c r="K269" s="63"/>
-      <c r="L269" s="63"/>
-      <c r="M269" s="63"/>
-      <c r="N269" s="63"/>
-      <c r="O269" s="63"/>
-      <c r="P269" s="63"/>
-      <c r="Q269" s="63"/>
-      <c r="R269" s="63"/>
-      <c r="S269" s="63"/>
+      <c r="A269" s="61"/>
+      <c r="B269" s="61"/>
+      <c r="C269" s="61"/>
+      <c r="D269" s="61"/>
+      <c r="E269" s="61"/>
+      <c r="F269" s="61"/>
+      <c r="G269" s="61"/>
+      <c r="H269" s="61"/>
+      <c r="I269" s="61"/>
+      <c r="J269" s="61"/>
+      <c r="K269" s="61"/>
+      <c r="L269" s="61"/>
+      <c r="M269" s="61"/>
+      <c r="N269" s="61"/>
+      <c r="O269" s="61"/>
+      <c r="P269" s="61"/>
+      <c r="Q269" s="61"/>
+      <c r="R269" s="61"/>
+      <c r="S269" s="61"/>
       <c r="T269" s="14"/>
       <c r="U269" s="14"/>
       <c r="V269" s="14"/>
@@ -27984,27 +27961,27 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="64"/>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="65" t="s">
+      <c r="A1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="65" t="s">
         <v>49</v>
       </c>
       <c r="D2" s="8" t="str">
@@ -28037,285 +28014,285 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="68" t="str">
+      <c r="A3" s="66" t="str">
         <f aca="false" t="array" ref="A3:A51">Subjects</f>
         <v>Team</v>
       </c>
-      <c r="B3" s="68" t="str">
+      <c r="B3" s="66" t="str">
         <f aca="false" t="array" ref="B3:B51">Attributes</f>
         <v>AttributeOne</v>
       </c>
-      <c r="C3" s="68" t="n">
+      <c r="C3" s="66" t="n">
         <f aca="false">COUNTA(Questions!$I3:$I381)</f>
         <v>2</v>
       </c>
-      <c r="D3" s="68" t="n">
+      <c r="D3" s="66" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$I$3:$I$201, Questions!$H$3:$H$201=D$2)))"),0)</f>
         <v>0</v>
       </c>
-      <c r="E3" s="68" t="n">
+      <c r="E3" s="66" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$I$3:$I$201, Questions!$H$3:$H$201=E$2)))"),2)</f>
         <v>2</v>
       </c>
-      <c r="F3" s="68" t="n">
+      <c r="F3" s="66" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$I$3:$I$201, Questions!$H$3:$H$201=F$2)))"),10)</f>
         <v>10</v>
       </c>
-      <c r="G3" s="68" t="n">
+      <c r="G3" s="66" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$I$3:$I$201, Questions!$H$3:$H$201=G$2)))"),5)</f>
         <v>5</v>
       </c>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="68" t="n">
+      <c r="A4" s="66" t="n">
         <v>0</v>
       </c>
-      <c r="B4" s="68" t="str">
+      <c r="B4" s="66" t="str">
         <v>AttributeTwo</v>
       </c>
-      <c r="C4" s="68" t="n">
+      <c r="C4" s="66" t="n">
         <f aca="false">COUNTA(Questions!$J3:$J381)</f>
         <v>4</v>
       </c>
-      <c r="D4" s="68" t="n">
+      <c r="D4" s="66" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$J$3:$J$201, Questions!$H$3:$H$201=D$2)))"),0)</f>
         <v>0</v>
       </c>
-      <c r="E4" s="68" t="n">
+      <c r="E4" s="66" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$J$3:$J$201, Questions!$H$3:$H$201=E$2)))"),6)</f>
         <v>6</v>
       </c>
-      <c r="F4" s="68" t="n">
+      <c r="F4" s="66" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$J$3:$J$201, Questions!$H$3:$H$201=F$2)))"),4)</f>
         <v>4</v>
       </c>
-      <c r="G4" s="68" t="n">
+      <c r="G4" s="66" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$J$3:$J$201, Questions!$H$3:$H$201=G$2)))"),7)</f>
         <v>7</v>
       </c>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="68" t="str">
+      <c r="A5" s="66" t="str">
         <v>Software</v>
       </c>
-      <c r="B5" s="68" t="str">
+      <c r="B5" s="66" t="str">
         <v>AttributeThree</v>
       </c>
-      <c r="C5" s="68" t="n">
+      <c r="C5" s="66" t="n">
         <f aca="false">COUNTA(Questions!$K3:$K381)</f>
         <v>2</v>
       </c>
-      <c r="D5" s="68" t="n">
+      <c r="D5" s="66" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$K$3:$K$201, Questions!$H$3:$H$201=D$2)))"),0)</f>
         <v>0</v>
       </c>
-      <c r="E5" s="68" t="n">
+      <c r="E5" s="66" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$K$3:$K$201, Questions!$H$3:$H$201=E$2)))"),3)</f>
         <v>3</v>
       </c>
-      <c r="F5" s="68" t="n">
+      <c r="F5" s="66" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$K$3:$K$201, Questions!$H$3:$H$201=F$2)))"),10)</f>
         <v>10</v>
       </c>
-      <c r="G5" s="68" t="n">
+      <c r="G5" s="66" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$K$3:$K$201, Questions!$H$3:$H$201=G$2)))"),4)</f>
         <v>4</v>
       </c>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="69" t="n">
+      <c r="A6" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="B6" s="69" t="n">
+      <c r="B6" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="C6" s="69" t="n">
+      <c r="C6" s="67" t="n">
         <f aca="false">COUNTA(Questions!$L3:$L381)</f>
         <v>0</v>
       </c>
-      <c r="D6" s="69" t="n">
+      <c r="D6" s="67" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$L$3:$L$201, Questions!$H$3:$H$201=D$2)))"),0)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="69" t="n">
+      <c r="E6" s="67" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$L$3:$L$201, Questions!$H$3:$H$201=E$2)))"),4)</f>
         <v>4</v>
       </c>
-      <c r="F6" s="69" t="n">
+      <c r="F6" s="67" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$L$3:$L$201, Questions!$H$3:$H$201=F$2)))"),13)</f>
         <v>13</v>
       </c>
-      <c r="G6" s="69" t="n">
+      <c r="G6" s="67" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$L$3:$L$201, Questions!$H$3:$H$201=G$2)))"),9)</f>
         <v>9</v>
       </c>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="69" t="n">
+      <c r="A7" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="B7" s="69" t="n">
+      <c r="B7" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="C7" s="69" t="n">
+      <c r="C7" s="67" t="n">
         <f aca="false">COUNTA(Questions!$M3:$M381)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="69" t="n">
+      <c r="D7" s="67" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$M$3:$M$201, Questions!$H$3:$H$201=D$2)))"),0)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="69" t="n">
+      <c r="E7" s="67" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$M$3:$M$201, Questions!$H$3:$H$201=E$2)))"),1)</f>
         <v>1</v>
       </c>
-      <c r="F7" s="69" t="n">
+      <c r="F7" s="67" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$M$3:$M$201, Questions!$H$3:$H$201=F$2)))"),7)</f>
         <v>7</v>
       </c>
-      <c r="G7" s="69" t="n">
+      <c r="G7" s="67" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$M$3:$M$201, Questions!$H$3:$H$201=G$2)))"),4)</f>
         <v>4</v>
       </c>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="69" t="n">
+      <c r="A8" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="B8" s="69" t="n">
+      <c r="B8" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="C8" s="69" t="n">
+      <c r="C8" s="67" t="n">
         <f aca="false">COUNTA(Questions!$N3:$N381)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="69" t="n">
+      <c r="D8" s="67" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$N$3:$N$201, Questions!$H$3:$H$201=D$2)))"),0)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="69" t="n">
+      <c r="E8" s="67" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$N$3:$N$201, Questions!$H$3:$H$201=E$2)))"),4)</f>
         <v>4</v>
       </c>
-      <c r="F8" s="69" t="n">
+      <c r="F8" s="67" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$N$3:$N$201, Questions!$H$3:$H$201=F$2)))"),11)</f>
         <v>11</v>
       </c>
-      <c r="G8" s="69" t="n">
+      <c r="G8" s="67" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$N$3:$N$201, Questions!$H$3:$H$201=G$2)))"),3)</f>
         <v>3</v>
       </c>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="69" t="n">
+      <c r="A9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="B9" s="69" t="n">
+      <c r="B9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="C9" s="69" t="n">
+      <c r="C9" s="67" t="n">
         <f aca="false">COUNTA(Questions!$O3:$O381)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="69" t="n">
+      <c r="D9" s="67" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$O$3:$O$201, Questions!$H$3:$H$201=D$2)))"),0)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="69" t="n">
+      <c r="E9" s="67" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$O$3:$O$201, Questions!$H$3:$H$201=E$2)))"),3)</f>
         <v>3</v>
       </c>
-      <c r="F9" s="69" t="n">
+      <c r="F9" s="67" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$O$3:$O$201, Questions!$H$3:$H$201=F$2)))"),9)</f>
         <v>9</v>
       </c>
-      <c r="G9" s="69" t="n">
+      <c r="G9" s="67" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$O$3:$O$201, Questions!$H$3:$H$201=G$2)))"),5)</f>
         <v>5</v>
       </c>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="69" t="n">
+      <c r="A10" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="B10" s="69" t="n">
+      <c r="B10" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="C10" s="69" t="n">
+      <c r="C10" s="67" t="n">
         <f aca="false">COUNTA(Questions!$P3:$P381)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="69" t="n">
+      <c r="D10" s="67" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$P$3:$P$201, Questions!$H$3:$H$201=D$2)))"),0)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="69" t="n">
+      <c r="E10" s="67" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$P$3:$P$201, Questions!$H$3:$H$201=E$2)))"),1)</f>
         <v>1</v>
       </c>
-      <c r="F10" s="69" t="n">
+      <c r="F10" s="67" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$P$3:$P$201, Questions!$H$3:$H$201=F$2)))"),3)</f>
         <v>3</v>
       </c>
-      <c r="G10" s="69" t="n">
+      <c r="G10" s="67" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$P$3:$P$201, Questions!$H$3:$H$201=G$2)))"),8)</f>
         <v>8</v>
       </c>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="69" t="n">
+      <c r="A11" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="B11" s="69" t="n">
+      <c r="B11" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="C11" s="69" t="n">
+      <c r="C11" s="67" t="n">
         <f aca="false">COUNTA(Questions!$Q3:$Q381)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="69" t="n">
+      <c r="D11" s="67" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$Q$3:$Q$201, Questions!$H$3:$H$201=D$2)))"),0)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="69" t="n">
+      <c r="E11" s="67" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$Q$3:$Q$201, Questions!$H$3:$H$201=E$2)))"),2)</f>
         <v>2</v>
       </c>
-      <c r="F11" s="69" t="n">
+      <c r="F11" s="67" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$Q$3:$Q$201, Questions!$H$3:$H$201=F$2)))"),5)</f>
         <v>5</v>
       </c>
-      <c r="G11" s="69" t="n">
+      <c r="G11" s="67" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$Q$3:$Q$201, Questions!$H$3:$H$201=G$2)))"),4)</f>
         <v>4</v>
       </c>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="n">
@@ -28324,11 +28301,11 @@
       <c r="B12" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="n">
@@ -28337,11 +28314,11 @@
       <c r="B13" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="n">

--- a/flickit-assessment-kit/src/test/resources/correct-excel-kit.xlsx
+++ b/flickit-assessment-kit/src/test/resources/correct-excel-kit.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="83">
   <si>
     <t xml:space="preserve">Cells indicate the percentage of points from the column's maturity level required to reach the maturity level in the row.</t>
   </si>
@@ -185,16 +185,10 @@
     <t xml:space="preserve">Quiz Count</t>
   </si>
   <si>
-    <t xml:space="preserve">DevelopmentCode</t>
-  </si>
-  <si>
     <t xml:space="preserve">Development</t>
   </si>
   <si>
     <t xml:space="preserve">Development Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DevOpsCode</t>
   </si>
   <si>
     <t xml:space="preserve">DevOps</t>
@@ -203,7 +197,7 @@
     <t xml:space="preserve">DevOps Description</t>
   </si>
   <si>
-    <t xml:space="preserve">TeamCollaborationCode</t>
+    <t xml:space="preserve">TeamCollaboration</t>
   </si>
   <si>
     <t xml:space="preserve">Team Collaboration</t>
@@ -321,9 +315,6 @@
   </si>
   <si>
     <t xml:space="preserve">Question TeamCollaboration 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TeamCollaboration</t>
   </si>
   <si>
     <t xml:space="preserve">Q20</t>
@@ -1671,7 +1662,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1701,44 +1692,44 @@
         <v>50</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>52</v>
       </c>
       <c r="D2" s="9" t="n">
         <f aca="false">COUNTIF(Questions!$B:$B, A2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>53</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="D3" s="9" t="n">
         <f aca="false">COUNTIF(Questions!$B:$B, A3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>56</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="D4" s="9" t="n">
         <f aca="false">COUNTIF(Questions!$B:$B, A4)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1765,13 +1756,13 @@
   <dimension ref="A1:BE1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K6" activeCellId="0" sqref="K6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="3" min="3" style="1" width="7.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="4" min="4" style="1" width="15.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="5" min="5" style="1" width="42.57"/>
@@ -1794,7 +1785,7 @@
       <c r="G1" s="37"/>
       <c r="H1" s="37"/>
       <c r="I1" s="38" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J1" s="38"/>
       <c r="K1" s="38"/>
@@ -1818,28 +1809,28 @@
     </row>
     <row r="2" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="D2" s="37" t="s">
         <v>61</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>63</v>
       </c>
       <c r="E2" s="37" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="37" t="s">
         <v>64</v>
-      </c>
-      <c r="G2" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="37" t="s">
-        <v>66</v>
       </c>
       <c r="I2" s="41" t="str">
         <f aca="false" t="array" ref="I2:AW2">TRANSPOSE(Attributes)</f>
@@ -2000,19 +1991,19 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="44" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="45" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D3" s="45" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F3" s="45" t="n">
         <v>0</v>
@@ -2045,19 +2036,19 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="44" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D4" s="45" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F4" s="45" t="n">
         <v>0</v>
@@ -2090,19 +2081,19 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="44" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C5" s="45" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D5" s="45" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F5" s="45" t="n">
         <v>1</v>
@@ -2135,19 +2126,19 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="44" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C6" s="45" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D6" s="45" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F6" s="45" t="n">
         <v>0</v>
@@ -2182,19 +2173,19 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="44" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D7" s="45" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="48" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F7" s="45" t="n">
         <v>1</v>
@@ -27965,7 +27956,7 @@
       <c r="B1" s="62"/>
       <c r="C1" s="62"/>
       <c r="D1" s="63" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E1" s="63"/>
       <c r="F1" s="63"/>
@@ -27976,10 +27967,10 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="64" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C2" s="65" t="s">
         <v>49</v>

--- a/flickit-assessment-kit/src/test/resources/correct-excel-kit.xlsx
+++ b/flickit-assessment-kit/src/test/resources/correct-excel-kit.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MaturityLevels" sheetId="1" state="visible" r:id="rId3"/>
@@ -649,7 +649,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -814,15 +814,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1533,8 +1529,8 @@
   </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1764,8 +1760,8 @@
   </sheetPr>
   <dimension ref="A1:BE1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K6" activeCellId="0" sqref="K6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
@@ -1816,7 +1812,7 @@
       <c r="AA1" s="39"/>
       <c r="AB1" s="39"/>
     </row>
-    <row r="2" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="37" t="s">
         <v>60</v>
       </c>
@@ -1842,201 +1838,118 @@
         <v>66</v>
       </c>
       <c r="I2" s="41" t="str">
-        <f aca="false" t="array" ref="I2:AW2">TRANSPOSE(Attributes)</f>
+        <f aca="false">IF(QualityAttributes!E2="", "", QualityAttributes!E2)</f>
         <v>AttributeOne</v>
       </c>
       <c r="J2" s="41" t="str">
+        <f aca="false">IF(QualityAttributes!E3="", "", QualityAttributes!E3)</f>
         <v>AttributeTwo</v>
       </c>
       <c r="K2" s="41" t="str">
+        <f aca="false">IF(QualityAttributes!E4="", "", QualityAttributes!E4)</f>
         <v>AttributeThree</v>
       </c>
-      <c r="L2" s="41" t="n">
+      <c r="L2" s="41" t="str">
+        <f aca="false">IF(QualityAttributes!E5="", "", QualityAttributes!E5)</f>
+        <v/>
+      </c>
+      <c r="M2" s="41" t="str">
+        <f aca="false">IF(QualityAttributes!E6="", "", QualityAttributes!E6)</f>
+        <v/>
+      </c>
+      <c r="N2" s="41" t="str">
+        <f aca="false">IF(QualityAttributes!E7="", "", QualityAttributes!E7)</f>
+        <v/>
+      </c>
+      <c r="O2" s="41" t="str">
+        <f aca="false">IF(QualityAttributes!E8="", "", QualityAttributes!E8)</f>
+        <v/>
+      </c>
+      <c r="P2" s="41" t="str">
+        <f aca="false">IF(QualityAttributes!E9="", "", QualityAttributes!E9)</f>
+        <v/>
+      </c>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1"/>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1"/>
+      <c r="AX2" s="1"/>
+      <c r="AY2" s="1"/>
+      <c r="AZ2" s="1"/>
+      <c r="BA2" s="1"/>
+      <c r="BB2" s="1"/>
+      <c r="BC2" s="1"/>
+      <c r="BD2" s="1"/>
+      <c r="BE2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="44" t="n">
         <v>0</v>
       </c>
-      <c r="M2" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX2" s="1" t="e">
-        <f aca="false">#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AY2" s="1" t="e">
-        <f aca="false">#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AZ2" s="1" t="e">
-        <f aca="false">#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BA2" s="1" t="e">
-        <f aca="false">#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BB2" s="1" t="e">
-        <f aca="false">#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BC2" s="1" t="e">
-        <f aca="false">#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BD2" s="1" t="e">
-        <f aca="false">#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BE2" s="1" t="e">
-        <f aca="false">#N/A</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="45" t="n">
+      <c r="G3" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="45" t="s">
+      <c r="H3" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="47"/>
-      <c r="J3" s="45" t="n">
+      <c r="I3" s="46"/>
+      <c r="J3" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
       <c r="U3" s="14"/>
       <c r="V3" s="14"/>
       <c r="W3" s="14"/>
@@ -2044,44 +1957,44 @@
       <c r="Y3" s="14"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="45" t="n">
+      <c r="F4" s="44" t="n">
         <v>0</v>
       </c>
-      <c r="G4" s="45" t="n">
+      <c r="G4" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="H4" s="45" t="s">
+      <c r="H4" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45" t="n">
+      <c r="I4" s="44"/>
+      <c r="J4" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
       <c r="U4" s="14"/>
       <c r="V4" s="14"/>
       <c r="W4" s="14"/>
@@ -2089,38 +2002,38 @@
       <c r="Y4" s="14"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="45" t="n">
+      <c r="F5" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="45" t="n">
+      <c r="G5" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="H5" s="45" t="s">
+      <c r="H5" s="44" t="s">
         <v>9</v>
       </c>
       <c r="I5" s="14"/>
-      <c r="J5" s="45" t="n">
+      <c r="J5" s="44" t="n">
         <v>2</v>
       </c>
-      <c r="K5" s="45"/>
+      <c r="K5" s="44"/>
       <c r="L5" s="14"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
       <c r="Q5" s="14"/>
@@ -2134,35 +2047,35 @@
       <c r="Y5" s="14"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="F6" s="45" t="n">
+      <c r="F6" s="44" t="n">
         <v>0</v>
       </c>
-      <c r="G6" s="45" t="n">
+      <c r="G6" s="44" t="n">
         <v>0</v>
       </c>
-      <c r="H6" s="45" t="s">
+      <c r="H6" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="45" t="n">
+      <c r="I6" s="44" t="n">
         <v>1</v>
       </c>
       <c r="J6" s="14"/>
-      <c r="K6" s="45" t="n">
+      <c r="K6" s="44" t="n">
         <v>1</v>
       </c>
       <c r="L6" s="14"/>
@@ -2181,28 +2094,28 @@
       <c r="Y6" s="14"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="E7" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="F7" s="45" t="n">
+      <c r="F7" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="G7" s="45" t="n">
+      <c r="G7" s="44" t="n">
         <v>0</v>
       </c>
-      <c r="H7" s="45" t="s">
+      <c r="H7" s="44" t="s">
         <v>9</v>
       </c>
       <c r="I7" s="14" t="n">
@@ -2211,12 +2124,12 @@
       <c r="J7" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="K7" s="45" t="n">
+      <c r="K7" s="44" t="n">
         <v>1</v>
       </c>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
-      <c r="N7" s="45"/>
+      <c r="N7" s="44"/>
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
       <c r="Q7" s="14"/>
@@ -2230,14 +2143,14 @@
       <c r="Y7" s="14"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="44"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
@@ -2249,7 +2162,7 @@
       <c r="Q8" s="14"/>
       <c r="R8" s="14"/>
       <c r="S8" s="14"/>
-      <c r="T8" s="45"/>
+      <c r="T8" s="44"/>
       <c r="U8" s="14"/>
       <c r="V8" s="14"/>
       <c r="W8" s="14"/>
@@ -2257,14 +2170,14 @@
       <c r="Y8" s="14"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="44"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="14"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
@@ -2276,7 +2189,7 @@
       <c r="Q9" s="14"/>
       <c r="R9" s="14"/>
       <c r="S9" s="14"/>
-      <c r="T9" s="45"/>
+      <c r="T9" s="44"/>
       <c r="U9" s="14"/>
       <c r="V9" s="14"/>
       <c r="W9" s="14"/>
@@ -2284,20 +2197,20 @@
       <c r="Y9" s="14"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="44"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="14"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
-      <c r="N10" s="45"/>
+      <c r="N10" s="44"/>
       <c r="O10" s="14"/>
       <c r="P10" s="14"/>
       <c r="Q10" s="14"/>
@@ -2311,20 +2224,20 @@
       <c r="Y10" s="14"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="44"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="14"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
-      <c r="N11" s="45"/>
+      <c r="N11" s="44"/>
       <c r="O11" s="14"/>
       <c r="P11" s="14"/>
       <c r="Q11" s="14"/>
@@ -2338,14 +2251,14 @@
       <c r="Y11" s="14"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="44"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="14"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
@@ -2357,7 +2270,7 @@
       <c r="Q12" s="14"/>
       <c r="R12" s="14"/>
       <c r="S12" s="14"/>
-      <c r="T12" s="45"/>
+      <c r="T12" s="44"/>
       <c r="U12" s="14"/>
       <c r="V12" s="14"/>
       <c r="W12" s="14"/>
@@ -2365,14 +2278,14 @@
       <c r="Y12" s="14"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="44"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="14"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
@@ -2392,20 +2305,20 @@
       <c r="Y13" s="14"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="44"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="14"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
       <c r="I14" s="14"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
-      <c r="N14" s="45"/>
+      <c r="N14" s="44"/>
       <c r="O14" s="14"/>
       <c r="P14" s="14"/>
       <c r="Q14" s="14"/>
@@ -2419,20 +2332,20 @@
       <c r="Y14" s="14"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="44"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="14"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
-      <c r="N15" s="45"/>
+      <c r="N15" s="44"/>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
@@ -2446,20 +2359,20 @@
       <c r="Y15" s="14"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="44"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="14"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
       <c r="I16" s="14"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
-      <c r="N16" s="45"/>
+      <c r="N16" s="44"/>
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
@@ -2473,14 +2386,14 @@
       <c r="Y16" s="14"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="44"/>
+      <c r="A17" s="43"/>
       <c r="B17" s="14"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
@@ -2492,7 +2405,7 @@
       <c r="Q17" s="14"/>
       <c r="R17" s="14"/>
       <c r="S17" s="14"/>
-      <c r="T17" s="45"/>
+      <c r="T17" s="44"/>
       <c r="U17" s="14"/>
       <c r="V17" s="14"/>
       <c r="W17" s="14"/>
@@ -2500,17 +2413,17 @@
       <c r="Y17" s="14"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="44"/>
+      <c r="A18" s="43"/>
       <c r="B18" s="14"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
-      <c r="K18" s="45"/>
+      <c r="K18" s="44"/>
       <c r="L18" s="14"/>
       <c r="M18" s="14"/>
       <c r="N18" s="14"/>
@@ -2527,17 +2440,17 @@
       <c r="Y18" s="14"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="44"/>
+      <c r="A19" s="43"/>
       <c r="B19" s="14"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
-      <c r="K19" s="45"/>
+      <c r="K19" s="44"/>
       <c r="L19" s="14"/>
       <c r="M19" s="14"/>
       <c r="N19" s="14"/>
@@ -2554,17 +2467,17 @@
       <c r="Y19" s="14"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="44"/>
+      <c r="A20" s="43"/>
       <c r="B20" s="14"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
-      <c r="K20" s="45"/>
+      <c r="K20" s="44"/>
       <c r="L20" s="14"/>
       <c r="M20" s="14"/>
       <c r="N20" s="14"/>
@@ -2581,20 +2494,20 @@
       <c r="Y20" s="14"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="44"/>
+      <c r="A21" s="43"/>
       <c r="B21" s="14"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
-      <c r="K21" s="45"/>
+      <c r="K21" s="44"/>
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
-      <c r="N21" s="45"/>
+      <c r="N21" s="44"/>
       <c r="O21" s="14"/>
       <c r="P21" s="14"/>
       <c r="Q21" s="14"/>
@@ -2608,14 +2521,14 @@
       <c r="Y21" s="14"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="44"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="14"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
       <c r="K22" s="14"/>
@@ -2635,20 +2548,20 @@
       <c r="Y22" s="14"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="44"/>
+      <c r="A23" s="43"/>
       <c r="B23" s="14"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="45"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
       <c r="O23" s="14"/>
       <c r="P23" s="14"/>
       <c r="Q23" s="14"/>
@@ -2662,20 +2575,20 @@
       <c r="Y23" s="14"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="44"/>
+      <c r="A24" s="43"/>
       <c r="B24" s="14"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
-      <c r="N24" s="45"/>
+      <c r="N24" s="44"/>
       <c r="O24" s="14"/>
       <c r="P24" s="14"/>
       <c r="Q24" s="14"/>
@@ -2689,20 +2602,20 @@
       <c r="Y24" s="14"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="44"/>
+      <c r="A25" s="43"/>
       <c r="B25" s="14"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
-      <c r="N25" s="45"/>
+      <c r="N25" s="44"/>
       <c r="O25" s="14"/>
       <c r="P25" s="14"/>
       <c r="Q25" s="14"/>
@@ -2716,20 +2629,20 @@
       <c r="Y25" s="14"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="50"/>
+      <c r="A26" s="49"/>
       <c r="B26" s="14"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
-      <c r="K26" s="45"/>
+      <c r="K26" s="44"/>
       <c r="L26" s="14"/>
       <c r="M26" s="14"/>
-      <c r="N26" s="45"/>
+      <c r="N26" s="44"/>
       <c r="O26" s="14"/>
       <c r="P26" s="14"/>
       <c r="Q26" s="14"/>
@@ -2743,20 +2656,20 @@
       <c r="Y26" s="14"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="51"/>
+      <c r="A27" s="50"/>
       <c r="B27" s="14"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
       <c r="M27" s="14"/>
-      <c r="N27" s="45"/>
+      <c r="N27" s="44"/>
       <c r="O27" s="14"/>
       <c r="P27" s="14"/>
       <c r="Q27" s="14"/>
@@ -2770,26 +2683,26 @@
       <c r="Y27" s="14"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="51"/>
+      <c r="A28" s="50"/>
       <c r="B28" s="14"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="45"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="44"/>
       <c r="O28" s="14"/>
       <c r="P28" s="14"/>
-      <c r="Q28" s="45"/>
+      <c r="Q28" s="44"/>
       <c r="R28" s="14"/>
       <c r="S28" s="14"/>
-      <c r="T28" s="45"/>
+      <c r="T28" s="44"/>
       <c r="U28" s="14"/>
       <c r="V28" s="14"/>
       <c r="W28" s="14"/>
@@ -2797,20 +2710,20 @@
       <c r="Y28" s="14"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="51"/>
+      <c r="A29" s="50"/>
       <c r="B29" s="14"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
-      <c r="K29" s="45"/>
+      <c r="K29" s="44"/>
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
-      <c r="N29" s="45"/>
+      <c r="N29" s="44"/>
       <c r="O29" s="14"/>
       <c r="P29" s="14"/>
       <c r="Q29" s="14"/>
@@ -2824,25 +2737,25 @@
       <c r="Y29" s="14"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="52"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="57"/>
+      <c r="M30" s="56"/>
       <c r="N30" s="4"/>
-      <c r="O30" s="57"/>
-      <c r="P30" s="57"/>
-      <c r="Q30" s="57"/>
-      <c r="R30" s="55"/>
-      <c r="S30" s="57"/>
+      <c r="O30" s="56"/>
+      <c r="P30" s="56"/>
+      <c r="Q30" s="56"/>
+      <c r="R30" s="54"/>
+      <c r="S30" s="56"/>
       <c r="T30" s="14"/>
       <c r="U30" s="14"/>
       <c r="V30" s="14"/>
@@ -2851,25 +2764,25 @@
       <c r="Y30" s="14"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="58"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
+      <c r="A31" s="57"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
-      <c r="M31" s="57"/>
+      <c r="M31" s="56"/>
       <c r="N31" s="4"/>
-      <c r="O31" s="57"/>
-      <c r="P31" s="57"/>
-      <c r="Q31" s="57"/>
-      <c r="R31" s="55"/>
-      <c r="S31" s="57"/>
+      <c r="O31" s="56"/>
+      <c r="P31" s="56"/>
+      <c r="Q31" s="56"/>
+      <c r="R31" s="54"/>
+      <c r="S31" s="56"/>
       <c r="T31" s="14"/>
       <c r="U31" s="14"/>
       <c r="V31" s="14"/>
@@ -2878,25 +2791,25 @@
       <c r="Y31" s="14"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="52"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="57"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="56"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
-      <c r="L32" s="57"/>
+      <c r="L32" s="56"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
-      <c r="Q32" s="57"/>
-      <c r="R32" s="55"/>
-      <c r="S32" s="57"/>
+      <c r="Q32" s="56"/>
+      <c r="R32" s="54"/>
+      <c r="S32" s="56"/>
       <c r="T32" s="14"/>
       <c r="U32" s="14"/>
       <c r="V32" s="14"/>
@@ -2905,25 +2818,25 @@
       <c r="Y32" s="14"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="58"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="57"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="57"/>
+      <c r="A33" s="57"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
-      <c r="O33" s="57"/>
+      <c r="O33" s="56"/>
       <c r="P33" s="4"/>
-      <c r="Q33" s="57"/>
-      <c r="R33" s="55"/>
-      <c r="S33" s="57"/>
+      <c r="Q33" s="56"/>
+      <c r="R33" s="54"/>
+      <c r="S33" s="56"/>
       <c r="T33" s="14"/>
       <c r="U33" s="14"/>
       <c r="V33" s="14"/>
@@ -2932,25 +2845,25 @@
       <c r="Y33" s="14"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="52"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="57"/>
+      <c r="A34" s="51"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="56"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
-      <c r="Q34" s="57"/>
-      <c r="R34" s="55"/>
-      <c r="S34" s="57"/>
+      <c r="Q34" s="56"/>
+      <c r="R34" s="54"/>
+      <c r="S34" s="56"/>
       <c r="T34" s="14"/>
       <c r="U34" s="14"/>
       <c r="V34" s="14"/>
@@ -2959,25 +2872,25 @@
       <c r="Y34" s="14"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="58"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="57"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="57"/>
+      <c r="A35" s="57"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="56"/>
       <c r="M35" s="4"/>
-      <c r="N35" s="57"/>
-      <c r="O35" s="57"/>
-      <c r="P35" s="57"/>
-      <c r="Q35" s="57"/>
-      <c r="R35" s="55"/>
-      <c r="S35" s="57"/>
+      <c r="N35" s="56"/>
+      <c r="O35" s="56"/>
+      <c r="P35" s="56"/>
+      <c r="Q35" s="56"/>
+      <c r="R35" s="54"/>
+      <c r="S35" s="56"/>
       <c r="T35" s="14"/>
       <c r="U35" s="14"/>
       <c r="V35" s="14"/>
@@ -2986,25 +2899,25 @@
       <c r="Y35" s="14"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="58"/>
-      <c r="B36" s="53"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="57"/>
-      <c r="L36" s="57"/>
-      <c r="M36" s="57"/>
+      <c r="A36" s="57"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="56"/>
+      <c r="M36" s="56"/>
       <c r="N36" s="4"/>
-      <c r="O36" s="57"/>
-      <c r="P36" s="57"/>
-      <c r="Q36" s="57"/>
-      <c r="R36" s="55"/>
-      <c r="S36" s="57"/>
+      <c r="O36" s="56"/>
+      <c r="P36" s="56"/>
+      <c r="Q36" s="56"/>
+      <c r="R36" s="54"/>
+      <c r="S36" s="56"/>
       <c r="T36" s="14"/>
       <c r="U36" s="14"/>
       <c r="V36" s="14"/>
@@ -3013,25 +2926,25 @@
       <c r="Y36" s="14"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="58"/>
-      <c r="B37" s="53"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="57"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="57"/>
+      <c r="A37" s="57"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="56"/>
+      <c r="L37" s="56"/>
       <c r="M37" s="4"/>
-      <c r="N37" s="57"/>
-      <c r="O37" s="57"/>
-      <c r="P37" s="57"/>
-      <c r="Q37" s="57"/>
-      <c r="R37" s="57"/>
-      <c r="S37" s="55"/>
+      <c r="N37" s="56"/>
+      <c r="O37" s="56"/>
+      <c r="P37" s="56"/>
+      <c r="Q37" s="56"/>
+      <c r="R37" s="56"/>
+      <c r="S37" s="54"/>
       <c r="T37" s="14"/>
       <c r="U37" s="14"/>
       <c r="V37" s="14"/>
@@ -3040,25 +2953,25 @@
       <c r="Y37" s="14"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="58"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="54"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="57"/>
-      <c r="K38" s="57"/>
-      <c r="L38" s="57"/>
-      <c r="M38" s="57"/>
-      <c r="N38" s="59"/>
-      <c r="O38" s="57"/>
-      <c r="P38" s="57"/>
-      <c r="Q38" s="57"/>
-      <c r="R38" s="57"/>
-      <c r="S38" s="55"/>
+      <c r="A38" s="57"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="56"/>
+      <c r="L38" s="56"/>
+      <c r="M38" s="56"/>
+      <c r="N38" s="58"/>
+      <c r="O38" s="56"/>
+      <c r="P38" s="56"/>
+      <c r="Q38" s="56"/>
+      <c r="R38" s="56"/>
+      <c r="S38" s="54"/>
       <c r="T38" s="14"/>
       <c r="U38" s="14"/>
       <c r="V38" s="14"/>
@@ -3067,25 +2980,25 @@
       <c r="Y38" s="14"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="58"/>
-      <c r="B39" s="53"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="56"/>
-      <c r="H39" s="54"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="57"/>
-      <c r="K39" s="57"/>
-      <c r="L39" s="57"/>
-      <c r="M39" s="57"/>
-      <c r="N39" s="59"/>
-      <c r="O39" s="57"/>
-      <c r="P39" s="57"/>
-      <c r="Q39" s="57"/>
-      <c r="R39" s="57"/>
-      <c r="S39" s="55"/>
+      <c r="A39" s="57"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="56"/>
+      <c r="L39" s="56"/>
+      <c r="M39" s="56"/>
+      <c r="N39" s="58"/>
+      <c r="O39" s="56"/>
+      <c r="P39" s="56"/>
+      <c r="Q39" s="56"/>
+      <c r="R39" s="56"/>
+      <c r="S39" s="54"/>
       <c r="T39" s="14"/>
       <c r="U39" s="14"/>
       <c r="V39" s="14"/>
@@ -3094,25 +3007,25 @@
       <c r="Y39" s="14"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="58"/>
-      <c r="B40" s="53"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="54"/>
-      <c r="I40" s="57"/>
-      <c r="J40" s="57"/>
-      <c r="K40" s="57"/>
-      <c r="L40" s="57"/>
-      <c r="M40" s="57"/>
-      <c r="N40" s="60"/>
-      <c r="O40" s="57"/>
-      <c r="P40" s="57"/>
-      <c r="Q40" s="57"/>
-      <c r="R40" s="57"/>
-      <c r="S40" s="55"/>
+      <c r="A40" s="57"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="56"/>
+      <c r="J40" s="56"/>
+      <c r="K40" s="56"/>
+      <c r="L40" s="56"/>
+      <c r="M40" s="56"/>
+      <c r="N40" s="59"/>
+      <c r="O40" s="56"/>
+      <c r="P40" s="56"/>
+      <c r="Q40" s="56"/>
+      <c r="R40" s="56"/>
+      <c r="S40" s="54"/>
       <c r="T40" s="14"/>
       <c r="U40" s="14"/>
       <c r="V40" s="14"/>
@@ -3121,25 +3034,25 @@
       <c r="Y40" s="14"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="58"/>
-      <c r="B41" s="53"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="56"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="57"/>
-      <c r="J41" s="57"/>
-      <c r="K41" s="57"/>
-      <c r="L41" s="57"/>
-      <c r="M41" s="57"/>
-      <c r="N41" s="57"/>
-      <c r="O41" s="57"/>
-      <c r="P41" s="57"/>
-      <c r="Q41" s="57"/>
-      <c r="R41" s="57"/>
-      <c r="S41" s="55"/>
+      <c r="A41" s="57"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="56"/>
+      <c r="J41" s="56"/>
+      <c r="K41" s="56"/>
+      <c r="L41" s="56"/>
+      <c r="M41" s="56"/>
+      <c r="N41" s="56"/>
+      <c r="O41" s="56"/>
+      <c r="P41" s="56"/>
+      <c r="Q41" s="56"/>
+      <c r="R41" s="56"/>
+      <c r="S41" s="54"/>
       <c r="T41" s="14"/>
       <c r="U41" s="14"/>
       <c r="V41" s="14"/>
@@ -3148,25 +3061,25 @@
       <c r="Y41" s="14"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="58"/>
-      <c r="B42" s="53"/>
-      <c r="C42" s="54"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="55"/>
-      <c r="F42" s="56"/>
-      <c r="G42" s="56"/>
-      <c r="H42" s="54"/>
-      <c r="I42" s="57"/>
-      <c r="J42" s="57"/>
-      <c r="K42" s="57"/>
-      <c r="L42" s="57"/>
-      <c r="M42" s="57"/>
-      <c r="N42" s="57"/>
-      <c r="O42" s="57"/>
-      <c r="P42" s="57"/>
-      <c r="Q42" s="57"/>
-      <c r="R42" s="57"/>
-      <c r="S42" s="55"/>
+      <c r="A42" s="57"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="56"/>
+      <c r="J42" s="56"/>
+      <c r="K42" s="56"/>
+      <c r="L42" s="56"/>
+      <c r="M42" s="56"/>
+      <c r="N42" s="56"/>
+      <c r="O42" s="56"/>
+      <c r="P42" s="56"/>
+      <c r="Q42" s="56"/>
+      <c r="R42" s="56"/>
+      <c r="S42" s="54"/>
       <c r="T42" s="14"/>
       <c r="U42" s="14"/>
       <c r="V42" s="14"/>
@@ -3175,25 +3088,25 @@
       <c r="Y42" s="14"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="58"/>
-      <c r="B43" s="53"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="55"/>
-      <c r="F43" s="56"/>
-      <c r="G43" s="56"/>
-      <c r="H43" s="54"/>
-      <c r="I43" s="57"/>
-      <c r="J43" s="57"/>
-      <c r="K43" s="57"/>
-      <c r="L43" s="57"/>
-      <c r="M43" s="57"/>
-      <c r="N43" s="57"/>
-      <c r="O43" s="57"/>
-      <c r="P43" s="57"/>
-      <c r="Q43" s="57"/>
-      <c r="R43" s="57"/>
-      <c r="S43" s="55"/>
+      <c r="A43" s="57"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="53"/>
+      <c r="I43" s="56"/>
+      <c r="J43" s="56"/>
+      <c r="K43" s="56"/>
+      <c r="L43" s="56"/>
+      <c r="M43" s="56"/>
+      <c r="N43" s="56"/>
+      <c r="O43" s="56"/>
+      <c r="P43" s="56"/>
+      <c r="Q43" s="56"/>
+      <c r="R43" s="56"/>
+      <c r="S43" s="54"/>
       <c r="T43" s="14"/>
       <c r="U43" s="14"/>
       <c r="V43" s="14"/>
@@ -3202,25 +3115,25 @@
       <c r="Y43" s="14"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="58"/>
-      <c r="B44" s="53"/>
-      <c r="C44" s="54"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="55"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="56"/>
-      <c r="H44" s="54"/>
-      <c r="I44" s="57"/>
-      <c r="J44" s="57"/>
-      <c r="K44" s="57"/>
-      <c r="L44" s="57"/>
-      <c r="M44" s="57"/>
-      <c r="N44" s="57"/>
-      <c r="O44" s="57"/>
-      <c r="P44" s="57"/>
-      <c r="Q44" s="57"/>
-      <c r="R44" s="57"/>
-      <c r="S44" s="55"/>
+      <c r="A44" s="57"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="53"/>
+      <c r="I44" s="56"/>
+      <c r="J44" s="56"/>
+      <c r="K44" s="56"/>
+      <c r="L44" s="56"/>
+      <c r="M44" s="56"/>
+      <c r="N44" s="56"/>
+      <c r="O44" s="56"/>
+      <c r="P44" s="56"/>
+      <c r="Q44" s="56"/>
+      <c r="R44" s="56"/>
+      <c r="S44" s="54"/>
       <c r="T44" s="14"/>
       <c r="U44" s="14"/>
       <c r="V44" s="14"/>
@@ -3229,25 +3142,25 @@
       <c r="Y44" s="14"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="58"/>
-      <c r="B45" s="53"/>
-      <c r="C45" s="54"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="55"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="56"/>
-      <c r="H45" s="54"/>
-      <c r="I45" s="57"/>
-      <c r="J45" s="57"/>
-      <c r="K45" s="57"/>
-      <c r="L45" s="57"/>
+      <c r="A45" s="57"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="53"/>
+      <c r="I45" s="56"/>
+      <c r="J45" s="56"/>
+      <c r="K45" s="56"/>
+      <c r="L45" s="56"/>
       <c r="M45" s="4"/>
-      <c r="N45" s="57"/>
-      <c r="O45" s="57"/>
-      <c r="P45" s="57"/>
-      <c r="Q45" s="57"/>
-      <c r="R45" s="57"/>
-      <c r="S45" s="55"/>
+      <c r="N45" s="56"/>
+      <c r="O45" s="56"/>
+      <c r="P45" s="56"/>
+      <c r="Q45" s="56"/>
+      <c r="R45" s="56"/>
+      <c r="S45" s="54"/>
       <c r="T45" s="14"/>
       <c r="U45" s="14"/>
       <c r="V45" s="14"/>
@@ -3256,25 +3169,25 @@
       <c r="Y45" s="14"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="58"/>
-      <c r="B46" s="53"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="55"/>
-      <c r="F46" s="56"/>
-      <c r="G46" s="56"/>
-      <c r="H46" s="54"/>
-      <c r="I46" s="57"/>
-      <c r="J46" s="57"/>
-      <c r="K46" s="57"/>
-      <c r="L46" s="57"/>
-      <c r="M46" s="57"/>
-      <c r="N46" s="57"/>
-      <c r="O46" s="57"/>
-      <c r="P46" s="57"/>
-      <c r="Q46" s="57"/>
-      <c r="R46" s="57"/>
-      <c r="S46" s="55"/>
+      <c r="A46" s="57"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="53"/>
+      <c r="I46" s="56"/>
+      <c r="J46" s="56"/>
+      <c r="K46" s="56"/>
+      <c r="L46" s="56"/>
+      <c r="M46" s="56"/>
+      <c r="N46" s="56"/>
+      <c r="O46" s="56"/>
+      <c r="P46" s="56"/>
+      <c r="Q46" s="56"/>
+      <c r="R46" s="56"/>
+      <c r="S46" s="54"/>
       <c r="T46" s="14"/>
       <c r="U46" s="14"/>
       <c r="V46" s="14"/>
@@ -3283,25 +3196,25 @@
       <c r="Y46" s="14"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="58"/>
-      <c r="B47" s="53"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="55"/>
-      <c r="F47" s="56"/>
-      <c r="G47" s="56"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="57"/>
-      <c r="J47" s="57"/>
-      <c r="K47" s="57"/>
-      <c r="L47" s="57"/>
-      <c r="M47" s="57"/>
-      <c r="N47" s="57"/>
-      <c r="O47" s="57"/>
-      <c r="P47" s="57"/>
-      <c r="Q47" s="57"/>
-      <c r="R47" s="57"/>
-      <c r="S47" s="55"/>
+      <c r="A47" s="57"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="53"/>
+      <c r="I47" s="56"/>
+      <c r="J47" s="56"/>
+      <c r="K47" s="56"/>
+      <c r="L47" s="56"/>
+      <c r="M47" s="56"/>
+      <c r="N47" s="56"/>
+      <c r="O47" s="56"/>
+      <c r="P47" s="56"/>
+      <c r="Q47" s="56"/>
+      <c r="R47" s="56"/>
+      <c r="S47" s="54"/>
       <c r="T47" s="14"/>
       <c r="U47" s="14"/>
       <c r="V47" s="14"/>
@@ -3310,25 +3223,25 @@
       <c r="Y47" s="14"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="58"/>
-      <c r="B48" s="53"/>
-      <c r="C48" s="54"/>
-      <c r="D48" s="54"/>
-      <c r="E48" s="55"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="56"/>
-      <c r="H48" s="54"/>
-      <c r="I48" s="57"/>
-      <c r="J48" s="57"/>
-      <c r="K48" s="57"/>
-      <c r="L48" s="57"/>
-      <c r="M48" s="57"/>
-      <c r="N48" s="57"/>
-      <c r="O48" s="57"/>
-      <c r="P48" s="57"/>
-      <c r="Q48" s="57"/>
-      <c r="R48" s="57"/>
-      <c r="S48" s="55"/>
+      <c r="A48" s="57"/>
+      <c r="B48" s="52"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="53"/>
+      <c r="I48" s="56"/>
+      <c r="J48" s="56"/>
+      <c r="K48" s="56"/>
+      <c r="L48" s="56"/>
+      <c r="M48" s="56"/>
+      <c r="N48" s="56"/>
+      <c r="O48" s="56"/>
+      <c r="P48" s="56"/>
+      <c r="Q48" s="56"/>
+      <c r="R48" s="56"/>
+      <c r="S48" s="54"/>
       <c r="T48" s="14"/>
       <c r="U48" s="14"/>
       <c r="V48" s="14"/>
@@ -3337,25 +3250,25 @@
       <c r="Y48" s="14"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="58"/>
-      <c r="B49" s="53"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="56"/>
-      <c r="G49" s="56"/>
-      <c r="H49" s="54"/>
-      <c r="I49" s="57"/>
-      <c r="J49" s="57"/>
-      <c r="K49" s="57"/>
-      <c r="L49" s="57"/>
-      <c r="M49" s="57"/>
-      <c r="N49" s="57"/>
-      <c r="O49" s="57"/>
-      <c r="P49" s="57"/>
-      <c r="Q49" s="57"/>
-      <c r="R49" s="57"/>
-      <c r="S49" s="55"/>
+      <c r="A49" s="57"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="53"/>
+      <c r="I49" s="56"/>
+      <c r="J49" s="56"/>
+      <c r="K49" s="56"/>
+      <c r="L49" s="56"/>
+      <c r="M49" s="56"/>
+      <c r="N49" s="56"/>
+      <c r="O49" s="56"/>
+      <c r="P49" s="56"/>
+      <c r="Q49" s="56"/>
+      <c r="R49" s="56"/>
+      <c r="S49" s="54"/>
       <c r="T49" s="14"/>
       <c r="U49" s="14"/>
       <c r="V49" s="14"/>
@@ -3364,25 +3277,25 @@
       <c r="Y49" s="14"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="58"/>
-      <c r="B50" s="53"/>
-      <c r="C50" s="54"/>
-      <c r="D50" s="54"/>
-      <c r="E50" s="55"/>
-      <c r="F50" s="56"/>
-      <c r="G50" s="56"/>
-      <c r="H50" s="54"/>
-      <c r="I50" s="57"/>
-      <c r="J50" s="57"/>
-      <c r="K50" s="57"/>
-      <c r="L50" s="57"/>
-      <c r="M50" s="57"/>
-      <c r="N50" s="57"/>
-      <c r="O50" s="57"/>
-      <c r="P50" s="57"/>
-      <c r="Q50" s="57"/>
-      <c r="R50" s="57"/>
-      <c r="S50" s="55"/>
+      <c r="A50" s="57"/>
+      <c r="B50" s="52"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="55"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="53"/>
+      <c r="I50" s="56"/>
+      <c r="J50" s="56"/>
+      <c r="K50" s="56"/>
+      <c r="L50" s="56"/>
+      <c r="M50" s="56"/>
+      <c r="N50" s="56"/>
+      <c r="O50" s="56"/>
+      <c r="P50" s="56"/>
+      <c r="Q50" s="56"/>
+      <c r="R50" s="56"/>
+      <c r="S50" s="54"/>
       <c r="T50" s="14"/>
       <c r="U50" s="14"/>
       <c r="V50" s="14"/>
@@ -3391,25 +3304,25 @@
       <c r="Y50" s="14"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="58"/>
-      <c r="B51" s="53"/>
-      <c r="C51" s="54"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="55"/>
-      <c r="F51" s="56"/>
-      <c r="G51" s="56"/>
-      <c r="H51" s="54"/>
-      <c r="I51" s="57"/>
-      <c r="J51" s="57"/>
-      <c r="K51" s="57"/>
-      <c r="L51" s="57"/>
-      <c r="M51" s="57"/>
-      <c r="N51" s="57"/>
-      <c r="O51" s="57"/>
-      <c r="P51" s="57"/>
-      <c r="Q51" s="57"/>
-      <c r="R51" s="57"/>
-      <c r="S51" s="55"/>
+      <c r="A51" s="57"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="55"/>
+      <c r="H51" s="53"/>
+      <c r="I51" s="56"/>
+      <c r="J51" s="56"/>
+      <c r="K51" s="56"/>
+      <c r="L51" s="56"/>
+      <c r="M51" s="56"/>
+      <c r="N51" s="56"/>
+      <c r="O51" s="56"/>
+      <c r="P51" s="56"/>
+      <c r="Q51" s="56"/>
+      <c r="R51" s="56"/>
+      <c r="S51" s="54"/>
       <c r="T51" s="14"/>
       <c r="U51" s="14"/>
       <c r="V51" s="14"/>
@@ -3418,25 +3331,25 @@
       <c r="Y51" s="14"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="58"/>
-      <c r="B52" s="53"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="54"/>
-      <c r="E52" s="55"/>
-      <c r="F52" s="56"/>
-      <c r="G52" s="56"/>
-      <c r="H52" s="54"/>
-      <c r="I52" s="57"/>
-      <c r="J52" s="57"/>
-      <c r="K52" s="57"/>
-      <c r="L52" s="57"/>
-      <c r="M52" s="57"/>
-      <c r="N52" s="57"/>
-      <c r="O52" s="57"/>
-      <c r="P52" s="57"/>
-      <c r="Q52" s="57"/>
-      <c r="R52" s="57"/>
-      <c r="S52" s="55"/>
+      <c r="A52" s="57"/>
+      <c r="B52" s="52"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="55"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="53"/>
+      <c r="I52" s="56"/>
+      <c r="J52" s="56"/>
+      <c r="K52" s="56"/>
+      <c r="L52" s="56"/>
+      <c r="M52" s="56"/>
+      <c r="N52" s="56"/>
+      <c r="O52" s="56"/>
+      <c r="P52" s="56"/>
+      <c r="Q52" s="56"/>
+      <c r="R52" s="56"/>
+      <c r="S52" s="54"/>
       <c r="T52" s="14"/>
       <c r="U52" s="14"/>
       <c r="V52" s="14"/>
@@ -3445,25 +3358,25 @@
       <c r="Y52" s="14"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="58"/>
-      <c r="B53" s="53"/>
-      <c r="C53" s="54"/>
-      <c r="D53" s="54"/>
-      <c r="E53" s="55"/>
-      <c r="F53" s="56"/>
-      <c r="G53" s="56"/>
-      <c r="H53" s="54"/>
-      <c r="I53" s="57"/>
-      <c r="J53" s="57"/>
-      <c r="K53" s="57"/>
-      <c r="L53" s="57"/>
-      <c r="M53" s="57"/>
-      <c r="N53" s="57"/>
-      <c r="O53" s="57"/>
-      <c r="P53" s="57"/>
-      <c r="Q53" s="57"/>
-      <c r="R53" s="57"/>
-      <c r="S53" s="55"/>
+      <c r="A53" s="57"/>
+      <c r="B53" s="52"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="55"/>
+      <c r="G53" s="55"/>
+      <c r="H53" s="53"/>
+      <c r="I53" s="56"/>
+      <c r="J53" s="56"/>
+      <c r="K53" s="56"/>
+      <c r="L53" s="56"/>
+      <c r="M53" s="56"/>
+      <c r="N53" s="56"/>
+      <c r="O53" s="56"/>
+      <c r="P53" s="56"/>
+      <c r="Q53" s="56"/>
+      <c r="R53" s="56"/>
+      <c r="S53" s="54"/>
       <c r="T53" s="14"/>
       <c r="U53" s="14"/>
       <c r="V53" s="14"/>
@@ -3472,25 +3385,25 @@
       <c r="Y53" s="14"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="58"/>
-      <c r="B54" s="53"/>
-      <c r="C54" s="54"/>
-      <c r="D54" s="54"/>
-      <c r="E54" s="55"/>
-      <c r="F54" s="56"/>
-      <c r="G54" s="56"/>
-      <c r="H54" s="54"/>
-      <c r="I54" s="57"/>
-      <c r="J54" s="57"/>
-      <c r="K54" s="57"/>
-      <c r="L54" s="57"/>
-      <c r="M54" s="57"/>
-      <c r="N54" s="57"/>
-      <c r="O54" s="57"/>
-      <c r="P54" s="57"/>
-      <c r="Q54" s="57"/>
-      <c r="R54" s="57"/>
-      <c r="S54" s="55"/>
+      <c r="A54" s="57"/>
+      <c r="B54" s="52"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="55"/>
+      <c r="G54" s="55"/>
+      <c r="H54" s="53"/>
+      <c r="I54" s="56"/>
+      <c r="J54" s="56"/>
+      <c r="K54" s="56"/>
+      <c r="L54" s="56"/>
+      <c r="M54" s="56"/>
+      <c r="N54" s="56"/>
+      <c r="O54" s="56"/>
+      <c r="P54" s="56"/>
+      <c r="Q54" s="56"/>
+      <c r="R54" s="56"/>
+      <c r="S54" s="54"/>
       <c r="T54" s="14"/>
       <c r="U54" s="14"/>
       <c r="V54" s="14"/>
@@ -3499,25 +3412,25 @@
       <c r="Y54" s="14"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="58"/>
-      <c r="B55" s="53"/>
-      <c r="C55" s="54"/>
-      <c r="D55" s="54"/>
-      <c r="E55" s="55"/>
-      <c r="F55" s="56"/>
-      <c r="G55" s="56"/>
-      <c r="H55" s="54"/>
-      <c r="I55" s="57"/>
-      <c r="J55" s="57"/>
-      <c r="K55" s="57"/>
-      <c r="L55" s="57"/>
-      <c r="M55" s="57"/>
-      <c r="N55" s="57"/>
-      <c r="O55" s="57"/>
-      <c r="P55" s="57"/>
-      <c r="Q55" s="57"/>
-      <c r="R55" s="57"/>
-      <c r="S55" s="55"/>
+      <c r="A55" s="57"/>
+      <c r="B55" s="52"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="55"/>
+      <c r="G55" s="55"/>
+      <c r="H55" s="53"/>
+      <c r="I55" s="56"/>
+      <c r="J55" s="56"/>
+      <c r="K55" s="56"/>
+      <c r="L55" s="56"/>
+      <c r="M55" s="56"/>
+      <c r="N55" s="56"/>
+      <c r="O55" s="56"/>
+      <c r="P55" s="56"/>
+      <c r="Q55" s="56"/>
+      <c r="R55" s="56"/>
+      <c r="S55" s="54"/>
       <c r="T55" s="14"/>
       <c r="U55" s="14"/>
       <c r="V55" s="14"/>
@@ -3526,25 +3439,25 @@
       <c r="Y55" s="14"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="58"/>
-      <c r="B56" s="53"/>
-      <c r="C56" s="54"/>
-      <c r="D56" s="54"/>
-      <c r="E56" s="55"/>
-      <c r="F56" s="56"/>
-      <c r="G56" s="56"/>
-      <c r="H56" s="54"/>
-      <c r="I56" s="57"/>
-      <c r="J56" s="57"/>
-      <c r="K56" s="57"/>
-      <c r="L56" s="57"/>
-      <c r="M56" s="57"/>
-      <c r="N56" s="57"/>
-      <c r="O56" s="57"/>
-      <c r="P56" s="57"/>
-      <c r="Q56" s="57"/>
-      <c r="R56" s="57"/>
-      <c r="S56" s="55"/>
+      <c r="A56" s="57"/>
+      <c r="B56" s="52"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="54"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="55"/>
+      <c r="H56" s="53"/>
+      <c r="I56" s="56"/>
+      <c r="J56" s="56"/>
+      <c r="K56" s="56"/>
+      <c r="L56" s="56"/>
+      <c r="M56" s="56"/>
+      <c r="N56" s="56"/>
+      <c r="O56" s="56"/>
+      <c r="P56" s="56"/>
+      <c r="Q56" s="56"/>
+      <c r="R56" s="56"/>
+      <c r="S56" s="54"/>
       <c r="T56" s="14"/>
       <c r="U56" s="14"/>
       <c r="V56" s="14"/>
@@ -3553,14 +3466,14 @@
       <c r="Y56" s="14"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="51"/>
+      <c r="A57" s="50"/>
       <c r="B57" s="14"/>
-      <c r="C57" s="45"/>
-      <c r="D57" s="45"/>
-      <c r="E57" s="51"/>
-      <c r="F57" s="45"/>
-      <c r="G57" s="45"/>
-      <c r="H57" s="45"/>
+      <c r="C57" s="44"/>
+      <c r="D57" s="44"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="44"/>
+      <c r="G57" s="44"/>
+      <c r="H57" s="44"/>
       <c r="I57" s="14"/>
       <c r="J57" s="14"/>
       <c r="K57" s="14"/>
@@ -3580,14 +3493,14 @@
       <c r="Y57" s="14"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="51"/>
+      <c r="A58" s="50"/>
       <c r="B58" s="14"/>
-      <c r="C58" s="45"/>
-      <c r="D58" s="45"/>
-      <c r="E58" s="51"/>
-      <c r="F58" s="45"/>
-      <c r="G58" s="45"/>
-      <c r="H58" s="45"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="44"/>
+      <c r="G58" s="44"/>
+      <c r="H58" s="44"/>
       <c r="I58" s="14"/>
       <c r="J58" s="14"/>
       <c r="K58" s="14"/>
@@ -3607,14 +3520,14 @@
       <c r="Y58" s="14"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="51"/>
+      <c r="A59" s="50"/>
       <c r="B59" s="14"/>
-      <c r="C59" s="45"/>
-      <c r="D59" s="45"/>
-      <c r="E59" s="51"/>
-      <c r="F59" s="45"/>
-      <c r="G59" s="45"/>
-      <c r="H59" s="45"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="44"/>
+      <c r="E59" s="50"/>
+      <c r="F59" s="44"/>
+      <c r="G59" s="44"/>
+      <c r="H59" s="44"/>
       <c r="I59" s="14"/>
       <c r="J59" s="14"/>
       <c r="K59" s="14"/>
@@ -3634,14 +3547,14 @@
       <c r="Y59" s="14"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="51"/>
+      <c r="A60" s="50"/>
       <c r="B60" s="14"/>
-      <c r="C60" s="45"/>
-      <c r="D60" s="45"/>
-      <c r="E60" s="51"/>
-      <c r="F60" s="45"/>
-      <c r="G60" s="45"/>
-      <c r="H60" s="45"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="44"/>
+      <c r="G60" s="44"/>
+      <c r="H60" s="44"/>
       <c r="I60" s="14"/>
       <c r="J60" s="14"/>
       <c r="K60" s="14"/>
@@ -3661,14 +3574,14 @@
       <c r="Y60" s="14"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="51"/>
+      <c r="A61" s="50"/>
       <c r="B61" s="14"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="45"/>
-      <c r="E61" s="51"/>
-      <c r="F61" s="45"/>
-      <c r="G61" s="45"/>
-      <c r="H61" s="45"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="44"/>
+      <c r="G61" s="44"/>
+      <c r="H61" s="44"/>
       <c r="I61" s="14"/>
       <c r="J61" s="14"/>
       <c r="K61" s="14"/>
@@ -3688,14 +3601,14 @@
       <c r="Y61" s="14"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="51"/>
+      <c r="A62" s="50"/>
       <c r="B62" s="14"/>
-      <c r="C62" s="45"/>
-      <c r="D62" s="45"/>
-      <c r="E62" s="51"/>
-      <c r="F62" s="45"/>
-      <c r="G62" s="45"/>
-      <c r="H62" s="45"/>
+      <c r="C62" s="44"/>
+      <c r="D62" s="44"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="44"/>
+      <c r="G62" s="44"/>
+      <c r="H62" s="44"/>
       <c r="I62" s="14"/>
       <c r="J62" s="14"/>
       <c r="K62" s="14"/>
@@ -3715,14 +3628,14 @@
       <c r="Y62" s="14"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="51"/>
+      <c r="A63" s="50"/>
       <c r="B63" s="14"/>
-      <c r="C63" s="45"/>
-      <c r="D63" s="45"/>
-      <c r="E63" s="51"/>
-      <c r="F63" s="45"/>
-      <c r="G63" s="45"/>
-      <c r="H63" s="45"/>
+      <c r="C63" s="44"/>
+      <c r="D63" s="44"/>
+      <c r="E63" s="50"/>
+      <c r="F63" s="44"/>
+      <c r="G63" s="44"/>
+      <c r="H63" s="44"/>
       <c r="I63" s="14"/>
       <c r="J63" s="14"/>
       <c r="K63" s="14"/>
@@ -3742,14 +3655,14 @@
       <c r="Y63" s="14"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="51"/>
+      <c r="A64" s="50"/>
       <c r="B64" s="14"/>
-      <c r="C64" s="45"/>
-      <c r="D64" s="45"/>
-      <c r="E64" s="51"/>
-      <c r="F64" s="45"/>
-      <c r="G64" s="45"/>
-      <c r="H64" s="45"/>
+      <c r="C64" s="44"/>
+      <c r="D64" s="44"/>
+      <c r="E64" s="50"/>
+      <c r="F64" s="44"/>
+      <c r="G64" s="44"/>
+      <c r="H64" s="44"/>
       <c r="I64" s="14"/>
       <c r="J64" s="14"/>
       <c r="K64" s="14"/>
@@ -3769,14 +3682,14 @@
       <c r="Y64" s="14"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="51"/>
+      <c r="A65" s="50"/>
       <c r="B65" s="14"/>
-      <c r="C65" s="45"/>
-      <c r="D65" s="45"/>
-      <c r="E65" s="51"/>
-      <c r="F65" s="45"/>
-      <c r="G65" s="45"/>
-      <c r="H65" s="45"/>
+      <c r="C65" s="44"/>
+      <c r="D65" s="44"/>
+      <c r="E65" s="50"/>
+      <c r="F65" s="44"/>
+      <c r="G65" s="44"/>
+      <c r="H65" s="44"/>
       <c r="I65" s="14"/>
       <c r="J65" s="14"/>
       <c r="K65" s="14"/>
@@ -3796,14 +3709,14 @@
       <c r="Y65" s="14"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="51"/>
+      <c r="A66" s="50"/>
       <c r="B66" s="14"/>
-      <c r="C66" s="45"/>
-      <c r="D66" s="45"/>
-      <c r="E66" s="51"/>
-      <c r="F66" s="45"/>
-      <c r="G66" s="45"/>
-      <c r="H66" s="45"/>
+      <c r="C66" s="44"/>
+      <c r="D66" s="44"/>
+      <c r="E66" s="50"/>
+      <c r="F66" s="44"/>
+      <c r="G66" s="44"/>
+      <c r="H66" s="44"/>
       <c r="I66" s="14"/>
       <c r="J66" s="14"/>
       <c r="K66" s="14"/>
@@ -3823,14 +3736,14 @@
       <c r="Y66" s="14"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="51"/>
+      <c r="A67" s="50"/>
       <c r="B67" s="14"/>
-      <c r="C67" s="45"/>
-      <c r="D67" s="45"/>
-      <c r="E67" s="51"/>
-      <c r="F67" s="45"/>
-      <c r="G67" s="45"/>
-      <c r="H67" s="45"/>
+      <c r="C67" s="44"/>
+      <c r="D67" s="44"/>
+      <c r="E67" s="50"/>
+      <c r="F67" s="44"/>
+      <c r="G67" s="44"/>
+      <c r="H67" s="44"/>
       <c r="I67" s="14"/>
       <c r="J67" s="14"/>
       <c r="K67" s="14"/>
@@ -3850,14 +3763,14 @@
       <c r="Y67" s="14"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="51"/>
+      <c r="A68" s="50"/>
       <c r="B68" s="14"/>
-      <c r="C68" s="45"/>
-      <c r="D68" s="45"/>
-      <c r="E68" s="51"/>
-      <c r="F68" s="45"/>
-      <c r="G68" s="45"/>
-      <c r="H68" s="45"/>
+      <c r="C68" s="44"/>
+      <c r="D68" s="44"/>
+      <c r="E68" s="50"/>
+      <c r="F68" s="44"/>
+      <c r="G68" s="44"/>
+      <c r="H68" s="44"/>
       <c r="I68" s="14"/>
       <c r="J68" s="14"/>
       <c r="K68" s="14"/>
@@ -3877,14 +3790,14 @@
       <c r="Y68" s="14"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="51"/>
+      <c r="A69" s="50"/>
       <c r="B69" s="14"/>
-      <c r="C69" s="45"/>
-      <c r="D69" s="45"/>
-      <c r="E69" s="51"/>
-      <c r="F69" s="45"/>
-      <c r="G69" s="45"/>
-      <c r="H69" s="45"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="44"/>
+      <c r="E69" s="50"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="44"/>
+      <c r="H69" s="44"/>
       <c r="I69" s="14"/>
       <c r="J69" s="14"/>
       <c r="K69" s="14"/>
@@ -3904,14 +3817,14 @@
       <c r="Y69" s="14"/>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="51"/>
+      <c r="A70" s="50"/>
       <c r="B70" s="14"/>
-      <c r="C70" s="45"/>
-      <c r="D70" s="45"/>
-      <c r="E70" s="51"/>
-      <c r="F70" s="45"/>
-      <c r="G70" s="45"/>
-      <c r="H70" s="45"/>
+      <c r="C70" s="44"/>
+      <c r="D70" s="44"/>
+      <c r="E70" s="50"/>
+      <c r="F70" s="44"/>
+      <c r="G70" s="44"/>
+      <c r="H70" s="44"/>
       <c r="I70" s="14"/>
       <c r="J70" s="14"/>
       <c r="K70" s="14"/>
@@ -3931,14 +3844,14 @@
       <c r="Y70" s="14"/>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="51"/>
+      <c r="A71" s="50"/>
       <c r="B71" s="14"/>
-      <c r="C71" s="45"/>
-      <c r="D71" s="45"/>
-      <c r="E71" s="51"/>
-      <c r="F71" s="45"/>
-      <c r="G71" s="45"/>
-      <c r="H71" s="45"/>
+      <c r="C71" s="44"/>
+      <c r="D71" s="44"/>
+      <c r="E71" s="50"/>
+      <c r="F71" s="44"/>
+      <c r="G71" s="44"/>
+      <c r="H71" s="44"/>
       <c r="I71" s="14"/>
       <c r="J71" s="14"/>
       <c r="K71" s="14"/>
@@ -3958,14 +3871,14 @@
       <c r="Y71" s="14"/>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="51"/>
+      <c r="A72" s="50"/>
       <c r="B72" s="14"/>
-      <c r="C72" s="45"/>
-      <c r="D72" s="45"/>
-      <c r="E72" s="51"/>
-      <c r="F72" s="45"/>
-      <c r="G72" s="45"/>
-      <c r="H72" s="45"/>
+      <c r="C72" s="44"/>
+      <c r="D72" s="44"/>
+      <c r="E72" s="50"/>
+      <c r="F72" s="44"/>
+      <c r="G72" s="44"/>
+      <c r="H72" s="44"/>
       <c r="I72" s="14"/>
       <c r="J72" s="14"/>
       <c r="K72" s="14"/>
@@ -3985,14 +3898,14 @@
       <c r="Y72" s="14"/>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="51"/>
+      <c r="A73" s="50"/>
       <c r="B73" s="14"/>
-      <c r="C73" s="45"/>
-      <c r="D73" s="45"/>
-      <c r="E73" s="51"/>
-      <c r="F73" s="45"/>
-      <c r="G73" s="45"/>
-      <c r="H73" s="45"/>
+      <c r="C73" s="44"/>
+      <c r="D73" s="44"/>
+      <c r="E73" s="50"/>
+      <c r="F73" s="44"/>
+      <c r="G73" s="44"/>
+      <c r="H73" s="44"/>
       <c r="I73" s="14"/>
       <c r="J73" s="14"/>
       <c r="K73" s="14"/>
@@ -4012,14 +3925,14 @@
       <c r="Y73" s="14"/>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="51"/>
+      <c r="A74" s="50"/>
       <c r="B74" s="14"/>
-      <c r="C74" s="45"/>
-      <c r="D74" s="45"/>
-      <c r="E74" s="51"/>
-      <c r="F74" s="45"/>
-      <c r="G74" s="45"/>
-      <c r="H74" s="45"/>
+      <c r="C74" s="44"/>
+      <c r="D74" s="44"/>
+      <c r="E74" s="50"/>
+      <c r="F74" s="44"/>
+      <c r="G74" s="44"/>
+      <c r="H74" s="44"/>
       <c r="I74" s="14"/>
       <c r="J74" s="14"/>
       <c r="K74" s="14"/>
@@ -4039,14 +3952,14 @@
       <c r="Y74" s="14"/>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="51"/>
+      <c r="A75" s="50"/>
       <c r="B75" s="14"/>
-      <c r="C75" s="45"/>
-      <c r="D75" s="45"/>
-      <c r="E75" s="51"/>
-      <c r="F75" s="45"/>
-      <c r="G75" s="45"/>
-      <c r="H75" s="45"/>
+      <c r="C75" s="44"/>
+      <c r="D75" s="44"/>
+      <c r="E75" s="50"/>
+      <c r="F75" s="44"/>
+      <c r="G75" s="44"/>
+      <c r="H75" s="44"/>
       <c r="I75" s="14"/>
       <c r="J75" s="14"/>
       <c r="K75" s="14"/>
@@ -4066,14 +3979,14 @@
       <c r="Y75" s="14"/>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="51"/>
+      <c r="A76" s="50"/>
       <c r="B76" s="14"/>
-      <c r="C76" s="45"/>
-      <c r="D76" s="45"/>
-      <c r="E76" s="51"/>
-      <c r="F76" s="45"/>
-      <c r="G76" s="45"/>
-      <c r="H76" s="45"/>
+      <c r="C76" s="44"/>
+      <c r="D76" s="44"/>
+      <c r="E76" s="50"/>
+      <c r="F76" s="44"/>
+      <c r="G76" s="44"/>
+      <c r="H76" s="44"/>
       <c r="I76" s="14"/>
       <c r="J76" s="14"/>
       <c r="K76" s="14"/>
@@ -4093,14 +4006,14 @@
       <c r="Y76" s="14"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="51"/>
+      <c r="A77" s="50"/>
       <c r="B77" s="14"/>
-      <c r="C77" s="45"/>
-      <c r="D77" s="45"/>
-      <c r="E77" s="51"/>
-      <c r="F77" s="45"/>
-      <c r="G77" s="45"/>
-      <c r="H77" s="45"/>
+      <c r="C77" s="44"/>
+      <c r="D77" s="44"/>
+      <c r="E77" s="50"/>
+      <c r="F77" s="44"/>
+      <c r="G77" s="44"/>
+      <c r="H77" s="44"/>
       <c r="I77" s="14"/>
       <c r="J77" s="14"/>
       <c r="K77" s="14"/>
@@ -4120,14 +4033,14 @@
       <c r="Y77" s="14"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="51"/>
+      <c r="A78" s="50"/>
       <c r="B78" s="14"/>
-      <c r="C78" s="45"/>
-      <c r="D78" s="45"/>
-      <c r="E78" s="51"/>
-      <c r="F78" s="45"/>
-      <c r="G78" s="45"/>
-      <c r="H78" s="45"/>
+      <c r="C78" s="44"/>
+      <c r="D78" s="44"/>
+      <c r="E78" s="50"/>
+      <c r="F78" s="44"/>
+      <c r="G78" s="44"/>
+      <c r="H78" s="44"/>
       <c r="I78" s="14"/>
       <c r="J78" s="14"/>
       <c r="K78" s="14"/>
@@ -4147,14 +4060,14 @@
       <c r="Y78" s="14"/>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="51"/>
+      <c r="A79" s="50"/>
       <c r="B79" s="14"/>
-      <c r="C79" s="45"/>
-      <c r="D79" s="45"/>
-      <c r="E79" s="51"/>
-      <c r="F79" s="45"/>
-      <c r="G79" s="45"/>
-      <c r="H79" s="45"/>
+      <c r="C79" s="44"/>
+      <c r="D79" s="44"/>
+      <c r="E79" s="50"/>
+      <c r="F79" s="44"/>
+      <c r="G79" s="44"/>
+      <c r="H79" s="44"/>
       <c r="I79" s="14"/>
       <c r="J79" s="14"/>
       <c r="K79" s="14"/>
@@ -4174,14 +4087,14 @@
       <c r="Y79" s="14"/>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="51"/>
+      <c r="A80" s="50"/>
       <c r="B80" s="14"/>
-      <c r="C80" s="45"/>
-      <c r="D80" s="45"/>
-      <c r="E80" s="51"/>
-      <c r="F80" s="45"/>
-      <c r="G80" s="45"/>
-      <c r="H80" s="45"/>
+      <c r="C80" s="44"/>
+      <c r="D80" s="44"/>
+      <c r="E80" s="50"/>
+      <c r="F80" s="44"/>
+      <c r="G80" s="44"/>
+      <c r="H80" s="44"/>
       <c r="I80" s="14"/>
       <c r="J80" s="14"/>
       <c r="K80" s="14"/>
@@ -4201,14 +4114,14 @@
       <c r="Y80" s="14"/>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="51"/>
+      <c r="A81" s="50"/>
       <c r="B81" s="14"/>
-      <c r="C81" s="45"/>
-      <c r="D81" s="45"/>
-      <c r="E81" s="51"/>
-      <c r="F81" s="45"/>
-      <c r="G81" s="45"/>
-      <c r="H81" s="45"/>
+      <c r="C81" s="44"/>
+      <c r="D81" s="44"/>
+      <c r="E81" s="50"/>
+      <c r="F81" s="44"/>
+      <c r="G81" s="44"/>
+      <c r="H81" s="44"/>
       <c r="I81" s="14"/>
       <c r="J81" s="14"/>
       <c r="K81" s="14"/>
@@ -4228,14 +4141,14 @@
       <c r="Y81" s="14"/>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="51"/>
+      <c r="A82" s="50"/>
       <c r="B82" s="14"/>
-      <c r="C82" s="45"/>
-      <c r="D82" s="45"/>
-      <c r="E82" s="51"/>
-      <c r="F82" s="45"/>
-      <c r="G82" s="45"/>
-      <c r="H82" s="45"/>
+      <c r="C82" s="44"/>
+      <c r="D82" s="44"/>
+      <c r="E82" s="50"/>
+      <c r="F82" s="44"/>
+      <c r="G82" s="44"/>
+      <c r="H82" s="44"/>
       <c r="I82" s="14"/>
       <c r="J82" s="14"/>
       <c r="K82" s="14"/>
@@ -4255,14 +4168,14 @@
       <c r="Y82" s="14"/>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="51"/>
+      <c r="A83" s="50"/>
       <c r="B83" s="14"/>
-      <c r="C83" s="45"/>
-      <c r="D83" s="45"/>
-      <c r="E83" s="51"/>
-      <c r="F83" s="45"/>
-      <c r="G83" s="45"/>
-      <c r="H83" s="45"/>
+      <c r="C83" s="44"/>
+      <c r="D83" s="44"/>
+      <c r="E83" s="50"/>
+      <c r="F83" s="44"/>
+      <c r="G83" s="44"/>
+      <c r="H83" s="44"/>
       <c r="I83" s="14"/>
       <c r="J83" s="14"/>
       <c r="K83" s="14"/>
@@ -4282,14 +4195,14 @@
       <c r="Y83" s="14"/>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="51"/>
+      <c r="A84" s="50"/>
       <c r="B84" s="14"/>
-      <c r="C84" s="45"/>
-      <c r="D84" s="45"/>
-      <c r="E84" s="51"/>
-      <c r="F84" s="45"/>
-      <c r="G84" s="45"/>
-      <c r="H84" s="45"/>
+      <c r="C84" s="44"/>
+      <c r="D84" s="44"/>
+      <c r="E84" s="50"/>
+      <c r="F84" s="44"/>
+      <c r="G84" s="44"/>
+      <c r="H84" s="44"/>
       <c r="I84" s="14"/>
       <c r="J84" s="14"/>
       <c r="K84" s="14"/>
@@ -4309,14 +4222,14 @@
       <c r="Y84" s="14"/>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="51"/>
+      <c r="A85" s="50"/>
       <c r="B85" s="14"/>
-      <c r="C85" s="45"/>
-      <c r="D85" s="45"/>
-      <c r="E85" s="51"/>
-      <c r="F85" s="45"/>
-      <c r="G85" s="45"/>
-      <c r="H85" s="45"/>
+      <c r="C85" s="44"/>
+      <c r="D85" s="44"/>
+      <c r="E85" s="50"/>
+      <c r="F85" s="44"/>
+      <c r="G85" s="44"/>
+      <c r="H85" s="44"/>
       <c r="I85" s="14"/>
       <c r="J85" s="14"/>
       <c r="K85" s="14"/>
@@ -4336,14 +4249,14 @@
       <c r="Y85" s="14"/>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="51"/>
+      <c r="A86" s="50"/>
       <c r="B86" s="14"/>
-      <c r="C86" s="45"/>
-      <c r="D86" s="45"/>
-      <c r="E86" s="51"/>
-      <c r="F86" s="45"/>
-      <c r="G86" s="45"/>
-      <c r="H86" s="45"/>
+      <c r="C86" s="44"/>
+      <c r="D86" s="44"/>
+      <c r="E86" s="50"/>
+      <c r="F86" s="44"/>
+      <c r="G86" s="44"/>
+      <c r="H86" s="44"/>
       <c r="I86" s="14"/>
       <c r="J86" s="14"/>
       <c r="K86" s="14"/>
@@ -4363,14 +4276,14 @@
       <c r="Y86" s="14"/>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="51"/>
+      <c r="A87" s="50"/>
       <c r="B87" s="14"/>
-      <c r="C87" s="45"/>
-      <c r="D87" s="45"/>
-      <c r="E87" s="51"/>
-      <c r="F87" s="45"/>
-      <c r="G87" s="45"/>
-      <c r="H87" s="45"/>
+      <c r="C87" s="44"/>
+      <c r="D87" s="44"/>
+      <c r="E87" s="50"/>
+      <c r="F87" s="44"/>
+      <c r="G87" s="44"/>
+      <c r="H87" s="44"/>
       <c r="I87" s="14"/>
       <c r="J87" s="14"/>
       <c r="K87" s="14"/>
@@ -4390,14 +4303,14 @@
       <c r="Y87" s="14"/>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="51"/>
+      <c r="A88" s="50"/>
       <c r="B88" s="14"/>
-      <c r="C88" s="45"/>
-      <c r="D88" s="45"/>
-      <c r="E88" s="51"/>
-      <c r="F88" s="45"/>
-      <c r="G88" s="45"/>
-      <c r="H88" s="45"/>
+      <c r="C88" s="44"/>
+      <c r="D88" s="44"/>
+      <c r="E88" s="50"/>
+      <c r="F88" s="44"/>
+      <c r="G88" s="44"/>
+      <c r="H88" s="44"/>
       <c r="I88" s="14"/>
       <c r="J88" s="14"/>
       <c r="K88" s="14"/>
@@ -4417,14 +4330,14 @@
       <c r="Y88" s="14"/>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="51"/>
+      <c r="A89" s="50"/>
       <c r="B89" s="14"/>
-      <c r="C89" s="45"/>
-      <c r="D89" s="45"/>
-      <c r="E89" s="51"/>
-      <c r="F89" s="45"/>
-      <c r="G89" s="45"/>
-      <c r="H89" s="45"/>
+      <c r="C89" s="44"/>
+      <c r="D89" s="44"/>
+      <c r="E89" s="50"/>
+      <c r="F89" s="44"/>
+      <c r="G89" s="44"/>
+      <c r="H89" s="44"/>
       <c r="I89" s="14"/>
       <c r="J89" s="14"/>
       <c r="K89" s="14"/>
@@ -4444,14 +4357,14 @@
       <c r="Y89" s="14"/>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="51"/>
+      <c r="A90" s="50"/>
       <c r="B90" s="14"/>
-      <c r="C90" s="45"/>
-      <c r="D90" s="45"/>
-      <c r="E90" s="51"/>
-      <c r="F90" s="45"/>
-      <c r="G90" s="45"/>
-      <c r="H90" s="45"/>
+      <c r="C90" s="44"/>
+      <c r="D90" s="44"/>
+      <c r="E90" s="50"/>
+      <c r="F90" s="44"/>
+      <c r="G90" s="44"/>
+      <c r="H90" s="44"/>
       <c r="I90" s="14"/>
       <c r="J90" s="14"/>
       <c r="K90" s="14"/>
@@ -4471,14 +4384,14 @@
       <c r="Y90" s="14"/>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="51"/>
+      <c r="A91" s="50"/>
       <c r="B91" s="14"/>
-      <c r="C91" s="45"/>
-      <c r="D91" s="45"/>
-      <c r="E91" s="51"/>
-      <c r="F91" s="45"/>
-      <c r="G91" s="45"/>
-      <c r="H91" s="45"/>
+      <c r="C91" s="44"/>
+      <c r="D91" s="44"/>
+      <c r="E91" s="50"/>
+      <c r="F91" s="44"/>
+      <c r="G91" s="44"/>
+      <c r="H91" s="44"/>
       <c r="I91" s="14"/>
       <c r="J91" s="14"/>
       <c r="K91" s="14"/>
@@ -4498,14 +4411,14 @@
       <c r="Y91" s="14"/>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="51"/>
+      <c r="A92" s="50"/>
       <c r="B92" s="14"/>
-      <c r="C92" s="45"/>
-      <c r="D92" s="45"/>
-      <c r="E92" s="51"/>
-      <c r="F92" s="45"/>
-      <c r="G92" s="45"/>
-      <c r="H92" s="45"/>
+      <c r="C92" s="44"/>
+      <c r="D92" s="44"/>
+      <c r="E92" s="50"/>
+      <c r="F92" s="44"/>
+      <c r="G92" s="44"/>
+      <c r="H92" s="44"/>
       <c r="I92" s="14"/>
       <c r="J92" s="14"/>
       <c r="K92" s="14"/>
@@ -4525,14 +4438,14 @@
       <c r="Y92" s="14"/>
     </row>
     <row r="93" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="51"/>
+      <c r="A93" s="50"/>
       <c r="B93" s="14"/>
-      <c r="C93" s="45"/>
-      <c r="D93" s="45"/>
-      <c r="E93" s="51"/>
-      <c r="F93" s="45"/>
-      <c r="G93" s="45"/>
-      <c r="H93" s="45"/>
+      <c r="C93" s="44"/>
+      <c r="D93" s="44"/>
+      <c r="E93" s="50"/>
+      <c r="F93" s="44"/>
+      <c r="G93" s="44"/>
+      <c r="H93" s="44"/>
       <c r="I93" s="14"/>
       <c r="J93" s="14"/>
       <c r="K93" s="14"/>
@@ -4552,14 +4465,14 @@
       <c r="Y93" s="14"/>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="51"/>
+      <c r="A94" s="50"/>
       <c r="B94" s="14"/>
-      <c r="C94" s="45"/>
-      <c r="D94" s="45"/>
-      <c r="E94" s="51"/>
-      <c r="F94" s="45"/>
-      <c r="G94" s="45"/>
-      <c r="H94" s="45"/>
+      <c r="C94" s="44"/>
+      <c r="D94" s="44"/>
+      <c r="E94" s="50"/>
+      <c r="F94" s="44"/>
+      <c r="G94" s="44"/>
+      <c r="H94" s="44"/>
       <c r="I94" s="14"/>
       <c r="J94" s="14"/>
       <c r="K94" s="14"/>
@@ -4579,14 +4492,14 @@
       <c r="Y94" s="14"/>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="51"/>
+      <c r="A95" s="50"/>
       <c r="B95" s="14"/>
-      <c r="C95" s="45"/>
-      <c r="D95" s="45"/>
-      <c r="E95" s="51"/>
-      <c r="F95" s="45"/>
-      <c r="G95" s="45"/>
-      <c r="H95" s="45"/>
+      <c r="C95" s="44"/>
+      <c r="D95" s="44"/>
+      <c r="E95" s="50"/>
+      <c r="F95" s="44"/>
+      <c r="G95" s="44"/>
+      <c r="H95" s="44"/>
       <c r="I95" s="14"/>
       <c r="J95" s="14"/>
       <c r="K95" s="14"/>
@@ -4606,14 +4519,14 @@
       <c r="Y95" s="14"/>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="51"/>
+      <c r="A96" s="50"/>
       <c r="B96" s="14"/>
-      <c r="C96" s="45"/>
-      <c r="D96" s="45"/>
-      <c r="E96" s="51"/>
-      <c r="F96" s="45"/>
-      <c r="G96" s="45"/>
-      <c r="H96" s="45"/>
+      <c r="C96" s="44"/>
+      <c r="D96" s="44"/>
+      <c r="E96" s="50"/>
+      <c r="F96" s="44"/>
+      <c r="G96" s="44"/>
+      <c r="H96" s="44"/>
       <c r="I96" s="14"/>
       <c r="J96" s="14"/>
       <c r="K96" s="14"/>
@@ -4633,14 +4546,14 @@
       <c r="Y96" s="14"/>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="51"/>
+      <c r="A97" s="50"/>
       <c r="B97" s="14"/>
-      <c r="C97" s="45"/>
-      <c r="D97" s="45"/>
-      <c r="E97" s="51"/>
-      <c r="F97" s="45"/>
-      <c r="G97" s="45"/>
-      <c r="H97" s="45"/>
+      <c r="C97" s="44"/>
+      <c r="D97" s="44"/>
+      <c r="E97" s="50"/>
+      <c r="F97" s="44"/>
+      <c r="G97" s="44"/>
+      <c r="H97" s="44"/>
       <c r="I97" s="14"/>
       <c r="J97" s="14"/>
       <c r="K97" s="14"/>
@@ -4660,14 +4573,14 @@
       <c r="Y97" s="14"/>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="51"/>
+      <c r="A98" s="50"/>
       <c r="B98" s="14"/>
-      <c r="C98" s="45"/>
-      <c r="D98" s="45"/>
-      <c r="E98" s="51"/>
-      <c r="F98" s="45"/>
-      <c r="G98" s="45"/>
-      <c r="H98" s="45"/>
+      <c r="C98" s="44"/>
+      <c r="D98" s="44"/>
+      <c r="E98" s="50"/>
+      <c r="F98" s="44"/>
+      <c r="G98" s="44"/>
+      <c r="H98" s="44"/>
       <c r="I98" s="14"/>
       <c r="J98" s="14"/>
       <c r="K98" s="14"/>
@@ -4687,14 +4600,14 @@
       <c r="Y98" s="14"/>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="51"/>
+      <c r="A99" s="50"/>
       <c r="B99" s="14"/>
-      <c r="C99" s="45"/>
-      <c r="D99" s="45"/>
-      <c r="E99" s="51"/>
-      <c r="F99" s="45"/>
-      <c r="G99" s="45"/>
-      <c r="H99" s="45"/>
+      <c r="C99" s="44"/>
+      <c r="D99" s="44"/>
+      <c r="E99" s="50"/>
+      <c r="F99" s="44"/>
+      <c r="G99" s="44"/>
+      <c r="H99" s="44"/>
       <c r="I99" s="14"/>
       <c r="J99" s="14"/>
       <c r="K99" s="14"/>
@@ -4714,14 +4627,14 @@
       <c r="Y99" s="14"/>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="51"/>
+      <c r="A100" s="50"/>
       <c r="B100" s="14"/>
-      <c r="C100" s="45"/>
-      <c r="D100" s="45"/>
-      <c r="E100" s="51"/>
-      <c r="F100" s="45"/>
-      <c r="G100" s="45"/>
-      <c r="H100" s="45"/>
+      <c r="C100" s="44"/>
+      <c r="D100" s="44"/>
+      <c r="E100" s="50"/>
+      <c r="F100" s="44"/>
+      <c r="G100" s="44"/>
+      <c r="H100" s="44"/>
       <c r="I100" s="14"/>
       <c r="J100" s="14"/>
       <c r="K100" s="14"/>
@@ -4741,11 +4654,11 @@
       <c r="Y100" s="14"/>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="51"/>
+      <c r="A101" s="50"/>
       <c r="B101" s="14"/>
       <c r="C101" s="14"/>
       <c r="D101" s="14"/>
-      <c r="E101" s="51"/>
+      <c r="E101" s="50"/>
       <c r="F101" s="14"/>
       <c r="G101" s="14"/>
       <c r="H101" s="14"/>
@@ -4768,11 +4681,11 @@
       <c r="Y101" s="14"/>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="51"/>
+      <c r="A102" s="50"/>
       <c r="B102" s="14"/>
       <c r="C102" s="14"/>
       <c r="D102" s="14"/>
-      <c r="E102" s="51"/>
+      <c r="E102" s="50"/>
       <c r="F102" s="14"/>
       <c r="G102" s="14"/>
       <c r="H102" s="14"/>
@@ -4795,11 +4708,11 @@
       <c r="Y102" s="14"/>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="51"/>
+      <c r="A103" s="50"/>
       <c r="B103" s="14"/>
       <c r="C103" s="14"/>
       <c r="D103" s="14"/>
-      <c r="E103" s="51"/>
+      <c r="E103" s="50"/>
       <c r="F103" s="14"/>
       <c r="G103" s="14"/>
       <c r="H103" s="14"/>
@@ -4822,11 +4735,11 @@
       <c r="Y103" s="14"/>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="51"/>
+      <c r="A104" s="50"/>
       <c r="B104" s="14"/>
       <c r="C104" s="14"/>
       <c r="D104" s="14"/>
-      <c r="E104" s="51"/>
+      <c r="E104" s="50"/>
       <c r="F104" s="14"/>
       <c r="G104" s="14"/>
       <c r="H104" s="14"/>
@@ -4849,11 +4762,11 @@
       <c r="Y104" s="14"/>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="51"/>
+      <c r="A105" s="50"/>
       <c r="B105" s="14"/>
       <c r="C105" s="14"/>
       <c r="D105" s="14"/>
-      <c r="E105" s="51"/>
+      <c r="E105" s="50"/>
       <c r="F105" s="14"/>
       <c r="G105" s="14"/>
       <c r="H105" s="14"/>
@@ -4876,11 +4789,11 @@
       <c r="Y105" s="14"/>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="51"/>
+      <c r="A106" s="50"/>
       <c r="B106" s="14"/>
       <c r="C106" s="14"/>
       <c r="D106" s="14"/>
-      <c r="E106" s="51"/>
+      <c r="E106" s="50"/>
       <c r="F106" s="14"/>
       <c r="G106" s="14"/>
       <c r="H106" s="14"/>
@@ -4903,11 +4816,11 @@
       <c r="Y106" s="14"/>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="51"/>
+      <c r="A107" s="50"/>
       <c r="B107" s="14"/>
       <c r="C107" s="14"/>
       <c r="D107" s="14"/>
-      <c r="E107" s="51"/>
+      <c r="E107" s="50"/>
       <c r="F107" s="14"/>
       <c r="G107" s="14"/>
       <c r="H107" s="14"/>
@@ -4930,11 +4843,11 @@
       <c r="Y107" s="14"/>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="51"/>
+      <c r="A108" s="50"/>
       <c r="B108" s="14"/>
       <c r="C108" s="14"/>
       <c r="D108" s="14"/>
-      <c r="E108" s="51"/>
+      <c r="E108" s="50"/>
       <c r="F108" s="14"/>
       <c r="G108" s="14"/>
       <c r="H108" s="14"/>
@@ -4957,11 +4870,11 @@
       <c r="Y108" s="14"/>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="51"/>
+      <c r="A109" s="50"/>
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
       <c r="D109" s="14"/>
-      <c r="E109" s="51"/>
+      <c r="E109" s="50"/>
       <c r="F109" s="14"/>
       <c r="G109" s="14"/>
       <c r="H109" s="14"/>
@@ -4984,11 +4897,11 @@
       <c r="Y109" s="14"/>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="51"/>
+      <c r="A110" s="50"/>
       <c r="B110" s="14"/>
       <c r="C110" s="14"/>
       <c r="D110" s="14"/>
-      <c r="E110" s="51"/>
+      <c r="E110" s="50"/>
       <c r="F110" s="14"/>
       <c r="G110" s="14"/>
       <c r="H110" s="14"/>
@@ -5011,11 +4924,11 @@
       <c r="Y110" s="14"/>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="51"/>
+      <c r="A111" s="50"/>
       <c r="B111" s="14"/>
       <c r="C111" s="14"/>
       <c r="D111" s="14"/>
-      <c r="E111" s="51"/>
+      <c r="E111" s="50"/>
       <c r="F111" s="14"/>
       <c r="G111" s="14"/>
       <c r="H111" s="14"/>
@@ -5038,11 +4951,11 @@
       <c r="Y111" s="14"/>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="51"/>
+      <c r="A112" s="50"/>
       <c r="B112" s="14"/>
       <c r="C112" s="14"/>
       <c r="D112" s="14"/>
-      <c r="E112" s="51"/>
+      <c r="E112" s="50"/>
       <c r="F112" s="14"/>
       <c r="G112" s="14"/>
       <c r="H112" s="14"/>
@@ -5335,11 +5248,11 @@
       <c r="Y122" s="14"/>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="51"/>
+      <c r="A123" s="50"/>
       <c r="B123" s="14"/>
       <c r="C123" s="14"/>
       <c r="D123" s="14"/>
-      <c r="E123" s="51"/>
+      <c r="E123" s="50"/>
       <c r="F123" s="14"/>
       <c r="G123" s="14"/>
       <c r="H123" s="14"/>
@@ -5362,11 +5275,11 @@
       <c r="Y123" s="14"/>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="51"/>
+      <c r="A124" s="50"/>
       <c r="B124" s="14"/>
       <c r="C124" s="14"/>
       <c r="D124" s="14"/>
-      <c r="E124" s="51"/>
+      <c r="E124" s="50"/>
       <c r="F124" s="14"/>
       <c r="G124" s="14"/>
       <c r="H124" s="14"/>
@@ -5389,11 +5302,11 @@
       <c r="Y124" s="14"/>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="51"/>
+      <c r="A125" s="50"/>
       <c r="B125" s="14"/>
       <c r="C125" s="14"/>
       <c r="D125" s="14"/>
-      <c r="E125" s="51"/>
+      <c r="E125" s="50"/>
       <c r="F125" s="14"/>
       <c r="G125" s="14"/>
       <c r="H125" s="14"/>
@@ -5416,11 +5329,11 @@
       <c r="Y125" s="14"/>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="51"/>
+      <c r="A126" s="50"/>
       <c r="B126" s="14"/>
       <c r="C126" s="14"/>
       <c r="D126" s="14"/>
-      <c r="E126" s="51"/>
+      <c r="E126" s="50"/>
       <c r="F126" s="14"/>
       <c r="G126" s="14"/>
       <c r="H126" s="14"/>
@@ -5443,11 +5356,11 @@
       <c r="Y126" s="14"/>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="51"/>
+      <c r="A127" s="50"/>
       <c r="B127" s="14"/>
       <c r="C127" s="14"/>
       <c r="D127" s="14"/>
-      <c r="E127" s="51"/>
+      <c r="E127" s="50"/>
       <c r="F127" s="14"/>
       <c r="G127" s="14"/>
       <c r="H127" s="14"/>
@@ -5470,11 +5383,11 @@
       <c r="Y127" s="14"/>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="51"/>
+      <c r="A128" s="50"/>
       <c r="B128" s="14"/>
       <c r="C128" s="14"/>
       <c r="D128" s="14"/>
-      <c r="E128" s="51"/>
+      <c r="E128" s="50"/>
       <c r="F128" s="14"/>
       <c r="G128" s="14"/>
       <c r="H128" s="14"/>
@@ -5497,11 +5410,11 @@
       <c r="Y128" s="14"/>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="51"/>
+      <c r="A129" s="50"/>
       <c r="B129" s="14"/>
       <c r="C129" s="14"/>
       <c r="D129" s="14"/>
-      <c r="E129" s="51"/>
+      <c r="E129" s="50"/>
       <c r="F129" s="14"/>
       <c r="G129" s="14"/>
       <c r="H129" s="14"/>
@@ -5524,11 +5437,11 @@
       <c r="Y129" s="14"/>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="51"/>
+      <c r="A130" s="50"/>
       <c r="B130" s="14"/>
       <c r="C130" s="14"/>
       <c r="D130" s="14"/>
-      <c r="E130" s="51"/>
+      <c r="E130" s="50"/>
       <c r="F130" s="14"/>
       <c r="G130" s="14"/>
       <c r="H130" s="14"/>
@@ -5551,11 +5464,11 @@
       <c r="Y130" s="14"/>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="51"/>
+      <c r="A131" s="50"/>
       <c r="B131" s="14"/>
       <c r="C131" s="14"/>
       <c r="D131" s="14"/>
-      <c r="E131" s="51"/>
+      <c r="E131" s="50"/>
       <c r="F131" s="14"/>
       <c r="G131" s="14"/>
       <c r="H131" s="14"/>
@@ -5578,11 +5491,11 @@
       <c r="Y131" s="14"/>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="51"/>
+      <c r="A132" s="50"/>
       <c r="B132" s="14"/>
       <c r="C132" s="14"/>
       <c r="D132" s="14"/>
-      <c r="E132" s="51"/>
+      <c r="E132" s="50"/>
       <c r="F132" s="14"/>
       <c r="G132" s="14"/>
       <c r="H132" s="14"/>
@@ -5605,11 +5518,11 @@
       <c r="Y132" s="14"/>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="51"/>
+      <c r="A133" s="50"/>
       <c r="B133" s="14"/>
       <c r="C133" s="14"/>
       <c r="D133" s="14"/>
-      <c r="E133" s="51"/>
+      <c r="E133" s="50"/>
       <c r="F133" s="14"/>
       <c r="G133" s="14"/>
       <c r="H133" s="14"/>
@@ -5632,11 +5545,11 @@
       <c r="Y133" s="14"/>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="51"/>
+      <c r="A134" s="50"/>
       <c r="B134" s="14"/>
       <c r="C134" s="14"/>
       <c r="D134" s="14"/>
-      <c r="E134" s="51"/>
+      <c r="E134" s="50"/>
       <c r="F134" s="14"/>
       <c r="G134" s="14"/>
       <c r="H134" s="14"/>
@@ -5659,11 +5572,11 @@
       <c r="Y134" s="14"/>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="51"/>
+      <c r="A135" s="50"/>
       <c r="B135" s="14"/>
       <c r="C135" s="14"/>
       <c r="D135" s="14"/>
-      <c r="E135" s="51"/>
+      <c r="E135" s="50"/>
       <c r="F135" s="14"/>
       <c r="G135" s="14"/>
       <c r="H135" s="14"/>
@@ -5686,11 +5599,11 @@
       <c r="Y135" s="14"/>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="51"/>
+      <c r="A136" s="50"/>
       <c r="B136" s="14"/>
       <c r="C136" s="14"/>
       <c r="D136" s="14"/>
-      <c r="E136" s="51"/>
+      <c r="E136" s="50"/>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
       <c r="H136" s="14"/>
@@ -5713,11 +5626,11 @@
       <c r="Y136" s="14"/>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="51"/>
+      <c r="A137" s="50"/>
       <c r="B137" s="14"/>
       <c r="C137" s="14"/>
       <c r="D137" s="14"/>
-      <c r="E137" s="51"/>
+      <c r="E137" s="50"/>
       <c r="F137" s="14"/>
       <c r="G137" s="14"/>
       <c r="H137" s="14"/>
@@ -5740,11 +5653,11 @@
       <c r="Y137" s="14"/>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="51"/>
+      <c r="A138" s="50"/>
       <c r="B138" s="14"/>
       <c r="C138" s="14"/>
       <c r="D138" s="14"/>
-      <c r="E138" s="51"/>
+      <c r="E138" s="50"/>
       <c r="F138" s="14"/>
       <c r="G138" s="14"/>
       <c r="H138" s="14"/>
@@ -5767,11 +5680,11 @@
       <c r="Y138" s="14"/>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="51"/>
+      <c r="A139" s="50"/>
       <c r="B139" s="14"/>
       <c r="C139" s="14"/>
       <c r="D139" s="14"/>
-      <c r="E139" s="51"/>
+      <c r="E139" s="50"/>
       <c r="F139" s="14"/>
       <c r="G139" s="14"/>
       <c r="H139" s="14"/>
@@ -5794,11 +5707,11 @@
       <c r="Y139" s="14"/>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="51"/>
+      <c r="A140" s="50"/>
       <c r="B140" s="14"/>
       <c r="C140" s="14"/>
       <c r="D140" s="14"/>
-      <c r="E140" s="51"/>
+      <c r="E140" s="50"/>
       <c r="F140" s="14"/>
       <c r="G140" s="14"/>
       <c r="H140" s="14"/>
@@ -5821,11 +5734,11 @@
       <c r="Y140" s="14"/>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="51"/>
+      <c r="A141" s="50"/>
       <c r="B141" s="14"/>
       <c r="C141" s="14"/>
       <c r="D141" s="14"/>
-      <c r="E141" s="51"/>
+      <c r="E141" s="50"/>
       <c r="F141" s="14"/>
       <c r="G141" s="14"/>
       <c r="H141" s="14"/>
@@ -5848,11 +5761,11 @@
       <c r="Y141" s="14"/>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="51"/>
+      <c r="A142" s="50"/>
       <c r="B142" s="14"/>
       <c r="C142" s="14"/>
       <c r="D142" s="14"/>
-      <c r="E142" s="51"/>
+      <c r="E142" s="50"/>
       <c r="F142" s="14"/>
       <c r="G142" s="14"/>
       <c r="H142" s="14"/>
@@ -5875,11 +5788,11 @@
       <c r="Y142" s="14"/>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="51"/>
+      <c r="A143" s="50"/>
       <c r="B143" s="14"/>
       <c r="C143" s="14"/>
       <c r="D143" s="14"/>
-      <c r="E143" s="51"/>
+      <c r="E143" s="50"/>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
       <c r="H143" s="14"/>
@@ -5902,11 +5815,11 @@
       <c r="Y143" s="14"/>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="51"/>
+      <c r="A144" s="50"/>
       <c r="B144" s="14"/>
       <c r="C144" s="14"/>
       <c r="D144" s="14"/>
-      <c r="E144" s="51"/>
+      <c r="E144" s="50"/>
       <c r="F144" s="14"/>
       <c r="G144" s="14"/>
       <c r="H144" s="14"/>
@@ -5929,11 +5842,11 @@
       <c r="Y144" s="14"/>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="51"/>
+      <c r="A145" s="50"/>
       <c r="B145" s="14"/>
       <c r="C145" s="14"/>
       <c r="D145" s="14"/>
-      <c r="E145" s="51"/>
+      <c r="E145" s="50"/>
       <c r="F145" s="14"/>
       <c r="G145" s="14"/>
       <c r="H145" s="14"/>
@@ -5956,11 +5869,11 @@
       <c r="Y145" s="14"/>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="51"/>
+      <c r="A146" s="50"/>
       <c r="B146" s="14"/>
       <c r="C146" s="14"/>
       <c r="D146" s="14"/>
-      <c r="E146" s="51"/>
+      <c r="E146" s="50"/>
       <c r="F146" s="14"/>
       <c r="G146" s="14"/>
       <c r="H146" s="14"/>
@@ -5983,11 +5896,11 @@
       <c r="Y146" s="14"/>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="51"/>
+      <c r="A147" s="50"/>
       <c r="B147" s="14"/>
       <c r="C147" s="14"/>
       <c r="D147" s="14"/>
-      <c r="E147" s="51"/>
+      <c r="E147" s="50"/>
       <c r="F147" s="14"/>
       <c r="G147" s="14"/>
       <c r="H147" s="14"/>
@@ -6010,11 +5923,11 @@
       <c r="Y147" s="14"/>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="51"/>
+      <c r="A148" s="50"/>
       <c r="B148" s="14"/>
       <c r="C148" s="14"/>
       <c r="D148" s="14"/>
-      <c r="E148" s="51"/>
+      <c r="E148" s="50"/>
       <c r="F148" s="14"/>
       <c r="G148" s="14"/>
       <c r="H148" s="14"/>
@@ -6037,11 +5950,11 @@
       <c r="Y148" s="14"/>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="51"/>
+      <c r="A149" s="50"/>
       <c r="B149" s="14"/>
       <c r="C149" s="14"/>
       <c r="D149" s="14"/>
-      <c r="E149" s="51"/>
+      <c r="E149" s="50"/>
       <c r="F149" s="14"/>
       <c r="G149" s="14"/>
       <c r="H149" s="14"/>
@@ -6064,11 +5977,11 @@
       <c r="Y149" s="14"/>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="51"/>
+      <c r="A150" s="50"/>
       <c r="B150" s="14"/>
       <c r="C150" s="14"/>
       <c r="D150" s="14"/>
-      <c r="E150" s="51"/>
+      <c r="E150" s="50"/>
       <c r="F150" s="14"/>
       <c r="G150" s="14"/>
       <c r="H150" s="14"/>
@@ -6091,11 +6004,11 @@
       <c r="Y150" s="14"/>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="51"/>
+      <c r="A151" s="50"/>
       <c r="B151" s="14"/>
       <c r="C151" s="14"/>
       <c r="D151" s="14"/>
-      <c r="E151" s="51"/>
+      <c r="E151" s="50"/>
       <c r="F151" s="14"/>
       <c r="G151" s="14"/>
       <c r="H151" s="14"/>
@@ -6118,11 +6031,11 @@
       <c r="Y151" s="14"/>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="51"/>
+      <c r="A152" s="50"/>
       <c r="B152" s="14"/>
       <c r="C152" s="14"/>
       <c r="D152" s="14"/>
-      <c r="E152" s="51"/>
+      <c r="E152" s="50"/>
       <c r="F152" s="14"/>
       <c r="G152" s="14"/>
       <c r="H152" s="14"/>
@@ -6145,11 +6058,11 @@
       <c r="Y152" s="14"/>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="51"/>
+      <c r="A153" s="50"/>
       <c r="B153" s="14"/>
       <c r="C153" s="14"/>
       <c r="D153" s="14"/>
-      <c r="E153" s="51"/>
+      <c r="E153" s="50"/>
       <c r="F153" s="14"/>
       <c r="G153" s="14"/>
       <c r="H153" s="14"/>
@@ -6172,11 +6085,11 @@
       <c r="Y153" s="14"/>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="51"/>
+      <c r="A154" s="50"/>
       <c r="B154" s="14"/>
       <c r="C154" s="14"/>
       <c r="D154" s="14"/>
-      <c r="E154" s="51"/>
+      <c r="E154" s="50"/>
       <c r="F154" s="14"/>
       <c r="G154" s="14"/>
       <c r="H154" s="14"/>
@@ -6199,11 +6112,11 @@
       <c r="Y154" s="14"/>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="51"/>
+      <c r="A155" s="50"/>
       <c r="B155" s="14"/>
       <c r="C155" s="14"/>
       <c r="D155" s="14"/>
-      <c r="E155" s="51"/>
+      <c r="E155" s="50"/>
       <c r="F155" s="14"/>
       <c r="G155" s="14"/>
       <c r="H155" s="14"/>
@@ -6226,11 +6139,11 @@
       <c r="Y155" s="14"/>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="51"/>
+      <c r="A156" s="50"/>
       <c r="B156" s="14"/>
       <c r="C156" s="14"/>
       <c r="D156" s="14"/>
-      <c r="E156" s="51"/>
+      <c r="E156" s="50"/>
       <c r="F156" s="14"/>
       <c r="G156" s="14"/>
       <c r="H156" s="14"/>
@@ -6253,11 +6166,11 @@
       <c r="Y156" s="14"/>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="51"/>
+      <c r="A157" s="50"/>
       <c r="B157" s="14"/>
       <c r="C157" s="14"/>
       <c r="D157" s="14"/>
-      <c r="E157" s="51"/>
+      <c r="E157" s="50"/>
       <c r="F157" s="14"/>
       <c r="G157" s="14"/>
       <c r="H157" s="14"/>
@@ -6280,11 +6193,11 @@
       <c r="Y157" s="14"/>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="51"/>
+      <c r="A158" s="50"/>
       <c r="B158" s="14"/>
       <c r="C158" s="14"/>
       <c r="D158" s="14"/>
-      <c r="E158" s="51"/>
+      <c r="E158" s="50"/>
       <c r="F158" s="14"/>
       <c r="G158" s="14"/>
       <c r="H158" s="14"/>
@@ -6307,11 +6220,11 @@
       <c r="Y158" s="14"/>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="51"/>
+      <c r="A159" s="50"/>
       <c r="B159" s="14"/>
       <c r="C159" s="14"/>
       <c r="D159" s="14"/>
-      <c r="E159" s="51"/>
+      <c r="E159" s="50"/>
       <c r="F159" s="14"/>
       <c r="G159" s="14"/>
       <c r="H159" s="14"/>
@@ -6334,11 +6247,11 @@
       <c r="Y159" s="14"/>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="51"/>
+      <c r="A160" s="50"/>
       <c r="B160" s="14"/>
       <c r="C160" s="14"/>
       <c r="D160" s="14"/>
-      <c r="E160" s="51"/>
+      <c r="E160" s="50"/>
       <c r="F160" s="14"/>
       <c r="G160" s="14"/>
       <c r="H160" s="14"/>
@@ -6361,11 +6274,11 @@
       <c r="Y160" s="14"/>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="51"/>
+      <c r="A161" s="50"/>
       <c r="B161" s="14"/>
       <c r="C161" s="14"/>
       <c r="D161" s="14"/>
-      <c r="E161" s="51"/>
+      <c r="E161" s="50"/>
       <c r="F161" s="14"/>
       <c r="G161" s="14"/>
       <c r="H161" s="14"/>
@@ -6388,11 +6301,11 @@
       <c r="Y161" s="14"/>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="51"/>
+      <c r="A162" s="50"/>
       <c r="B162" s="14"/>
       <c r="C162" s="14"/>
       <c r="D162" s="14"/>
-      <c r="E162" s="51"/>
+      <c r="E162" s="50"/>
       <c r="F162" s="14"/>
       <c r="G162" s="14"/>
       <c r="H162" s="14"/>
@@ -6415,11 +6328,11 @@
       <c r="Y162" s="14"/>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="51"/>
+      <c r="A163" s="50"/>
       <c r="B163" s="14"/>
       <c r="C163" s="14"/>
       <c r="D163" s="14"/>
-      <c r="E163" s="51"/>
+      <c r="E163" s="50"/>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
       <c r="H163" s="14"/>
@@ -6442,11 +6355,11 @@
       <c r="Y163" s="14"/>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="51"/>
+      <c r="A164" s="50"/>
       <c r="B164" s="14"/>
       <c r="C164" s="14"/>
       <c r="D164" s="14"/>
-      <c r="E164" s="51"/>
+      <c r="E164" s="50"/>
       <c r="F164" s="14"/>
       <c r="G164" s="14"/>
       <c r="H164" s="14"/>
@@ -6469,11 +6382,11 @@
       <c r="Y164" s="14"/>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="51"/>
+      <c r="A165" s="50"/>
       <c r="B165" s="14"/>
       <c r="C165" s="14"/>
       <c r="D165" s="14"/>
-      <c r="E165" s="51"/>
+      <c r="E165" s="50"/>
       <c r="F165" s="14"/>
       <c r="G165" s="14"/>
       <c r="H165" s="14"/>
@@ -6496,11 +6409,11 @@
       <c r="Y165" s="14"/>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="51"/>
+      <c r="A166" s="50"/>
       <c r="B166" s="14"/>
       <c r="C166" s="14"/>
       <c r="D166" s="14"/>
-      <c r="E166" s="51"/>
+      <c r="E166" s="50"/>
       <c r="F166" s="14"/>
       <c r="G166" s="14"/>
       <c r="H166" s="14"/>
@@ -6523,11 +6436,11 @@
       <c r="Y166" s="14"/>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="51"/>
+      <c r="A167" s="50"/>
       <c r="B167" s="14"/>
       <c r="C167" s="14"/>
       <c r="D167" s="14"/>
-      <c r="E167" s="51"/>
+      <c r="E167" s="50"/>
       <c r="F167" s="14"/>
       <c r="G167" s="14"/>
       <c r="H167" s="14"/>
@@ -6550,11 +6463,11 @@
       <c r="Y167" s="14"/>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="51"/>
+      <c r="A168" s="50"/>
       <c r="B168" s="14"/>
       <c r="C168" s="14"/>
       <c r="D168" s="14"/>
-      <c r="E168" s="51"/>
+      <c r="E168" s="50"/>
       <c r="F168" s="14"/>
       <c r="G168" s="14"/>
       <c r="H168" s="14"/>
@@ -6577,11 +6490,11 @@
       <c r="Y168" s="14"/>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="51"/>
+      <c r="A169" s="50"/>
       <c r="B169" s="14"/>
       <c r="C169" s="14"/>
       <c r="D169" s="14"/>
-      <c r="E169" s="51"/>
+      <c r="E169" s="50"/>
       <c r="F169" s="14"/>
       <c r="G169" s="14"/>
       <c r="H169" s="14"/>
@@ -6604,11 +6517,11 @@
       <c r="Y169" s="14"/>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="51"/>
+      <c r="A170" s="50"/>
       <c r="B170" s="14"/>
       <c r="C170" s="14"/>
       <c r="D170" s="14"/>
-      <c r="E170" s="51"/>
+      <c r="E170" s="50"/>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
       <c r="H170" s="14"/>
@@ -6631,11 +6544,11 @@
       <c r="Y170" s="14"/>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="51"/>
+      <c r="A171" s="50"/>
       <c r="B171" s="14"/>
       <c r="C171" s="14"/>
       <c r="D171" s="14"/>
-      <c r="E171" s="51"/>
+      <c r="E171" s="50"/>
       <c r="F171" s="14"/>
       <c r="G171" s="14"/>
       <c r="H171" s="14"/>
@@ -6658,11 +6571,11 @@
       <c r="Y171" s="14"/>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="51"/>
+      <c r="A172" s="50"/>
       <c r="B172" s="14"/>
       <c r="C172" s="14"/>
       <c r="D172" s="14"/>
-      <c r="E172" s="51"/>
+      <c r="E172" s="50"/>
       <c r="F172" s="14"/>
       <c r="G172" s="14"/>
       <c r="H172" s="14"/>
@@ -6685,11 +6598,11 @@
       <c r="Y172" s="14"/>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="51"/>
+      <c r="A173" s="50"/>
       <c r="B173" s="14"/>
       <c r="C173" s="14"/>
       <c r="D173" s="14"/>
-      <c r="E173" s="51"/>
+      <c r="E173" s="50"/>
       <c r="F173" s="14"/>
       <c r="G173" s="14"/>
       <c r="H173" s="14"/>
@@ -6712,11 +6625,11 @@
       <c r="Y173" s="14"/>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="51"/>
+      <c r="A174" s="50"/>
       <c r="B174" s="14"/>
       <c r="C174" s="14"/>
       <c r="D174" s="14"/>
-      <c r="E174" s="51"/>
+      <c r="E174" s="50"/>
       <c r="F174" s="14"/>
       <c r="G174" s="14"/>
       <c r="H174" s="14"/>
@@ -6739,11 +6652,11 @@
       <c r="Y174" s="14"/>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="51"/>
+      <c r="A175" s="50"/>
       <c r="B175" s="14"/>
       <c r="C175" s="14"/>
       <c r="D175" s="14"/>
-      <c r="E175" s="51"/>
+      <c r="E175" s="50"/>
       <c r="F175" s="14"/>
       <c r="G175" s="14"/>
       <c r="H175" s="14"/>
@@ -6766,11 +6679,11 @@
       <c r="Y175" s="14"/>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="51"/>
+      <c r="A176" s="50"/>
       <c r="B176" s="14"/>
       <c r="C176" s="14"/>
       <c r="D176" s="14"/>
-      <c r="E176" s="51"/>
+      <c r="E176" s="50"/>
       <c r="F176" s="14"/>
       <c r="G176" s="14"/>
       <c r="H176" s="14"/>
@@ -6793,11 +6706,11 @@
       <c r="Y176" s="14"/>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="51"/>
+      <c r="A177" s="50"/>
       <c r="B177" s="14"/>
       <c r="C177" s="14"/>
       <c r="D177" s="14"/>
-      <c r="E177" s="51"/>
+      <c r="E177" s="50"/>
       <c r="F177" s="14"/>
       <c r="G177" s="14"/>
       <c r="H177" s="14"/>
@@ -6820,11 +6733,11 @@
       <c r="Y177" s="14"/>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="51"/>
+      <c r="A178" s="50"/>
       <c r="B178" s="14"/>
       <c r="C178" s="14"/>
       <c r="D178" s="14"/>
-      <c r="E178" s="51"/>
+      <c r="E178" s="50"/>
       <c r="F178" s="14"/>
       <c r="G178" s="14"/>
       <c r="H178" s="14"/>
@@ -6847,11 +6760,11 @@
       <c r="Y178" s="14"/>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="51"/>
+      <c r="A179" s="50"/>
       <c r="B179" s="14"/>
       <c r="C179" s="14"/>
       <c r="D179" s="14"/>
-      <c r="E179" s="51"/>
+      <c r="E179" s="50"/>
       <c r="F179" s="14"/>
       <c r="G179" s="14"/>
       <c r="H179" s="14"/>
@@ -6874,11 +6787,11 @@
       <c r="Y179" s="14"/>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="51"/>
+      <c r="A180" s="50"/>
       <c r="B180" s="14"/>
       <c r="C180" s="14"/>
       <c r="D180" s="14"/>
-      <c r="E180" s="51"/>
+      <c r="E180" s="50"/>
       <c r="F180" s="14"/>
       <c r="G180" s="14"/>
       <c r="H180" s="14"/>
@@ -6901,11 +6814,11 @@
       <c r="Y180" s="14"/>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="51"/>
+      <c r="A181" s="50"/>
       <c r="B181" s="14"/>
       <c r="C181" s="14"/>
       <c r="D181" s="14"/>
-      <c r="E181" s="51"/>
+      <c r="E181" s="50"/>
       <c r="F181" s="14"/>
       <c r="G181" s="14"/>
       <c r="H181" s="14"/>
@@ -6928,11 +6841,11 @@
       <c r="Y181" s="14"/>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="51"/>
+      <c r="A182" s="50"/>
       <c r="B182" s="14"/>
       <c r="C182" s="14"/>
       <c r="D182" s="14"/>
-      <c r="E182" s="51"/>
+      <c r="E182" s="50"/>
       <c r="F182" s="14"/>
       <c r="G182" s="14"/>
       <c r="H182" s="14"/>
@@ -6955,11 +6868,11 @@
       <c r="Y182" s="14"/>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="51"/>
+      <c r="A183" s="50"/>
       <c r="B183" s="14"/>
       <c r="C183" s="14"/>
       <c r="D183" s="14"/>
-      <c r="E183" s="51"/>
+      <c r="E183" s="50"/>
       <c r="F183" s="14"/>
       <c r="G183" s="14"/>
       <c r="H183" s="14"/>
@@ -6982,11 +6895,11 @@
       <c r="Y183" s="14"/>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="51"/>
+      <c r="A184" s="50"/>
       <c r="B184" s="14"/>
       <c r="C184" s="14"/>
       <c r="D184" s="14"/>
-      <c r="E184" s="51"/>
+      <c r="E184" s="50"/>
       <c r="F184" s="14"/>
       <c r="G184" s="14"/>
       <c r="H184" s="14"/>
@@ -7009,11 +6922,11 @@
       <c r="Y184" s="14"/>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="51"/>
+      <c r="A185" s="50"/>
       <c r="B185" s="14"/>
       <c r="C185" s="14"/>
       <c r="D185" s="14"/>
-      <c r="E185" s="51"/>
+      <c r="E185" s="50"/>
       <c r="F185" s="14"/>
       <c r="G185" s="14"/>
       <c r="H185" s="14"/>
@@ -7036,11 +6949,11 @@
       <c r="Y185" s="14"/>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="51"/>
+      <c r="A186" s="50"/>
       <c r="B186" s="14"/>
       <c r="C186" s="14"/>
       <c r="D186" s="14"/>
-      <c r="E186" s="51"/>
+      <c r="E186" s="50"/>
       <c r="F186" s="14"/>
       <c r="G186" s="14"/>
       <c r="H186" s="14"/>
@@ -7063,11 +6976,11 @@
       <c r="Y186" s="14"/>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="51"/>
+      <c r="A187" s="50"/>
       <c r="B187" s="14"/>
       <c r="C187" s="14"/>
       <c r="D187" s="14"/>
-      <c r="E187" s="51"/>
+      <c r="E187" s="50"/>
       <c r="F187" s="14"/>
       <c r="G187" s="14"/>
       <c r="H187" s="14"/>
@@ -7090,11 +7003,11 @@
       <c r="Y187" s="14"/>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="51"/>
+      <c r="A188" s="50"/>
       <c r="B188" s="14"/>
       <c r="C188" s="14"/>
       <c r="D188" s="14"/>
-      <c r="E188" s="51"/>
+      <c r="E188" s="50"/>
       <c r="F188" s="14"/>
       <c r="G188" s="14"/>
       <c r="H188" s="14"/>
@@ -7117,11 +7030,11 @@
       <c r="Y188" s="14"/>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="51"/>
+      <c r="A189" s="50"/>
       <c r="B189" s="14"/>
       <c r="C189" s="14"/>
       <c r="D189" s="14"/>
-      <c r="E189" s="51"/>
+      <c r="E189" s="50"/>
       <c r="F189" s="14"/>
       <c r="G189" s="14"/>
       <c r="H189" s="14"/>
@@ -7144,11 +7057,11 @@
       <c r="Y189" s="14"/>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="51"/>
+      <c r="A190" s="50"/>
       <c r="B190" s="14"/>
       <c r="C190" s="14"/>
       <c r="D190" s="14"/>
-      <c r="E190" s="51"/>
+      <c r="E190" s="50"/>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
       <c r="H190" s="14"/>
@@ -7171,11 +7084,11 @@
       <c r="Y190" s="14"/>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="51"/>
+      <c r="A191" s="50"/>
       <c r="B191" s="14"/>
       <c r="C191" s="14"/>
       <c r="D191" s="14"/>
-      <c r="E191" s="51"/>
+      <c r="E191" s="50"/>
       <c r="F191" s="14"/>
       <c r="G191" s="14"/>
       <c r="H191" s="14"/>
@@ -7198,11 +7111,11 @@
       <c r="Y191" s="14"/>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="51"/>
+      <c r="A192" s="50"/>
       <c r="B192" s="14"/>
       <c r="C192" s="14"/>
       <c r="D192" s="14"/>
-      <c r="E192" s="51"/>
+      <c r="E192" s="50"/>
       <c r="F192" s="14"/>
       <c r="G192" s="14"/>
       <c r="H192" s="14"/>
@@ -7225,11 +7138,11 @@
       <c r="Y192" s="14"/>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="51"/>
+      <c r="A193" s="50"/>
       <c r="B193" s="14"/>
       <c r="C193" s="14"/>
       <c r="D193" s="14"/>
-      <c r="E193" s="51"/>
+      <c r="E193" s="50"/>
       <c r="F193" s="14"/>
       <c r="G193" s="14"/>
       <c r="H193" s="14"/>
@@ -7252,11 +7165,11 @@
       <c r="Y193" s="14"/>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="51"/>
+      <c r="A194" s="50"/>
       <c r="B194" s="14"/>
       <c r="C194" s="14"/>
       <c r="D194" s="14"/>
-      <c r="E194" s="51"/>
+      <c r="E194" s="50"/>
       <c r="F194" s="14"/>
       <c r="G194" s="14"/>
       <c r="H194" s="14"/>
@@ -7279,11 +7192,11 @@
       <c r="Y194" s="14"/>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="51"/>
+      <c r="A195" s="50"/>
       <c r="B195" s="14"/>
       <c r="C195" s="14"/>
       <c r="D195" s="14"/>
-      <c r="E195" s="51"/>
+      <c r="E195" s="50"/>
       <c r="F195" s="14"/>
       <c r="G195" s="14"/>
       <c r="H195" s="14"/>
@@ -7306,11 +7219,11 @@
       <c r="Y195" s="14"/>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="51"/>
+      <c r="A196" s="50"/>
       <c r="B196" s="14"/>
       <c r="C196" s="14"/>
       <c r="D196" s="14"/>
-      <c r="E196" s="51"/>
+      <c r="E196" s="50"/>
       <c r="F196" s="14"/>
       <c r="G196" s="14"/>
       <c r="H196" s="14"/>
@@ -7333,11 +7246,11 @@
       <c r="Y196" s="14"/>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="51"/>
+      <c r="A197" s="50"/>
       <c r="B197" s="14"/>
       <c r="C197" s="14"/>
       <c r="D197" s="14"/>
-      <c r="E197" s="51"/>
+      <c r="E197" s="50"/>
       <c r="F197" s="14"/>
       <c r="G197" s="14"/>
       <c r="H197" s="14"/>
@@ -7360,11 +7273,11 @@
       <c r="Y197" s="14"/>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="51"/>
+      <c r="A198" s="50"/>
       <c r="B198" s="14"/>
       <c r="C198" s="14"/>
       <c r="D198" s="14"/>
-      <c r="E198" s="51"/>
+      <c r="E198" s="50"/>
       <c r="F198" s="14"/>
       <c r="G198" s="14"/>
       <c r="H198" s="14"/>
@@ -7387,11 +7300,11 @@
       <c r="Y198" s="14"/>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="51"/>
+      <c r="A199" s="50"/>
       <c r="B199" s="14"/>
       <c r="C199" s="14"/>
       <c r="D199" s="14"/>
-      <c r="E199" s="51"/>
+      <c r="E199" s="50"/>
       <c r="F199" s="14"/>
       <c r="G199" s="14"/>
       <c r="H199" s="14"/>
@@ -7414,11 +7327,11 @@
       <c r="Y199" s="14"/>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="51"/>
+      <c r="A200" s="50"/>
       <c r="B200" s="14"/>
       <c r="C200" s="14"/>
       <c r="D200" s="14"/>
-      <c r="E200" s="51"/>
+      <c r="E200" s="50"/>
       <c r="F200" s="14"/>
       <c r="G200" s="14"/>
       <c r="H200" s="14"/>
@@ -7441,11 +7354,11 @@
       <c r="Y200" s="14"/>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="51"/>
+      <c r="A201" s="50"/>
       <c r="B201" s="14"/>
       <c r="C201" s="14"/>
       <c r="D201" s="14"/>
-      <c r="E201" s="51"/>
+      <c r="E201" s="50"/>
       <c r="F201" s="14"/>
       <c r="G201" s="14"/>
       <c r="H201" s="14"/>
@@ -7468,11 +7381,11 @@
       <c r="Y201" s="14"/>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="51"/>
+      <c r="A202" s="50"/>
       <c r="B202" s="14"/>
       <c r="C202" s="14"/>
       <c r="D202" s="14"/>
-      <c r="E202" s="51"/>
+      <c r="E202" s="50"/>
       <c r="F202" s="14"/>
       <c r="G202" s="14"/>
       <c r="H202" s="14"/>
@@ -7495,11 +7408,11 @@
       <c r="Y202" s="14"/>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="51"/>
+      <c r="A203" s="50"/>
       <c r="B203" s="14"/>
       <c r="C203" s="14"/>
       <c r="D203" s="14"/>
-      <c r="E203" s="51"/>
+      <c r="E203" s="50"/>
       <c r="F203" s="14"/>
       <c r="G203" s="14"/>
       <c r="H203" s="14"/>
@@ -7522,11 +7435,11 @@
       <c r="Y203" s="14"/>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="51"/>
+      <c r="A204" s="50"/>
       <c r="B204" s="14"/>
       <c r="C204" s="14"/>
       <c r="D204" s="14"/>
-      <c r="E204" s="51"/>
+      <c r="E204" s="50"/>
       <c r="F204" s="14"/>
       <c r="G204" s="14"/>
       <c r="H204" s="14"/>
@@ -7549,11 +7462,11 @@
       <c r="Y204" s="14"/>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="51"/>
+      <c r="A205" s="50"/>
       <c r="B205" s="14"/>
       <c r="C205" s="14"/>
       <c r="D205" s="14"/>
-      <c r="E205" s="51"/>
+      <c r="E205" s="50"/>
       <c r="F205" s="14"/>
       <c r="G205" s="14"/>
       <c r="H205" s="14"/>
@@ -7576,11 +7489,11 @@
       <c r="Y205" s="14"/>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="51"/>
+      <c r="A206" s="50"/>
       <c r="B206" s="14"/>
       <c r="C206" s="14"/>
       <c r="D206" s="14"/>
-      <c r="E206" s="51"/>
+      <c r="E206" s="50"/>
       <c r="F206" s="14"/>
       <c r="G206" s="14"/>
       <c r="H206" s="14"/>
@@ -7603,11 +7516,11 @@
       <c r="Y206" s="14"/>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="51"/>
+      <c r="A207" s="50"/>
       <c r="B207" s="14"/>
       <c r="C207" s="14"/>
       <c r="D207" s="14"/>
-      <c r="E207" s="51"/>
+      <c r="E207" s="50"/>
       <c r="F207" s="14"/>
       <c r="G207" s="14"/>
       <c r="H207" s="14"/>
@@ -7630,11 +7543,11 @@
       <c r="Y207" s="14"/>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="51"/>
+      <c r="A208" s="50"/>
       <c r="B208" s="14"/>
       <c r="C208" s="14"/>
       <c r="D208" s="14"/>
-      <c r="E208" s="51"/>
+      <c r="E208" s="50"/>
       <c r="F208" s="14"/>
       <c r="G208" s="14"/>
       <c r="H208" s="14"/>
@@ -7657,11 +7570,11 @@
       <c r="Y208" s="14"/>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="51"/>
+      <c r="A209" s="50"/>
       <c r="B209" s="14"/>
       <c r="C209" s="14"/>
       <c r="D209" s="14"/>
-      <c r="E209" s="51"/>
+      <c r="E209" s="50"/>
       <c r="F209" s="14"/>
       <c r="G209" s="14"/>
       <c r="H209" s="14"/>
@@ -7684,11 +7597,11 @@
       <c r="Y209" s="14"/>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="51"/>
+      <c r="A210" s="50"/>
       <c r="B210" s="14"/>
       <c r="C210" s="14"/>
       <c r="D210" s="14"/>
-      <c r="E210" s="51"/>
+      <c r="E210" s="50"/>
       <c r="F210" s="14"/>
       <c r="G210" s="14"/>
       <c r="H210" s="14"/>
@@ -7711,11 +7624,11 @@
       <c r="Y210" s="14"/>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="51"/>
+      <c r="A211" s="50"/>
       <c r="B211" s="14"/>
       <c r="C211" s="14"/>
       <c r="D211" s="14"/>
-      <c r="E211" s="51"/>
+      <c r="E211" s="50"/>
       <c r="F211" s="14"/>
       <c r="G211" s="14"/>
       <c r="H211" s="14"/>
@@ -7738,11 +7651,11 @@
       <c r="Y211" s="14"/>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="51"/>
+      <c r="A212" s="50"/>
       <c r="B212" s="14"/>
       <c r="C212" s="14"/>
       <c r="D212" s="14"/>
-      <c r="E212" s="51"/>
+      <c r="E212" s="50"/>
       <c r="F212" s="14"/>
       <c r="G212" s="14"/>
       <c r="H212" s="14"/>
@@ -7765,11 +7678,11 @@
       <c r="Y212" s="14"/>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="51"/>
+      <c r="A213" s="50"/>
       <c r="B213" s="14"/>
       <c r="C213" s="14"/>
       <c r="D213" s="14"/>
-      <c r="E213" s="51"/>
+      <c r="E213" s="50"/>
       <c r="F213" s="14"/>
       <c r="G213" s="14"/>
       <c r="H213" s="14"/>
@@ -7792,11 +7705,11 @@
       <c r="Y213" s="14"/>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="51"/>
+      <c r="A214" s="50"/>
       <c r="B214" s="14"/>
       <c r="C214" s="14"/>
       <c r="D214" s="14"/>
-      <c r="E214" s="51"/>
+      <c r="E214" s="50"/>
       <c r="F214" s="14"/>
       <c r="G214" s="14"/>
       <c r="H214" s="14"/>
@@ -7819,11 +7732,11 @@
       <c r="Y214" s="14"/>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="51"/>
+      <c r="A215" s="50"/>
       <c r="B215" s="14"/>
       <c r="C215" s="14"/>
       <c r="D215" s="14"/>
-      <c r="E215" s="51"/>
+      <c r="E215" s="50"/>
       <c r="F215" s="14"/>
       <c r="G215" s="14"/>
       <c r="H215" s="14"/>
@@ -7846,11 +7759,11 @@
       <c r="Y215" s="14"/>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="51"/>
+      <c r="A216" s="50"/>
       <c r="B216" s="14"/>
       <c r="C216" s="14"/>
       <c r="D216" s="14"/>
-      <c r="E216" s="51"/>
+      <c r="E216" s="50"/>
       <c r="F216" s="14"/>
       <c r="G216" s="14"/>
       <c r="H216" s="14"/>
@@ -7873,11 +7786,11 @@
       <c r="Y216" s="14"/>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="51"/>
+      <c r="A217" s="50"/>
       <c r="B217" s="14"/>
       <c r="C217" s="14"/>
       <c r="D217" s="14"/>
-      <c r="E217" s="51"/>
+      <c r="E217" s="50"/>
       <c r="F217" s="14"/>
       <c r="G217" s="14"/>
       <c r="H217" s="14"/>
@@ -7900,11 +7813,11 @@
       <c r="Y217" s="14"/>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="51"/>
+      <c r="A218" s="50"/>
       <c r="B218" s="14"/>
       <c r="C218" s="14"/>
       <c r="D218" s="14"/>
-      <c r="E218" s="51"/>
+      <c r="E218" s="50"/>
       <c r="F218" s="14"/>
       <c r="G218" s="14"/>
       <c r="H218" s="14"/>
@@ -7927,11 +7840,11 @@
       <c r="Y218" s="14"/>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="51"/>
+      <c r="A219" s="50"/>
       <c r="B219" s="14"/>
       <c r="C219" s="14"/>
       <c r="D219" s="14"/>
-      <c r="E219" s="51"/>
+      <c r="E219" s="50"/>
       <c r="F219" s="14"/>
       <c r="G219" s="14"/>
       <c r="H219" s="14"/>
@@ -7954,11 +7867,11 @@
       <c r="Y219" s="14"/>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="51"/>
+      <c r="A220" s="50"/>
       <c r="B220" s="14"/>
       <c r="C220" s="14"/>
       <c r="D220" s="14"/>
-      <c r="E220" s="51"/>
+      <c r="E220" s="50"/>
       <c r="F220" s="14"/>
       <c r="G220" s="14"/>
       <c r="H220" s="14"/>
@@ -7981,11 +7894,11 @@
       <c r="Y220" s="14"/>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="51"/>
+      <c r="A221" s="50"/>
       <c r="B221" s="14"/>
       <c r="C221" s="14"/>
       <c r="D221" s="14"/>
-      <c r="E221" s="51"/>
+      <c r="E221" s="50"/>
       <c r="F221" s="14"/>
       <c r="G221" s="14"/>
       <c r="H221" s="14"/>
@@ -8008,11 +7921,11 @@
       <c r="Y221" s="14"/>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="51"/>
+      <c r="A222" s="50"/>
       <c r="B222" s="14"/>
       <c r="C222" s="14"/>
       <c r="D222" s="14"/>
-      <c r="E222" s="51"/>
+      <c r="E222" s="50"/>
       <c r="F222" s="14"/>
       <c r="G222" s="14"/>
       <c r="H222" s="14"/>
@@ -8035,11 +7948,11 @@
       <c r="Y222" s="14"/>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="51"/>
+      <c r="A223" s="50"/>
       <c r="B223" s="14"/>
       <c r="C223" s="14"/>
       <c r="D223" s="14"/>
-      <c r="E223" s="51"/>
+      <c r="E223" s="50"/>
       <c r="F223" s="14"/>
       <c r="G223" s="14"/>
       <c r="H223" s="14"/>
@@ -8062,11 +7975,11 @@
       <c r="Y223" s="14"/>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="51"/>
+      <c r="A224" s="50"/>
       <c r="B224" s="14"/>
       <c r="C224" s="14"/>
       <c r="D224" s="14"/>
-      <c r="E224" s="51"/>
+      <c r="E224" s="50"/>
       <c r="F224" s="14"/>
       <c r="G224" s="14"/>
       <c r="H224" s="14"/>
@@ -8089,11 +8002,11 @@
       <c r="Y224" s="14"/>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="51"/>
+      <c r="A225" s="50"/>
       <c r="B225" s="14"/>
       <c r="C225" s="14"/>
       <c r="D225" s="14"/>
-      <c r="E225" s="51"/>
+      <c r="E225" s="50"/>
       <c r="F225" s="14"/>
       <c r="G225" s="14"/>
       <c r="H225" s="14"/>
@@ -8116,11 +8029,11 @@
       <c r="Y225" s="14"/>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="51"/>
+      <c r="A226" s="50"/>
       <c r="B226" s="14"/>
       <c r="C226" s="14"/>
       <c r="D226" s="14"/>
-      <c r="E226" s="51"/>
+      <c r="E226" s="50"/>
       <c r="F226" s="14"/>
       <c r="G226" s="14"/>
       <c r="H226" s="14"/>
@@ -8143,11 +8056,11 @@
       <c r="Y226" s="14"/>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="51"/>
+      <c r="A227" s="50"/>
       <c r="B227" s="14"/>
       <c r="C227" s="14"/>
       <c r="D227" s="14"/>
-      <c r="E227" s="51"/>
+      <c r="E227" s="50"/>
       <c r="F227" s="14"/>
       <c r="G227" s="14"/>
       <c r="H227" s="14"/>
@@ -8170,11 +8083,11 @@
       <c r="Y227" s="14"/>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="51"/>
+      <c r="A228" s="50"/>
       <c r="B228" s="14"/>
       <c r="C228" s="14"/>
       <c r="D228" s="14"/>
-      <c r="E228" s="51"/>
+      <c r="E228" s="50"/>
       <c r="F228" s="14"/>
       <c r="G228" s="14"/>
       <c r="H228" s="14"/>
@@ -8197,11 +8110,11 @@
       <c r="Y228" s="14"/>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="51"/>
+      <c r="A229" s="50"/>
       <c r="B229" s="14"/>
       <c r="C229" s="14"/>
       <c r="D229" s="14"/>
-      <c r="E229" s="51"/>
+      <c r="E229" s="50"/>
       <c r="F229" s="14"/>
       <c r="G229" s="14"/>
       <c r="H229" s="14"/>
@@ -8224,11 +8137,11 @@
       <c r="Y229" s="14"/>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="51"/>
+      <c r="A230" s="50"/>
       <c r="B230" s="14"/>
       <c r="C230" s="14"/>
       <c r="D230" s="14"/>
-      <c r="E230" s="51"/>
+      <c r="E230" s="50"/>
       <c r="F230" s="14"/>
       <c r="G230" s="14"/>
       <c r="H230" s="14"/>
@@ -8251,11 +8164,11 @@
       <c r="Y230" s="14"/>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="51"/>
+      <c r="A231" s="50"/>
       <c r="B231" s="14"/>
       <c r="C231" s="14"/>
       <c r="D231" s="14"/>
-      <c r="E231" s="51"/>
+      <c r="E231" s="50"/>
       <c r="F231" s="14"/>
       <c r="G231" s="14"/>
       <c r="H231" s="14"/>
@@ -8278,11 +8191,11 @@
       <c r="Y231" s="14"/>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="51"/>
+      <c r="A232" s="50"/>
       <c r="B232" s="14"/>
       <c r="C232" s="14"/>
       <c r="D232" s="14"/>
-      <c r="E232" s="51"/>
+      <c r="E232" s="50"/>
       <c r="F232" s="14"/>
       <c r="G232" s="14"/>
       <c r="H232" s="14"/>
@@ -8305,11 +8218,11 @@
       <c r="Y232" s="14"/>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="51"/>
+      <c r="A233" s="50"/>
       <c r="B233" s="14"/>
       <c r="C233" s="14"/>
       <c r="D233" s="14"/>
-      <c r="E233" s="51"/>
+      <c r="E233" s="50"/>
       <c r="F233" s="14"/>
       <c r="G233" s="14"/>
       <c r="H233" s="14"/>
@@ -8332,11 +8245,11 @@
       <c r="Y233" s="14"/>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="51"/>
+      <c r="A234" s="50"/>
       <c r="B234" s="14"/>
       <c r="C234" s="14"/>
       <c r="D234" s="14"/>
-      <c r="E234" s="51"/>
+      <c r="E234" s="50"/>
       <c r="F234" s="14"/>
       <c r="G234" s="14"/>
       <c r="H234" s="14"/>
@@ -8359,11 +8272,11 @@
       <c r="Y234" s="14"/>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="51"/>
+      <c r="A235" s="50"/>
       <c r="B235" s="14"/>
       <c r="C235" s="14"/>
       <c r="D235" s="14"/>
-      <c r="E235" s="51"/>
+      <c r="E235" s="50"/>
       <c r="F235" s="14"/>
       <c r="G235" s="14"/>
       <c r="H235" s="14"/>
@@ -8386,11 +8299,11 @@
       <c r="Y235" s="14"/>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="51"/>
+      <c r="A236" s="50"/>
       <c r="B236" s="14"/>
       <c r="C236" s="14"/>
       <c r="D236" s="14"/>
-      <c r="E236" s="51"/>
+      <c r="E236" s="50"/>
       <c r="F236" s="14"/>
       <c r="G236" s="14"/>
       <c r="H236" s="14"/>
@@ -8413,11 +8326,11 @@
       <c r="Y236" s="14"/>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="51"/>
+      <c r="A237" s="50"/>
       <c r="B237" s="14"/>
       <c r="C237" s="14"/>
       <c r="D237" s="14"/>
-      <c r="E237" s="51"/>
+      <c r="E237" s="50"/>
       <c r="F237" s="14"/>
       <c r="G237" s="14"/>
       <c r="H237" s="14"/>
@@ -8440,11 +8353,11 @@
       <c r="Y237" s="14"/>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="51"/>
+      <c r="A238" s="50"/>
       <c r="B238" s="14"/>
       <c r="C238" s="14"/>
       <c r="D238" s="14"/>
-      <c r="E238" s="51"/>
+      <c r="E238" s="50"/>
       <c r="F238" s="14"/>
       <c r="G238" s="14"/>
       <c r="H238" s="14"/>
@@ -8467,11 +8380,11 @@
       <c r="Y238" s="14"/>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="51"/>
+      <c r="A239" s="50"/>
       <c r="B239" s="14"/>
       <c r="C239" s="14"/>
       <c r="D239" s="14"/>
-      <c r="E239" s="51"/>
+      <c r="E239" s="50"/>
       <c r="F239" s="14"/>
       <c r="G239" s="14"/>
       <c r="H239" s="14"/>
@@ -8494,11 +8407,11 @@
       <c r="Y239" s="14"/>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="51"/>
+      <c r="A240" s="50"/>
       <c r="B240" s="14"/>
       <c r="C240" s="14"/>
       <c r="D240" s="14"/>
-      <c r="E240" s="51"/>
+      <c r="E240" s="50"/>
       <c r="F240" s="14"/>
       <c r="G240" s="14"/>
       <c r="H240" s="14"/>
@@ -8521,11 +8434,11 @@
       <c r="Y240" s="14"/>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="51"/>
+      <c r="A241" s="50"/>
       <c r="B241" s="14"/>
       <c r="C241" s="14"/>
       <c r="D241" s="14"/>
-      <c r="E241" s="51"/>
+      <c r="E241" s="50"/>
       <c r="F241" s="14"/>
       <c r="G241" s="14"/>
       <c r="H241" s="14"/>
@@ -8548,11 +8461,11 @@
       <c r="Y241" s="14"/>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="51"/>
+      <c r="A242" s="50"/>
       <c r="B242" s="14"/>
       <c r="C242" s="14"/>
       <c r="D242" s="14"/>
-      <c r="E242" s="51"/>
+      <c r="E242" s="50"/>
       <c r="F242" s="14"/>
       <c r="G242" s="14"/>
       <c r="H242" s="14"/>
@@ -8575,11 +8488,11 @@
       <c r="Y242" s="14"/>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="51"/>
+      <c r="A243" s="50"/>
       <c r="B243" s="14"/>
       <c r="C243" s="14"/>
       <c r="D243" s="14"/>
-      <c r="E243" s="51"/>
+      <c r="E243" s="50"/>
       <c r="F243" s="14"/>
       <c r="G243" s="14"/>
       <c r="H243" s="14"/>
@@ -8602,11 +8515,11 @@
       <c r="Y243" s="14"/>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="51"/>
+      <c r="A244" s="50"/>
       <c r="B244" s="14"/>
       <c r="C244" s="14"/>
       <c r="D244" s="14"/>
-      <c r="E244" s="51"/>
+      <c r="E244" s="50"/>
       <c r="F244" s="14"/>
       <c r="G244" s="14"/>
       <c r="H244" s="14"/>
@@ -8629,11 +8542,11 @@
       <c r="Y244" s="14"/>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="51"/>
+      <c r="A245" s="50"/>
       <c r="B245" s="14"/>
       <c r="C245" s="14"/>
       <c r="D245" s="14"/>
-      <c r="E245" s="51"/>
+      <c r="E245" s="50"/>
       <c r="F245" s="14"/>
       <c r="G245" s="14"/>
       <c r="H245" s="14"/>
@@ -8656,11 +8569,11 @@
       <c r="Y245" s="14"/>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="51"/>
+      <c r="A246" s="50"/>
       <c r="B246" s="14"/>
       <c r="C246" s="14"/>
       <c r="D246" s="14"/>
-      <c r="E246" s="51"/>
+      <c r="E246" s="50"/>
       <c r="F246" s="14"/>
       <c r="G246" s="14"/>
       <c r="H246" s="14"/>
@@ -8683,11 +8596,11 @@
       <c r="Y246" s="14"/>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="51"/>
+      <c r="A247" s="50"/>
       <c r="B247" s="14"/>
       <c r="C247" s="14"/>
       <c r="D247" s="14"/>
-      <c r="E247" s="51"/>
+      <c r="E247" s="50"/>
       <c r="F247" s="14"/>
       <c r="G247" s="14"/>
       <c r="H247" s="14"/>
@@ -8710,11 +8623,11 @@
       <c r="Y247" s="14"/>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="51"/>
+      <c r="A248" s="50"/>
       <c r="B248" s="14"/>
       <c r="C248" s="14"/>
       <c r="D248" s="14"/>
-      <c r="E248" s="51"/>
+      <c r="E248" s="50"/>
       <c r="F248" s="14"/>
       <c r="G248" s="14"/>
       <c r="H248" s="14"/>
@@ -8737,11 +8650,11 @@
       <c r="Y248" s="14"/>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="51"/>
+      <c r="A249" s="50"/>
       <c r="B249" s="14"/>
       <c r="C249" s="14"/>
       <c r="D249" s="14"/>
-      <c r="E249" s="51"/>
+      <c r="E249" s="50"/>
       <c r="F249" s="14"/>
       <c r="G249" s="14"/>
       <c r="H249" s="14"/>
@@ -8764,11 +8677,11 @@
       <c r="Y249" s="14"/>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="51"/>
+      <c r="A250" s="50"/>
       <c r="B250" s="14"/>
       <c r="C250" s="14"/>
       <c r="D250" s="14"/>
-      <c r="E250" s="51"/>
+      <c r="E250" s="50"/>
       <c r="F250" s="14"/>
       <c r="G250" s="14"/>
       <c r="H250" s="14"/>
@@ -8791,11 +8704,11 @@
       <c r="Y250" s="14"/>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="51"/>
+      <c r="A251" s="50"/>
       <c r="B251" s="14"/>
       <c r="C251" s="14"/>
       <c r="D251" s="14"/>
-      <c r="E251" s="51"/>
+      <c r="E251" s="50"/>
       <c r="F251" s="14"/>
       <c r="G251" s="14"/>
       <c r="H251" s="14"/>
@@ -8818,11 +8731,11 @@
       <c r="Y251" s="14"/>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="51"/>
+      <c r="A252" s="50"/>
       <c r="B252" s="14"/>
       <c r="C252" s="14"/>
       <c r="D252" s="14"/>
-      <c r="E252" s="51"/>
+      <c r="E252" s="50"/>
       <c r="F252" s="14"/>
       <c r="G252" s="14"/>
       <c r="H252" s="14"/>
@@ -8845,11 +8758,11 @@
       <c r="Y252" s="14"/>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="51"/>
+      <c r="A253" s="50"/>
       <c r="B253" s="14"/>
       <c r="C253" s="14"/>
       <c r="D253" s="14"/>
-      <c r="E253" s="51"/>
+      <c r="E253" s="50"/>
       <c r="F253" s="14"/>
       <c r="G253" s="14"/>
       <c r="H253" s="14"/>
@@ -8872,21 +8785,21 @@
       <c r="Y253" s="14"/>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="51"/>
-      <c r="B254" s="45"/>
-      <c r="C254" s="45"/>
-      <c r="D254" s="45"/>
-      <c r="E254" s="51"/>
-      <c r="F254" s="45"/>
-      <c r="G254" s="45"/>
-      <c r="H254" s="45"/>
+      <c r="A254" s="50"/>
+      <c r="B254" s="44"/>
+      <c r="C254" s="44"/>
+      <c r="D254" s="44"/>
+      <c r="E254" s="50"/>
+      <c r="F254" s="44"/>
+      <c r="G254" s="44"/>
+      <c r="H254" s="44"/>
       <c r="I254" s="14"/>
-      <c r="J254" s="45"/>
-      <c r="K254" s="45"/>
+      <c r="J254" s="44"/>
+      <c r="K254" s="44"/>
       <c r="L254" s="14"/>
-      <c r="M254" s="45"/>
-      <c r="N254" s="45"/>
-      <c r="O254" s="45"/>
+      <c r="M254" s="44"/>
+      <c r="N254" s="44"/>
+      <c r="O254" s="44"/>
       <c r="P254" s="14"/>
       <c r="Q254" s="14"/>
       <c r="R254" s="14"/>
@@ -8899,21 +8812,21 @@
       <c r="Y254" s="14"/>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="51"/>
-      <c r="B255" s="45"/>
-      <c r="C255" s="45"/>
-      <c r="D255" s="45"/>
-      <c r="E255" s="51"/>
-      <c r="F255" s="45"/>
-      <c r="G255" s="45"/>
-      <c r="H255" s="45"/>
+      <c r="A255" s="50"/>
+      <c r="B255" s="44"/>
+      <c r="C255" s="44"/>
+      <c r="D255" s="44"/>
+      <c r="E255" s="50"/>
+      <c r="F255" s="44"/>
+      <c r="G255" s="44"/>
+      <c r="H255" s="44"/>
       <c r="I255" s="14"/>
-      <c r="J255" s="45"/>
-      <c r="K255" s="45"/>
+      <c r="J255" s="44"/>
+      <c r="K255" s="44"/>
       <c r="L255" s="14"/>
-      <c r="M255" s="45"/>
-      <c r="N255" s="45"/>
-      <c r="O255" s="45"/>
+      <c r="M255" s="44"/>
+      <c r="N255" s="44"/>
+      <c r="O255" s="44"/>
       <c r="P255" s="14"/>
       <c r="Q255" s="14"/>
       <c r="R255" s="14"/>
@@ -8926,21 +8839,21 @@
       <c r="Y255" s="14"/>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="51"/>
-      <c r="B256" s="45"/>
-      <c r="C256" s="45"/>
-      <c r="D256" s="45"/>
-      <c r="E256" s="51"/>
-      <c r="F256" s="45"/>
-      <c r="G256" s="45"/>
-      <c r="H256" s="45"/>
+      <c r="A256" s="50"/>
+      <c r="B256" s="44"/>
+      <c r="C256" s="44"/>
+      <c r="D256" s="44"/>
+      <c r="E256" s="50"/>
+      <c r="F256" s="44"/>
+      <c r="G256" s="44"/>
+      <c r="H256" s="44"/>
       <c r="I256" s="14"/>
-      <c r="J256" s="45"/>
-      <c r="K256" s="45"/>
+      <c r="J256" s="44"/>
+      <c r="K256" s="44"/>
       <c r="L256" s="14"/>
-      <c r="M256" s="45"/>
-      <c r="N256" s="45"/>
-      <c r="O256" s="45"/>
+      <c r="M256" s="44"/>
+      <c r="N256" s="44"/>
+      <c r="O256" s="44"/>
       <c r="P256" s="14"/>
       <c r="Q256" s="14"/>
       <c r="R256" s="14"/>
@@ -8953,11 +8866,11 @@
       <c r="Y256" s="14"/>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="51"/>
+      <c r="A257" s="50"/>
       <c r="B257" s="14"/>
       <c r="C257" s="14"/>
       <c r="D257" s="14"/>
-      <c r="E257" s="51"/>
+      <c r="E257" s="50"/>
       <c r="F257" s="14"/>
       <c r="G257" s="14"/>
       <c r="H257" s="14"/>
@@ -9277,25 +9190,25 @@
       <c r="Y268" s="14"/>
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="61"/>
-      <c r="B269" s="61"/>
-      <c r="C269" s="61"/>
-      <c r="D269" s="61"/>
-      <c r="E269" s="61"/>
-      <c r="F269" s="61"/>
-      <c r="G269" s="61"/>
-      <c r="H269" s="61"/>
-      <c r="I269" s="61"/>
-      <c r="J269" s="61"/>
-      <c r="K269" s="61"/>
-      <c r="L269" s="61"/>
-      <c r="M269" s="61"/>
-      <c r="N269" s="61"/>
-      <c r="O269" s="61"/>
-      <c r="P269" s="61"/>
-      <c r="Q269" s="61"/>
-      <c r="R269" s="61"/>
-      <c r="S269" s="61"/>
+      <c r="A269" s="60"/>
+      <c r="B269" s="60"/>
+      <c r="C269" s="60"/>
+      <c r="D269" s="60"/>
+      <c r="E269" s="60"/>
+      <c r="F269" s="60"/>
+      <c r="G269" s="60"/>
+      <c r="H269" s="60"/>
+      <c r="I269" s="60"/>
+      <c r="J269" s="60"/>
+      <c r="K269" s="60"/>
+      <c r="L269" s="60"/>
+      <c r="M269" s="60"/>
+      <c r="N269" s="60"/>
+      <c r="O269" s="60"/>
+      <c r="P269" s="60"/>
+      <c r="Q269" s="60"/>
+      <c r="R269" s="60"/>
+      <c r="S269" s="60"/>
       <c r="T269" s="14"/>
       <c r="U269" s="14"/>
       <c r="V269" s="14"/>
@@ -27961,27 +27874,27 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="62"/>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="63" t="s">
+      <c r="A1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="64" t="s">
         <v>49</v>
       </c>
       <c r="D2" s="8" t="str">
@@ -28014,285 +27927,285 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="66" t="str">
+      <c r="A3" s="65" t="str">
         <f aca="false" t="array" ref="A3:A51">Subjects</f>
         <v>Team</v>
       </c>
-      <c r="B3" s="66" t="str">
+      <c r="B3" s="65" t="str">
         <f aca="false" t="array" ref="B3:B51">Attributes</f>
         <v>AttributeOne</v>
       </c>
-      <c r="C3" s="66" t="n">
+      <c r="C3" s="65" t="n">
         <f aca="false">COUNTA(Questions!$I3:$I381)</f>
         <v>2</v>
       </c>
-      <c r="D3" s="66" t="n">
+      <c r="D3" s="65" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$I$3:$I$201, Questions!$H$3:$H$201=D$2)))"),0)</f>
         <v>0</v>
       </c>
-      <c r="E3" s="66" t="n">
+      <c r="E3" s="65" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$I$3:$I$201, Questions!$H$3:$H$201=E$2)))"),2)</f>
         <v>2</v>
       </c>
-      <c r="F3" s="66" t="n">
+      <c r="F3" s="65" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$I$3:$I$201, Questions!$H$3:$H$201=F$2)))"),10)</f>
         <v>10</v>
       </c>
-      <c r="G3" s="66" t="n">
+      <c r="G3" s="65" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$I$3:$I$201, Questions!$H$3:$H$201=G$2)))"),5)</f>
         <v>5</v>
       </c>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="66" t="n">
+      <c r="A4" s="65" t="n">
         <v>0</v>
       </c>
-      <c r="B4" s="66" t="str">
+      <c r="B4" s="65" t="str">
         <v>AttributeTwo</v>
       </c>
-      <c r="C4" s="66" t="n">
+      <c r="C4" s="65" t="n">
         <f aca="false">COUNTA(Questions!$J3:$J381)</f>
         <v>4</v>
       </c>
-      <c r="D4" s="66" t="n">
+      <c r="D4" s="65" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$J$3:$J$201, Questions!$H$3:$H$201=D$2)))"),0)</f>
         <v>0</v>
       </c>
-      <c r="E4" s="66" t="n">
+      <c r="E4" s="65" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$J$3:$J$201, Questions!$H$3:$H$201=E$2)))"),6)</f>
         <v>6</v>
       </c>
-      <c r="F4" s="66" t="n">
+      <c r="F4" s="65" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$J$3:$J$201, Questions!$H$3:$H$201=F$2)))"),4)</f>
         <v>4</v>
       </c>
-      <c r="G4" s="66" t="n">
+      <c r="G4" s="65" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$J$3:$J$201, Questions!$H$3:$H$201=G$2)))"),7)</f>
         <v>7</v>
       </c>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="66" t="str">
+      <c r="A5" s="65" t="str">
         <v>Software</v>
       </c>
-      <c r="B5" s="66" t="str">
+      <c r="B5" s="65" t="str">
         <v>AttributeThree</v>
       </c>
-      <c r="C5" s="66" t="n">
+      <c r="C5" s="65" t="n">
         <f aca="false">COUNTA(Questions!$K3:$K381)</f>
         <v>2</v>
       </c>
-      <c r="D5" s="66" t="n">
+      <c r="D5" s="65" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$K$3:$K$201, Questions!$H$3:$H$201=D$2)))"),0)</f>
         <v>0</v>
       </c>
-      <c r="E5" s="66" t="n">
+      <c r="E5" s="65" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$K$3:$K$201, Questions!$H$3:$H$201=E$2)))"),3)</f>
         <v>3</v>
       </c>
-      <c r="F5" s="66" t="n">
+      <c r="F5" s="65" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$K$3:$K$201, Questions!$H$3:$H$201=F$2)))"),10)</f>
         <v>10</v>
       </c>
-      <c r="G5" s="66" t="n">
+      <c r="G5" s="65" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$K$3:$K$201, Questions!$H$3:$H$201=G$2)))"),4)</f>
         <v>4</v>
       </c>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="67" t="n">
+      <c r="A6" s="66" t="n">
         <v>0</v>
       </c>
-      <c r="B6" s="67" t="n">
+      <c r="B6" s="66" t="n">
         <v>0</v>
       </c>
-      <c r="C6" s="67" t="n">
+      <c r="C6" s="66" t="n">
         <f aca="false">COUNTA(Questions!$L3:$L381)</f>
         <v>0</v>
       </c>
-      <c r="D6" s="67" t="n">
+      <c r="D6" s="66" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$L$3:$L$201, Questions!$H$3:$H$201=D$2)))"),0)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="67" t="n">
+      <c r="E6" s="66" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$L$3:$L$201, Questions!$H$3:$H$201=E$2)))"),4)</f>
         <v>4</v>
       </c>
-      <c r="F6" s="67" t="n">
+      <c r="F6" s="66" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$L$3:$L$201, Questions!$H$3:$H$201=F$2)))"),13)</f>
         <v>13</v>
       </c>
-      <c r="G6" s="67" t="n">
+      <c r="G6" s="66" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$L$3:$L$201, Questions!$H$3:$H$201=G$2)))"),9)</f>
         <v>9</v>
       </c>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="67" t="n">
+      <c r="A7" s="66" t="n">
         <v>0</v>
       </c>
-      <c r="B7" s="67" t="n">
+      <c r="B7" s="66" t="n">
         <v>0</v>
       </c>
-      <c r="C7" s="67" t="n">
+      <c r="C7" s="66" t="n">
         <f aca="false">COUNTA(Questions!$M3:$M381)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="67" t="n">
+      <c r="D7" s="66" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$M$3:$M$201, Questions!$H$3:$H$201=D$2)))"),0)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="67" t="n">
+      <c r="E7" s="66" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$M$3:$M$201, Questions!$H$3:$H$201=E$2)))"),1)</f>
         <v>1</v>
       </c>
-      <c r="F7" s="67" t="n">
+      <c r="F7" s="66" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$M$3:$M$201, Questions!$H$3:$H$201=F$2)))"),7)</f>
         <v>7</v>
       </c>
-      <c r="G7" s="67" t="n">
+      <c r="G7" s="66" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$M$3:$M$201, Questions!$H$3:$H$201=G$2)))"),4)</f>
         <v>4</v>
       </c>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="67" t="n">
+      <c r="A8" s="66" t="n">
         <v>0</v>
       </c>
-      <c r="B8" s="67" t="n">
+      <c r="B8" s="66" t="n">
         <v>0</v>
       </c>
-      <c r="C8" s="67" t="n">
+      <c r="C8" s="66" t="n">
         <f aca="false">COUNTA(Questions!$N3:$N381)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="67" t="n">
+      <c r="D8" s="66" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$N$3:$N$201, Questions!$H$3:$H$201=D$2)))"),0)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="67" t="n">
+      <c r="E8" s="66" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$N$3:$N$201, Questions!$H$3:$H$201=E$2)))"),4)</f>
         <v>4</v>
       </c>
-      <c r="F8" s="67" t="n">
+      <c r="F8" s="66" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$N$3:$N$201, Questions!$H$3:$H$201=F$2)))"),11)</f>
         <v>11</v>
       </c>
-      <c r="G8" s="67" t="n">
+      <c r="G8" s="66" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$N$3:$N$201, Questions!$H$3:$H$201=G$2)))"),3)</f>
         <v>3</v>
       </c>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="67" t="n">
+      <c r="A9" s="66" t="n">
         <v>0</v>
       </c>
-      <c r="B9" s="67" t="n">
+      <c r="B9" s="66" t="n">
         <v>0</v>
       </c>
-      <c r="C9" s="67" t="n">
+      <c r="C9" s="66" t="n">
         <f aca="false">COUNTA(Questions!$O3:$O381)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="67" t="n">
+      <c r="D9" s="66" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$O$3:$O$201, Questions!$H$3:$H$201=D$2)))"),0)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="67" t="n">
+      <c r="E9" s="66" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$O$3:$O$201, Questions!$H$3:$H$201=E$2)))"),3)</f>
         <v>3</v>
       </c>
-      <c r="F9" s="67" t="n">
+      <c r="F9" s="66" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$O$3:$O$201, Questions!$H$3:$H$201=F$2)))"),9)</f>
         <v>9</v>
       </c>
-      <c r="G9" s="67" t="n">
+      <c r="G9" s="66" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$O$3:$O$201, Questions!$H$3:$H$201=G$2)))"),5)</f>
         <v>5</v>
       </c>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="67" t="n">
+      <c r="A10" s="66" t="n">
         <v>0</v>
       </c>
-      <c r="B10" s="67" t="n">
+      <c r="B10" s="66" t="n">
         <v>0</v>
       </c>
-      <c r="C10" s="67" t="n">
+      <c r="C10" s="66" t="n">
         <f aca="false">COUNTA(Questions!$P3:$P381)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="67" t="n">
+      <c r="D10" s="66" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$P$3:$P$201, Questions!$H$3:$H$201=D$2)))"),0)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="67" t="n">
+      <c r="E10" s="66" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$P$3:$P$201, Questions!$H$3:$H$201=E$2)))"),1)</f>
         <v>1</v>
       </c>
-      <c r="F10" s="67" t="n">
+      <c r="F10" s="66" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$P$3:$P$201, Questions!$H$3:$H$201=F$2)))"),3)</f>
         <v>3</v>
       </c>
-      <c r="G10" s="67" t="n">
+      <c r="G10" s="66" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$P$3:$P$201, Questions!$H$3:$H$201=G$2)))"),8)</f>
         <v>8</v>
       </c>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="67" t="n">
+      <c r="A11" s="66" t="n">
         <v>0</v>
       </c>
-      <c r="B11" s="67" t="n">
+      <c r="B11" s="66" t="n">
         <v>0</v>
       </c>
-      <c r="C11" s="67" t="n">
+      <c r="C11" s="66" t="n">
         <f aca="false">COUNTA(Questions!$Q3:$Q381)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="67" t="n">
+      <c r="D11" s="66" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$Q$3:$Q$201, Questions!$H$3:$H$201=D$2)))"),0)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="67" t="n">
+      <c r="E11" s="66" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$Q$3:$Q$201, Questions!$H$3:$H$201=E$2)))"),2)</f>
         <v>2</v>
       </c>
-      <c r="F11" s="67" t="n">
+      <c r="F11" s="66" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$Q$3:$Q$201, Questions!$H$3:$H$201=F$2)))"),5)</f>
         <v>5</v>
       </c>
-      <c r="G11" s="67" t="n">
+      <c r="G11" s="66" t="n">
         <f aca="false">IFERROR(__xludf.dummyfunction("CountA(IFERROR(FILTER(Questions!$Q$3:$Q$201, Questions!$H$3:$H$201=G$2)))"),4)</f>
         <v>4</v>
       </c>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="n">
@@ -28301,11 +28214,11 @@
       <c r="B12" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="n">
@@ -28314,11 +28227,11 @@
       <c r="B13" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="n">

--- a/flickit-assessment-kit/src/test/resources/correct-excel-kit.xlsx
+++ b/flickit-assessment-kit/src/test/resources/correct-excel-kit.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="MaturityLevels" sheetId="1" state="visible" r:id="rId3"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="83">
   <si>
     <t xml:space="preserve">Cells indicate the percentage of points from the column's maturity level required to reach the maturity level in the row.</t>
   </si>
@@ -185,16 +185,10 @@
     <t xml:space="preserve">Quiz Count</t>
   </si>
   <si>
-    <t xml:space="preserve">DevelopmentCode</t>
-  </si>
-  <si>
     <t xml:space="preserve">Development</t>
   </si>
   <si>
     <t xml:space="preserve">Development Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DevOpsCode</t>
   </si>
   <si>
     <t xml:space="preserve">DevOps</t>
@@ -203,7 +197,7 @@
     <t xml:space="preserve">DevOps Description</t>
   </si>
   <si>
-    <t xml:space="preserve">TeamCollaborationCode</t>
+    <t xml:space="preserve">TeamCollaboration</t>
   </si>
   <si>
     <t xml:space="preserve">Team Collaboration</t>
@@ -321,9 +315,6 @@
   </si>
   <si>
     <t xml:space="preserve">Question TeamCollaboration 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TeamCollaboration</t>
   </si>
   <si>
     <t xml:space="preserve">Q20</t>
@@ -814,7 +805,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1529,7 +1520,7 @@
   </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -1666,8 +1657,8 @@
   </sheetPr>
   <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1697,44 +1688,44 @@
         <v>50</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>52</v>
       </c>
       <c r="D2" s="9" t="n">
         <f aca="false">COUNTIF(Questions!$B:$B, A2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>53</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="D3" s="9" t="n">
         <f aca="false">COUNTIF(Questions!$B:$B, A3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>56</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="D4" s="9" t="n">
         <f aca="false">COUNTIF(Questions!$B:$B, A4)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1761,7 +1752,7 @@
   <dimension ref="A1:BE1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
@@ -1790,7 +1781,7 @@
       <c r="G1" s="37"/>
       <c r="H1" s="37"/>
       <c r="I1" s="38" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J1" s="38"/>
       <c r="K1" s="38"/>
@@ -1812,30 +1803,30 @@
       <c r="AA1" s="39"/>
       <c r="AB1" s="39"/>
     </row>
-    <row r="2" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="D2" s="37" t="s">
         <v>61</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>63</v>
       </c>
       <c r="E2" s="37" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="37" t="s">
         <v>64</v>
-      </c>
-      <c r="G2" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="37" t="s">
-        <v>66</v>
       </c>
       <c r="I2" s="41" t="str">
         <f aca="false">IF(QualityAttributes!E2="", "", QualityAttributes!E2)</f>
@@ -1913,19 +1904,19 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="43" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D3" s="44" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="45" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F3" s="44" t="n">
         <v>0</v>
@@ -1958,19 +1949,19 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="43" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D4" s="44" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="45" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F4" s="44" t="n">
         <v>0</v>
@@ -2003,19 +1994,19 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="43" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D5" s="44" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F5" s="44" t="n">
         <v>1</v>
@@ -2048,19 +2039,19 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="43" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D6" s="44" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="45" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F6" s="44" t="n">
         <v>0</v>
@@ -2095,19 +2086,19 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="43" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D7" s="44" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F7" s="44" t="n">
         <v>1</v>
@@ -27878,7 +27869,7 @@
       <c r="B1" s="61"/>
       <c r="C1" s="61"/>
       <c r="D1" s="62" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E1" s="62"/>
       <c r="F1" s="62"/>
@@ -27889,10 +27880,10 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="63" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C2" s="64" t="s">
         <v>49</v>
